--- a/raw/Languages.xlsx
+++ b/raw/Languages.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="885">
   <si>
     <t>Language_ID</t>
   </si>
@@ -350,22 +350,1084 @@
     <t>popt1235</t>
   </si>
   <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>nucl1643</t>
+  </si>
+  <si>
+    <t>Jarawa (in Andamans)</t>
+  </si>
+  <si>
+    <t>jara1245</t>
+  </si>
+  <si>
+    <t>Kashmiri</t>
+  </si>
+  <si>
+    <t>kash1277</t>
+  </si>
+  <si>
+    <t>Kazakh</t>
+  </si>
+  <si>
+    <t>kaza1248</t>
+  </si>
+  <si>
+    <t>Ket</t>
+  </si>
+  <si>
+    <t>kett1243</t>
+  </si>
+  <si>
+    <t>Khanty</t>
+  </si>
+  <si>
+    <t>khan1273</t>
+  </si>
+  <si>
+    <t>Khoekhoe</t>
+  </si>
+  <si>
+    <t>nama1264</t>
+  </si>
+  <si>
+    <t>Khwarshi</t>
+  </si>
+  <si>
+    <t>khva1239</t>
+  </si>
+  <si>
+    <t>Koasati</t>
+  </si>
+  <si>
+    <t>koas1236</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>kore1280</t>
+  </si>
+  <si>
+    <t>Koyra Chiini</t>
+  </si>
+  <si>
+    <t>koyr1240</t>
+  </si>
+  <si>
+    <t>Koyraboro Senni</t>
+  </si>
+  <si>
+    <t>koyr1242</t>
+  </si>
+  <si>
+    <t>Lakhota</t>
+  </si>
+  <si>
+    <t>lako1247</t>
+  </si>
+  <si>
+    <t>Lango</t>
+  </si>
+  <si>
+    <t>lang1324</t>
+  </si>
+  <si>
+    <t>Lavukaleve</t>
+  </si>
+  <si>
+    <t>lavu1241</t>
+  </si>
+  <si>
+    <t>Laz</t>
+  </si>
+  <si>
+    <t>lazz1240</t>
+  </si>
+  <si>
+    <t>Maltese</t>
+  </si>
+  <si>
+    <t>malt1254</t>
+  </si>
+  <si>
+    <t>Mandarin Chinese</t>
+  </si>
+  <si>
+    <t>mand1415</t>
+  </si>
+  <si>
+    <t>Mapudungun</t>
+  </si>
+  <si>
+    <t>mapu1245</t>
+  </si>
+  <si>
+    <t>Martuthunira</t>
+  </si>
+  <si>
+    <t>mart1255</t>
+  </si>
+  <si>
+    <t>Mauritian Creole</t>
+  </si>
+  <si>
+    <t>mori1278</t>
+  </si>
+  <si>
+    <t>Movima</t>
+  </si>
+  <si>
+    <t>movi1243</t>
+  </si>
+  <si>
+    <t>Dolakha Newari</t>
+  </si>
+  <si>
+    <t>newa1246</t>
+  </si>
+  <si>
+    <t>Eastern Ojibwe</t>
+  </si>
+  <si>
+    <t>east2542</t>
+  </si>
+  <si>
+    <t>Olutec</t>
+  </si>
+  <si>
+    <t>olut1240</t>
+  </si>
+  <si>
+    <t>Oriya</t>
+  </si>
+  <si>
+    <t>nucl1284</t>
+  </si>
+  <si>
+    <t>Panjabi</t>
+  </si>
+  <si>
+    <t>panj1256</t>
+  </si>
+  <si>
+    <t>Persian</t>
+  </si>
+  <si>
+    <t>west2369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Pomo </t>
+  </si>
+  <si>
+    <t>nort2966</t>
+  </si>
+  <si>
+    <t>Qiang</t>
+  </si>
+  <si>
+    <t>nort2722</t>
+  </si>
+  <si>
+    <t>Imbabura Quechua</t>
+  </si>
+  <si>
+    <t>imba1240</t>
+  </si>
+  <si>
+    <t>Saliba (in PNG)</t>
+  </si>
+  <si>
+    <t>sali1295</t>
+  </si>
+  <si>
+    <t>Semelai</t>
+  </si>
+  <si>
+    <t>seme1247</t>
+  </si>
+  <si>
+    <t>Seri</t>
+  </si>
+  <si>
+    <t>seri1257</t>
+  </si>
+  <si>
+    <t>Supyire</t>
+  </si>
+  <si>
+    <t>supy1237</t>
+  </si>
+  <si>
+    <t>Swahili</t>
+  </si>
+  <si>
+    <t>swah1253</t>
+  </si>
+  <si>
+    <t>Swati</t>
+  </si>
+  <si>
+    <t>swat1243</t>
+  </si>
+  <si>
+    <t>Tehuelche</t>
+  </si>
+  <si>
+    <t>tehu1242</t>
+  </si>
+  <si>
+    <t>Teop</t>
+  </si>
+  <si>
+    <t>teop1238</t>
+  </si>
+  <si>
+    <t>Tiipay (Jamul)</t>
+  </si>
+  <si>
+    <t>kumi1248</t>
+  </si>
+  <si>
+    <t>Tiriyo</t>
+  </si>
+  <si>
+    <t>trio1238</t>
+  </si>
+  <si>
+    <t>Tiwa (Southern)</t>
+  </si>
+  <si>
+    <t>sout2961</t>
+  </si>
+  <si>
+    <t>Tlapanec</t>
+  </si>
+  <si>
+    <t>acat1239</t>
+  </si>
+  <si>
+    <t>Totonac (Misantla)</t>
+  </si>
+  <si>
+    <t>yecu1235</t>
+  </si>
+  <si>
+    <t>Tukang Besi</t>
+  </si>
+  <si>
+    <t>tuka1249</t>
+  </si>
+  <si>
+    <t>Tümpisa Shoshone</t>
+  </si>
+  <si>
+    <t>pana1305</t>
+  </si>
+  <si>
+    <t>Tzotzil</t>
+  </si>
+  <si>
+    <t>tzot1262</t>
+  </si>
+  <si>
+    <t>Vafsi</t>
+  </si>
+  <si>
+    <t>vafs1240</t>
+  </si>
+  <si>
+    <t>Wappo</t>
+  </si>
+  <si>
+    <t>wapp1239</t>
+  </si>
+  <si>
+    <t>Wolof</t>
+  </si>
+  <si>
+    <t>nucl1347</t>
+  </si>
+  <si>
+    <t>!Xun (Ekoka)</t>
+  </si>
+  <si>
+    <t>kung1261</t>
+  </si>
+  <si>
+    <t>Yaqui</t>
+  </si>
+  <si>
+    <t>yaqu1251</t>
+  </si>
+  <si>
+    <t>Yoruba</t>
+  </si>
+  <si>
+    <t>yoru1245</t>
+  </si>
+  <si>
+    <t>Yukaghir (Kolyma)</t>
+  </si>
+  <si>
+    <t>sout2750</t>
+  </si>
+  <si>
+    <t>Yuracare</t>
+  </si>
+  <si>
+    <t>yura1255</t>
+  </si>
+  <si>
+    <t>Zarma</t>
+  </si>
+  <si>
+    <t>zarm1239</t>
+  </si>
+  <si>
+    <t>Zulu</t>
+  </si>
+  <si>
+    <t>zulu1248</t>
+  </si>
+  <si>
+    <t>Puma</t>
+  </si>
+  <si>
+    <t>puma1239</t>
+  </si>
+  <si>
+    <t>Leti</t>
+  </si>
+  <si>
+    <t>leti1246</t>
+  </si>
+  <si>
+    <t>Kayardild</t>
+  </si>
+  <si>
+    <t>kaya1319</t>
+  </si>
+  <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>hung1274</t>
+  </si>
+  <si>
+    <t>Emai</t>
+  </si>
+  <si>
+    <t>emai1241</t>
+  </si>
+  <si>
+    <t>Lai</t>
+  </si>
+  <si>
+    <t>haka1240</t>
+  </si>
+  <si>
+    <t>Paiute (Northern)</t>
+  </si>
+  <si>
+    <t>nort2954</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>indo1316</t>
+  </si>
+  <si>
+    <t>Jalonke</t>
+  </si>
+  <si>
+    <t>yalu1240</t>
+  </si>
+  <si>
+    <t>Meithei</t>
+  </si>
+  <si>
+    <t>mani1292</t>
+  </si>
+  <si>
+    <t>N|uu</t>
+  </si>
+  <si>
+    <t>nuuu1241</t>
+  </si>
+  <si>
+    <t>Greenlandic (West)</t>
+  </si>
+  <si>
+    <t>kala1399</t>
+  </si>
+  <si>
+    <t>Jóola Banjal</t>
+  </si>
+  <si>
+    <t>band1340</t>
+  </si>
+  <si>
+    <t>Neo-Aramaic (Telkepe)</t>
+  </si>
+  <si>
+    <t>chal1275</t>
+  </si>
+  <si>
+    <t>Mian</t>
+  </si>
+  <si>
+    <t>mian1256</t>
+  </si>
+  <si>
+    <t>Tima</t>
+  </si>
+  <si>
+    <t>tima1241</t>
+  </si>
+  <si>
+    <t>Teiwa</t>
+  </si>
+  <si>
+    <t>teiw1235</t>
+  </si>
+  <si>
+    <t>Chintang</t>
+  </si>
+  <si>
+    <t>chhi1245</t>
+  </si>
+  <si>
+    <t>Donno So</t>
+  </si>
+  <si>
+    <t>donn1238</t>
+  </si>
+  <si>
+    <t>Ancient Greek</t>
+  </si>
+  <si>
+    <t>anci1242</t>
+  </si>
+  <si>
+    <t>Abun</t>
+  </si>
+  <si>
+    <t>abun1252</t>
+  </si>
+  <si>
+    <t>Akawaio</t>
+  </si>
+  <si>
+    <t>akaw1239</t>
+  </si>
+  <si>
+    <t>Ala'ala</t>
+  </si>
+  <si>
+    <t>lala1268</t>
+  </si>
+  <si>
+    <t>Alyawarra</t>
+  </si>
+  <si>
+    <t>alya1239</t>
+  </si>
+  <si>
+    <t>Ambae (Lolovoli Northeast)</t>
+  </si>
+  <si>
+    <t>east2443</t>
+  </si>
+  <si>
+    <t>Anong</t>
+  </si>
+  <si>
+    <t>nung1282</t>
+  </si>
+  <si>
+    <t>Apurinã</t>
+  </si>
+  <si>
+    <t>apur1254</t>
+  </si>
+  <si>
+    <t>Egyptian Arabic</t>
+  </si>
+  <si>
+    <t>egyp1253</t>
+  </si>
+  <si>
+    <t>Araona</t>
+  </si>
+  <si>
+    <t>arao1248</t>
+  </si>
+  <si>
+    <t>Arawak</t>
+  </si>
+  <si>
+    <t>araw1276</t>
+  </si>
+  <si>
+    <t>Eastern Armenian</t>
+  </si>
+  <si>
+    <t>nucl1235</t>
+  </si>
+  <si>
+    <t>Arop-Lokep</t>
+  </si>
+  <si>
+    <t>arop1243</t>
+  </si>
+  <si>
+    <t>Eastern Arrernte</t>
+  </si>
+  <si>
+    <t>east2379</t>
+  </si>
+  <si>
+    <t>Babungo</t>
+  </si>
+  <si>
+    <t>veng1238</t>
+  </si>
+  <si>
+    <t>Badimaya</t>
+  </si>
+  <si>
+    <t>badi1246</t>
+  </si>
+  <si>
+    <t>Bagirmi</t>
+  </si>
+  <si>
+    <t>bagi1246</t>
+  </si>
+  <si>
+    <t>Bai</t>
+  </si>
+  <si>
+    <t>cent2004</t>
+  </si>
+  <si>
+    <t>Baka (in Cameroon)</t>
+  </si>
+  <si>
+    <t>baka1272</t>
+  </si>
+  <si>
+    <t>Banoni</t>
+  </si>
+  <si>
+    <t>bann1247</t>
+  </si>
+  <si>
+    <t>Barasano</t>
+  </si>
+  <si>
+    <t>bara1380</t>
+  </si>
+  <si>
+    <t>Baré</t>
+  </si>
+  <si>
+    <t>bare1276</t>
+  </si>
+  <si>
+    <t>Bauzi</t>
+  </si>
+  <si>
+    <t>bauz1241</t>
+  </si>
+  <si>
+    <t>Bawm</t>
+  </si>
+  <si>
+    <t>bawm1236</t>
+  </si>
+  <si>
+    <t>Belhare</t>
+  </si>
+  <si>
+    <t>belh1239</t>
+  </si>
+  <si>
+    <t>Berber (Middle Atlas)</t>
+  </si>
+  <si>
+    <t>cent2194</t>
+  </si>
+  <si>
+    <t>Berta</t>
+  </si>
+  <si>
+    <t>bert1248</t>
+  </si>
+  <si>
+    <t>Bhojpuri</t>
+  </si>
+  <si>
+    <t>bhoj1244</t>
+  </si>
+  <si>
+    <t>Bininj Gun-Wok</t>
+  </si>
+  <si>
+    <t>gunw1252</t>
+  </si>
+  <si>
+    <t>Biri</t>
+  </si>
+  <si>
+    <t>biri1256</t>
+  </si>
+  <si>
+    <t>Bisu</t>
+  </si>
+  <si>
+    <t>bisu1244</t>
+  </si>
+  <si>
+    <t>Blackfoot</t>
+  </si>
+  <si>
+    <t>siks1238</t>
+  </si>
+  <si>
+    <t>Bozo (Tigemaxo)</t>
+  </si>
+  <si>
+    <t>tiey1235</t>
+  </si>
+  <si>
+    <t>Brokskat</t>
+  </si>
+  <si>
+    <t>brok1247</t>
+  </si>
+  <si>
+    <t>Teanu</t>
+  </si>
+  <si>
+    <t>tean1237</t>
+  </si>
+  <si>
+    <t>Burushaski</t>
+  </si>
+  <si>
+    <t>buru1296</t>
+  </si>
+  <si>
+    <t>Busa</t>
+  </si>
+  <si>
+    <t>busa1253</t>
+  </si>
+  <si>
+    <t>Byansi</t>
+  </si>
+  <si>
+    <t>byan1241</t>
+  </si>
+  <si>
+    <t>Canela-Krahô</t>
+  </si>
+  <si>
+    <t>ramk1239</t>
+  </si>
+  <si>
+    <t>Chantyal</t>
+  </si>
+  <si>
+    <t>chan1310</t>
+  </si>
+  <si>
+    <t>Cherokee</t>
+  </si>
+  <si>
+    <t>cher1273</t>
+  </si>
+  <si>
+    <t>Chinantec (Lealao)</t>
+  </si>
+  <si>
+    <t>leal1235</t>
+  </si>
+  <si>
+    <t>Chocho</t>
+  </si>
+  <si>
+    <t>choc1279</t>
+  </si>
+  <si>
+    <t>Choctaw</t>
+  </si>
+  <si>
+    <t>choc1276</t>
+  </si>
+  <si>
+    <t>Chukchi</t>
+  </si>
+  <si>
+    <t>chuk1273</t>
+  </si>
+  <si>
+    <t>Comanche</t>
+  </si>
+  <si>
+    <t>coma1245</t>
+  </si>
+  <si>
+    <t>Coos (Hanis)</t>
+  </si>
+  <si>
+    <t>coos1249</t>
+  </si>
+  <si>
+    <t>Coptic</t>
+  </si>
+  <si>
+    <t>copt1239</t>
+  </si>
+  <si>
+    <t>Cree (Plains)</t>
+  </si>
+  <si>
+    <t>plai1258</t>
+  </si>
+  <si>
+    <t>Dagbani</t>
+  </si>
+  <si>
+    <t>dagb1246</t>
+  </si>
+  <si>
+    <t>Dahalo</t>
+  </si>
+  <si>
+    <t>daha1245</t>
+  </si>
+  <si>
+    <t>Dhaasanac</t>
+  </si>
+  <si>
+    <t>daas1238</t>
+  </si>
+  <si>
+    <t>Dharumbal</t>
+  </si>
+  <si>
+    <t>baya1257</t>
+  </si>
+  <si>
+    <t>Dhivehi</t>
+  </si>
+  <si>
+    <t>dhiv1236</t>
+  </si>
+  <si>
+    <t>Djabugay</t>
+  </si>
+  <si>
+    <t>dyaa1242</t>
+  </si>
+  <si>
+    <t>Djaru</t>
+  </si>
+  <si>
+    <t>jaru1254</t>
+  </si>
+  <si>
+    <t>Dogon</t>
+  </si>
+  <si>
+    <t>bang1363</t>
+  </si>
+  <si>
+    <t>Doyayo</t>
+  </si>
+  <si>
+    <t>doya1240</t>
+  </si>
+  <si>
+    <t>Drehu</t>
+  </si>
+  <si>
+    <t>dehu1237</t>
+  </si>
+  <si>
+    <t>Duala</t>
+  </si>
+  <si>
+    <t>dual1243</t>
+  </si>
+  <si>
+    <t>Dullay (Gollango)</t>
+  </si>
+  <si>
+    <t>gaww1239</t>
+  </si>
+  <si>
+    <t>Efik</t>
+  </si>
+  <si>
+    <t>efik1245</t>
+  </si>
+  <si>
+    <t>Epena Pedee</t>
+  </si>
+  <si>
+    <t>epen1239</t>
+  </si>
+  <si>
+    <t>Erromangan</t>
+  </si>
+  <si>
+    <t>siee1239</t>
+  </si>
+  <si>
+    <t>Ewondo</t>
+  </si>
+  <si>
+    <t>ewon1239</t>
+  </si>
+  <si>
+    <t>Fijian</t>
+  </si>
+  <si>
+    <t>fiji1243</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>stan1290</t>
+  </si>
+  <si>
+    <t>Fyem</t>
+  </si>
+  <si>
+    <t>fyam1238</t>
+  </si>
+  <si>
+    <t>Gamo</t>
+  </si>
+  <si>
+    <t>gamo1244</t>
+  </si>
+  <si>
+    <t>Gapapaiwa</t>
+  </si>
+  <si>
+    <t>gapa1238</t>
+  </si>
+  <si>
+    <t>Gola</t>
+  </si>
+  <si>
+    <t>gola1255</t>
+  </si>
+  <si>
+    <t>Gooniyandi</t>
+  </si>
+  <si>
+    <t>goon1238</t>
+  </si>
+  <si>
+    <t>Grebo</t>
+  </si>
+  <si>
+    <t>sout2826</t>
+  </si>
+  <si>
+    <t>Guaraní</t>
+  </si>
+  <si>
+    <t>para1311</t>
+  </si>
+  <si>
+    <t>Guduf</t>
+  </si>
+  <si>
+    <t>gudu1252</t>
+  </si>
+  <si>
+    <t>Gumbaynggir</t>
+  </si>
+  <si>
+    <t>kumb1268</t>
+  </si>
+  <si>
+    <t>Gurr-goni</t>
+  </si>
+  <si>
+    <t>gura1252</t>
+  </si>
+  <si>
+    <t>Guugu Yimidhirr</t>
+  </si>
+  <si>
+    <t>gugu1255</t>
+  </si>
+  <si>
+    <t>Haida</t>
+  </si>
+  <si>
+    <t>haid1248</t>
+  </si>
+  <si>
+    <t>Hatam</t>
+  </si>
+  <si>
+    <t>hata1243</t>
+  </si>
+  <si>
+    <t>Hausa</t>
+  </si>
+  <si>
+    <t>haus1257</t>
+  </si>
+  <si>
+    <t>Hayu</t>
+  </si>
+  <si>
+    <t>wayu1241</t>
+  </si>
+  <si>
+    <t>Hdi</t>
+  </si>
+  <si>
+    <t>hdii1240</t>
+  </si>
+  <si>
+    <t>Hebrew (Modern)</t>
+  </si>
+  <si>
+    <t>hebr1245</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>hind1269</t>
+  </si>
+  <si>
+    <t>Hmar</t>
+  </si>
+  <si>
+    <t>hmar1241</t>
+  </si>
+  <si>
+    <t>Hmong Njua</t>
+  </si>
+  <si>
+    <t>hmon1264</t>
+  </si>
+  <si>
+    <t>Hoava</t>
+  </si>
+  <si>
+    <t>hoav1238</t>
+  </si>
+  <si>
+    <t>Hunzib</t>
+  </si>
+  <si>
+    <t>hunz1247</t>
+  </si>
+  <si>
+    <t>Igbo</t>
+  </si>
+  <si>
+    <t>nucl1417</t>
+  </si>
+  <si>
+    <t>Ik</t>
+  </si>
+  <si>
+    <t>ikkk1242</t>
+  </si>
+  <si>
+    <t>Imonda</t>
+  </si>
+  <si>
+    <t>imon1245</t>
+  </si>
+  <si>
+    <t>Ingush</t>
+  </si>
+  <si>
+    <t>ingu1240</t>
+  </si>
+  <si>
+    <t>Iraqw</t>
+  </si>
+  <si>
+    <t>iraq1241</t>
+  </si>
+  <si>
+    <t>Itzaj</t>
+  </si>
+  <si>
+    <t>itza1241</t>
+  </si>
+  <si>
+    <t>Jabêm</t>
+  </si>
+  <si>
+    <t>yabe1254</t>
+  </si>
+  <si>
     <t>Jaminjung</t>
   </si>
   <si>
     <t>djam1255</t>
   </si>
   <si>
-    <t>Japanese</t>
-  </si>
-  <si>
-    <t>nucl1643</t>
-  </si>
-  <si>
-    <t>Jarawa (in Andamans)</t>
-  </si>
-  <si>
-    <t>jara1245</t>
+    <t>Jeli</t>
+  </si>
+  <si>
+    <t>jeri1242</t>
+  </si>
+  <si>
+    <t>Jingpho</t>
+  </si>
+  <si>
+    <t>kach1280</t>
+  </si>
+  <si>
+    <t>Ju|'hoan</t>
+  </si>
+  <si>
+    <t>juho1239</t>
+  </si>
+  <si>
+    <t>Kairiru</t>
+  </si>
+  <si>
+    <t>kair1263</t>
+  </si>
+  <si>
+    <t>Kala Lagaw Ya</t>
+  </si>
+  <si>
+    <t>kala1377</t>
+  </si>
+  <si>
+    <t>Kalkatungu</t>
+  </si>
+  <si>
+    <t>kalk1246</t>
+  </si>
+  <si>
+    <t>Kamaiurá</t>
+  </si>
+  <si>
+    <t>kama1373</t>
   </si>
   <si>
     <t>Kambera</t>
@@ -374,52 +1436,127 @@
     <t>kamb1299</t>
   </si>
   <si>
-    <t>Kashmiri</t>
-  </si>
-  <si>
-    <t>kash1277</t>
-  </si>
-  <si>
-    <t>Kazakh</t>
-  </si>
-  <si>
-    <t>kaza1248</t>
-  </si>
-  <si>
-    <t>Ket</t>
-  </si>
-  <si>
-    <t>kett1243</t>
-  </si>
-  <si>
-    <t>Khanty</t>
-  </si>
-  <si>
-    <t>khan1273</t>
-  </si>
-  <si>
-    <t>Khoekhoe</t>
-  </si>
-  <si>
-    <t>nama1264</t>
-  </si>
-  <si>
-    <t>Khwarshi</t>
-  </si>
-  <si>
-    <t>khva1239</t>
-  </si>
-  <si>
-    <t>Koasati</t>
-  </si>
-  <si>
-    <t>koas1236</t>
-  </si>
-  <si>
-    <t>Korean</t>
-  </si>
-  <si>
-    <t>kore1280</t>
+    <t>Kana</t>
+  </si>
+  <si>
+    <t>khan1278</t>
+  </si>
+  <si>
+    <t>Kannada</t>
+  </si>
+  <si>
+    <t>nucl1305</t>
+  </si>
+  <si>
+    <t>Karok</t>
+  </si>
+  <si>
+    <t>karo1304</t>
+  </si>
+  <si>
+    <t>Kâte</t>
+  </si>
+  <si>
+    <t>kate1253</t>
+  </si>
+  <si>
+    <t>Kayah Li (Eastern)</t>
+  </si>
+  <si>
+    <t>east2342</t>
+  </si>
+  <si>
+    <t>Kemant</t>
+  </si>
+  <si>
+    <t>qima1242</t>
+  </si>
+  <si>
+    <t>Kera</t>
+  </si>
+  <si>
+    <t>kera1255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ket </t>
+  </si>
+  <si>
+    <t>Khalkha</t>
+  </si>
+  <si>
+    <t>halh1238</t>
+  </si>
+  <si>
+    <t>Khasi</t>
+  </si>
+  <si>
+    <t>khas1269</t>
+  </si>
+  <si>
+    <t>Khmer</t>
+  </si>
+  <si>
+    <t>cent1989</t>
+  </si>
+  <si>
+    <t>Khmu'</t>
+  </si>
+  <si>
+    <t>khmu1256</t>
+  </si>
+  <si>
+    <t>Kilivila</t>
+  </si>
+  <si>
+    <t>kili1267</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>gilb1244</t>
+  </si>
+  <si>
+    <t>Klamath</t>
+  </si>
+  <si>
+    <t>klam1254</t>
+  </si>
+  <si>
+    <t>Kobon</t>
+  </si>
+  <si>
+    <t>kobo1249</t>
+  </si>
+  <si>
+    <t>Kodava</t>
+  </si>
+  <si>
+    <t>koda1255</t>
+  </si>
+  <si>
+    <t>Kombai</t>
+  </si>
+  <si>
+    <t>ndei1235</t>
+  </si>
+  <si>
+    <t>Konda</t>
+  </si>
+  <si>
+    <t>kond1295</t>
+  </si>
+  <si>
+    <t>Kongo</t>
+  </si>
+  <si>
+    <t>koon1244</t>
+  </si>
+  <si>
+    <t>Korku</t>
+  </si>
+  <si>
+    <t>kork1243</t>
   </si>
   <si>
     <t>Koromfe</t>
@@ -428,58 +1565,208 @@
     <t>koro1298</t>
   </si>
   <si>
-    <t>Koyra Chiini</t>
-  </si>
-  <si>
-    <t>koyr1240</t>
-  </si>
-  <si>
-    <t>Koyraboro Senni</t>
-  </si>
-  <si>
-    <t>koyr1242</t>
-  </si>
-  <si>
-    <t>Lakhota</t>
-  </si>
-  <si>
-    <t>lako1247</t>
-  </si>
-  <si>
-    <t>Lango</t>
-  </si>
-  <si>
-    <t>lang1324</t>
-  </si>
-  <si>
-    <t>Lavukaleve</t>
-  </si>
-  <si>
-    <t>lavu1241</t>
-  </si>
-  <si>
-    <t>Laz</t>
-  </si>
-  <si>
-    <t>lazz1240</t>
-  </si>
-  <si>
-    <t>Maltese</t>
-  </si>
-  <si>
-    <t>malt1254</t>
-  </si>
-  <si>
-    <t>Mandarin Chinese</t>
-  </si>
-  <si>
-    <t>mand1415</t>
-  </si>
-  <si>
-    <t>Mapudungun</t>
-  </si>
-  <si>
-    <t>mapu1245</t>
+    <t>Korowai</t>
+  </si>
+  <si>
+    <t>koro1312</t>
+  </si>
+  <si>
+    <t>Krongo</t>
+  </si>
+  <si>
+    <t>kron1241</t>
+  </si>
+  <si>
+    <t>Kugu Nganhcara</t>
+  </si>
+  <si>
+    <t>kuku1280</t>
+  </si>
+  <si>
+    <t>Kukú</t>
+  </si>
+  <si>
+    <t>bari1284</t>
+  </si>
+  <si>
+    <t>Kuku-Yalanji</t>
+  </si>
+  <si>
+    <t>kuku1273</t>
+  </si>
+  <si>
+    <t>Kunama</t>
+  </si>
+  <si>
+    <t>kuna1268</t>
+  </si>
+  <si>
+    <t>Kutenai</t>
+  </si>
+  <si>
+    <t>kute1249</t>
+  </si>
+  <si>
+    <t>Kwaio</t>
+  </si>
+  <si>
+    <t>kwai1243</t>
+  </si>
+  <si>
+    <t>Ladakhi</t>
+  </si>
+  <si>
+    <t>lada1244</t>
+  </si>
+  <si>
+    <t>Lak</t>
+  </si>
+  <si>
+    <t>lakk1252</t>
+  </si>
+  <si>
+    <t>Lamang</t>
+  </si>
+  <si>
+    <t>lama1288</t>
+  </si>
+  <si>
+    <t>Latvian</t>
+  </si>
+  <si>
+    <t>latv1249</t>
+  </si>
+  <si>
+    <t>Lepcha</t>
+  </si>
+  <si>
+    <t>lepc1244</t>
+  </si>
+  <si>
+    <t>Lezgian</t>
+  </si>
+  <si>
+    <t>lezg1247</t>
+  </si>
+  <si>
+    <t>Lillooet</t>
+  </si>
+  <si>
+    <t>lill1248</t>
+  </si>
+  <si>
+    <t>Limilngan</t>
+  </si>
+  <si>
+    <t>nucl1327</t>
+  </si>
+  <si>
+    <t>Lingala</t>
+  </si>
+  <si>
+    <t>ling1263</t>
+  </si>
+  <si>
+    <t>Lisu</t>
+  </si>
+  <si>
+    <t>lisu1250</t>
+  </si>
+  <si>
+    <t>Longgu</t>
+  </si>
+  <si>
+    <t>long1395</t>
+  </si>
+  <si>
+    <t>Loniu</t>
+  </si>
+  <si>
+    <t>loni1238</t>
+  </si>
+  <si>
+    <t>Lunda</t>
+  </si>
+  <si>
+    <t>lund1266</t>
+  </si>
+  <si>
+    <t>Ma'di</t>
+  </si>
+  <si>
+    <t>madi1260</t>
+  </si>
+  <si>
+    <t>Maale</t>
+  </si>
+  <si>
+    <t>male1284</t>
+  </si>
+  <si>
+    <t>Macushi</t>
+  </si>
+  <si>
+    <t>macu1259</t>
+  </si>
+  <si>
+    <t>Madurese</t>
+  </si>
+  <si>
+    <t>nucl1460</t>
+  </si>
+  <si>
+    <t>Maipure</t>
+  </si>
+  <si>
+    <t>maip1247</t>
+  </si>
+  <si>
+    <t>Maithili</t>
+  </si>
+  <si>
+    <t>mait1250</t>
+  </si>
+  <si>
+    <t>Makah</t>
+  </si>
+  <si>
+    <t>maka1318</t>
+  </si>
+  <si>
+    <t>Mam</t>
+  </si>
+  <si>
+    <t>mamc1234</t>
+  </si>
+  <si>
+    <t>Mangarrayi</t>
+  </si>
+  <si>
+    <t>mang1381</t>
+  </si>
+  <si>
+    <t>Mangghuer</t>
+  </si>
+  <si>
+    <t>tuuu1240</t>
+  </si>
+  <si>
+    <t>Maori</t>
+  </si>
+  <si>
+    <t>maor1246</t>
+  </si>
+  <si>
+    <t>Maranungku</t>
+  </si>
+  <si>
+    <t>mara1386</t>
+  </si>
+  <si>
+    <t>Marathi</t>
+  </si>
+  <si>
+    <t>mara1378</t>
   </si>
   <si>
     <t>Maricopa</t>
@@ -488,22 +1775,172 @@
     <t>mari1440</t>
   </si>
   <si>
-    <t>Martuthunira</t>
-  </si>
-  <si>
-    <t>mart1255</t>
-  </si>
-  <si>
-    <t>Mauritian Creole</t>
-  </si>
-  <si>
-    <t>mori1278</t>
-  </si>
-  <si>
-    <t>Movima</t>
-  </si>
-  <si>
-    <t>movi1243</t>
+    <t>Marquesan</t>
+  </si>
+  <si>
+    <t>nort2845</t>
+  </si>
+  <si>
+    <t>Matis</t>
+  </si>
+  <si>
+    <t>mati1255</t>
+  </si>
+  <si>
+    <t>Matsés</t>
+  </si>
+  <si>
+    <t>mats1244</t>
+  </si>
+  <si>
+    <t>Maybrat</t>
+  </si>
+  <si>
+    <t>maib1239</t>
+  </si>
+  <si>
+    <t>Mbabaram</t>
+  </si>
+  <si>
+    <t>mbab1239</t>
+  </si>
+  <si>
+    <t>Mbay</t>
+  </si>
+  <si>
+    <t>mbay1241</t>
+  </si>
+  <si>
+    <t>Mbili</t>
+  </si>
+  <si>
+    <t>bamb1266</t>
+  </si>
+  <si>
+    <t>Mende</t>
+  </si>
+  <si>
+    <t>mend1266</t>
+  </si>
+  <si>
+    <t>Mixtec (Chalcatongo)</t>
+  </si>
+  <si>
+    <t>sanm1295</t>
+  </si>
+  <si>
+    <t>Miya</t>
+  </si>
+  <si>
+    <t>miya1266</t>
+  </si>
+  <si>
+    <t>Mocoví</t>
+  </si>
+  <si>
+    <t>moco1246</t>
+  </si>
+  <si>
+    <t>Mono (in United States)</t>
+  </si>
+  <si>
+    <t>mono1275</t>
+  </si>
+  <si>
+    <t>Monumbo</t>
+  </si>
+  <si>
+    <t>nucl1458</t>
+  </si>
+  <si>
+    <t>Mosetén</t>
+  </si>
+  <si>
+    <t>mose1249</t>
+  </si>
+  <si>
+    <t>Motuna</t>
+  </si>
+  <si>
+    <t>siwa1245</t>
+  </si>
+  <si>
+    <t>Mundang</t>
+  </si>
+  <si>
+    <t>mund1325</t>
+  </si>
+  <si>
+    <t>Mundari</t>
+  </si>
+  <si>
+    <t>mund1320</t>
+  </si>
+  <si>
+    <t>Mupun</t>
+  </si>
+  <si>
+    <t>mwag1236</t>
+  </si>
+  <si>
+    <t>Murle</t>
+  </si>
+  <si>
+    <t>murl1244</t>
+  </si>
+  <si>
+    <t>Musgu</t>
+  </si>
+  <si>
+    <t>musg1254</t>
+  </si>
+  <si>
+    <t>Mussau</t>
+  </si>
+  <si>
+    <t>muss1246</t>
+  </si>
+  <si>
+    <t>Nabak</t>
+  </si>
+  <si>
+    <t>naba1256</t>
+  </si>
+  <si>
+    <t>Nagatman</t>
+  </si>
+  <si>
+    <t>yale1246</t>
+  </si>
+  <si>
+    <t>Nahuatl (Tetelcingo)</t>
+  </si>
+  <si>
+    <t>tete1251</t>
+  </si>
+  <si>
+    <t>Nambikuára</t>
+  </si>
+  <si>
+    <t>sout2994</t>
+  </si>
+  <si>
+    <t>Navajo</t>
+  </si>
+  <si>
+    <t>nava1243</t>
+  </si>
+  <si>
+    <t>Ndebele (in South Africa)</t>
+  </si>
+  <si>
+    <t>sout2808</t>
+  </si>
+  <si>
+    <t>Ndjébbana</t>
+  </si>
+  <si>
+    <t>djee1236</t>
   </si>
   <si>
     <t>Nepali</t>
@@ -512,34 +1949,139 @@
     <t>nepa1252</t>
   </si>
   <si>
-    <t>Dolakha Newari</t>
-  </si>
-  <si>
-    <t>newa1246</t>
-  </si>
-  <si>
-    <t>Eastern Ojibwe</t>
-  </si>
-  <si>
-    <t>east2542</t>
-  </si>
-  <si>
-    <t>Olutec</t>
-  </si>
-  <si>
-    <t>olut1240</t>
-  </si>
-  <si>
-    <t>Oriya</t>
-  </si>
-  <si>
-    <t>nucl1284</t>
-  </si>
-  <si>
-    <t>Panjabi</t>
-  </si>
-  <si>
-    <t>panj1256</t>
+    <t>Ngalakan</t>
+  </si>
+  <si>
+    <t>ngal1293</t>
+  </si>
+  <si>
+    <t>Ngiyambaa</t>
+  </si>
+  <si>
+    <t>wang1291</t>
+  </si>
+  <si>
+    <t>Nhanda</t>
+  </si>
+  <si>
+    <t>nhan1238</t>
+  </si>
+  <si>
+    <t>Nias</t>
+  </si>
+  <si>
+    <t>nias1242</t>
+  </si>
+  <si>
+    <t>Nisgha</t>
+  </si>
+  <si>
+    <t>nisg1240</t>
+  </si>
+  <si>
+    <t>Niuean</t>
+  </si>
+  <si>
+    <t>niue1239</t>
+  </si>
+  <si>
+    <t>Nivkh</t>
+  </si>
+  <si>
+    <t>gily1242</t>
+  </si>
+  <si>
+    <t>Nkore-Kiga</t>
+  </si>
+  <si>
+    <t>chig1238</t>
+  </si>
+  <si>
+    <t>Nuaulu</t>
+  </si>
+  <si>
+    <t>sout2895</t>
+  </si>
+  <si>
+    <t>Nubian (Dongolese)</t>
+  </si>
+  <si>
+    <t>kenu1236</t>
+  </si>
+  <si>
+    <t>Nubian (Kunuz)</t>
+  </si>
+  <si>
+    <t>Nuuchahnulth</t>
+  </si>
+  <si>
+    <t>noot1239</t>
+  </si>
+  <si>
+    <t>O'odham</t>
+  </si>
+  <si>
+    <t>toho1245</t>
+  </si>
+  <si>
+    <t>Obolo</t>
+  </si>
+  <si>
+    <t>obol1243</t>
+  </si>
+  <si>
+    <t>Oromo (Harar)</t>
+  </si>
+  <si>
+    <t>east2652</t>
+  </si>
+  <si>
+    <t>Orya</t>
+  </si>
+  <si>
+    <t>orya1242</t>
+  </si>
+  <si>
+    <t>Otomí (Mezquital)</t>
+  </si>
+  <si>
+    <t>mezq1235</t>
+  </si>
+  <si>
+    <t>Paamese</t>
+  </si>
+  <si>
+    <t>paam1238</t>
+  </si>
+  <si>
+    <t>Páez</t>
+  </si>
+  <si>
+    <t>paez1247</t>
+  </si>
+  <si>
+    <t>Paita</t>
+  </si>
+  <si>
+    <t>dumb1241</t>
+  </si>
+  <si>
+    <t>Paiwan</t>
+  </si>
+  <si>
+    <t>paiw1248</t>
+  </si>
+  <si>
+    <t>Palauan</t>
+  </si>
+  <si>
+    <t>pala1344</t>
+  </si>
+  <si>
+    <t>Panyjima</t>
+  </si>
+  <si>
+    <t>pany1241</t>
   </si>
   <si>
     <t>Passamaquoddy-Maliseet</t>
@@ -548,2134 +2090,568 @@
     <t>male1292</t>
   </si>
   <si>
-    <t>Persian</t>
-  </si>
-  <si>
-    <t>west2369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Pomo </t>
-  </si>
-  <si>
-    <t>nort2966</t>
-  </si>
-  <si>
-    <t>Qiang</t>
-  </si>
-  <si>
-    <t>nort2722</t>
-  </si>
-  <si>
-    <t>Imbabura Quechua</t>
-  </si>
-  <si>
-    <t>imba1240</t>
-  </si>
-  <si>
-    <t>Saliba (in PNG)</t>
-  </si>
-  <si>
-    <t>sali1295</t>
-  </si>
-  <si>
-    <t>Semelai</t>
-  </si>
-  <si>
-    <t>seme1247</t>
-  </si>
-  <si>
-    <t>Seri</t>
-  </si>
-  <si>
-    <t>seri1257</t>
-  </si>
-  <si>
-    <t>Supyire</t>
-  </si>
-  <si>
-    <t>supy1237</t>
-  </si>
-  <si>
-    <t>Swahili</t>
-  </si>
-  <si>
-    <t>swah1253</t>
-  </si>
-  <si>
-    <t>Swati</t>
-  </si>
-  <si>
-    <t>swat1243</t>
-  </si>
-  <si>
-    <t>Tehuelche</t>
-  </si>
-  <si>
-    <t>tehu1242</t>
-  </si>
-  <si>
-    <t>Teop</t>
-  </si>
-  <si>
-    <t>teop1238</t>
-  </si>
-  <si>
-    <t>Tiipay (Jamul)</t>
-  </si>
-  <si>
-    <t>kumi1248</t>
-  </si>
-  <si>
-    <t>Tiriyo</t>
-  </si>
-  <si>
-    <t>trio1238</t>
-  </si>
-  <si>
-    <t>Tiwa (Southern)</t>
-  </si>
-  <si>
-    <t>sout2961</t>
-  </si>
-  <si>
-    <t>Tlapanec</t>
-  </si>
-  <si>
-    <t>acat1239</t>
-  </si>
-  <si>
-    <t>Totonac (Misantla)</t>
-  </si>
-  <si>
-    <t>yecu1235</t>
-  </si>
-  <si>
-    <t>Tukang Besi</t>
-  </si>
-  <si>
-    <t>tuka1249</t>
-  </si>
-  <si>
-    <t>Tümpisa Shoshone</t>
-  </si>
-  <si>
-    <t>pana1305</t>
-  </si>
-  <si>
-    <t>Tzotzil</t>
-  </si>
-  <si>
-    <t>tzot1262</t>
-  </si>
-  <si>
-    <t>Vafsi</t>
-  </si>
-  <si>
-    <t>vafs1240</t>
-  </si>
-  <si>
-    <t>Wappo</t>
-  </si>
-  <si>
-    <t>wapp1239</t>
-  </si>
-  <si>
-    <t>Wolof</t>
-  </si>
-  <si>
-    <t>nucl1347</t>
-  </si>
-  <si>
-    <t>!Xun (Ekoka)</t>
-  </si>
-  <si>
-    <t>kung1261</t>
-  </si>
-  <si>
-    <t>Yaqui</t>
-  </si>
-  <si>
-    <t>yaqu1251</t>
-  </si>
-  <si>
-    <t>Yoruba</t>
-  </si>
-  <si>
-    <t>yoru1245</t>
-  </si>
-  <si>
-    <t>Yukaghir (Kolyma)</t>
-  </si>
-  <si>
-    <t>sout2750</t>
-  </si>
-  <si>
-    <t>Yup'ik (Central)</t>
+    <t>Pattani</t>
+  </si>
+  <si>
+    <t>patt1248</t>
+  </si>
+  <si>
+    <t>Pero</t>
+  </si>
+  <si>
+    <t>pero1241</t>
+  </si>
+  <si>
+    <t>Pilagá</t>
+  </si>
+  <si>
+    <t>pila1245</t>
+  </si>
+  <si>
+    <t>Pirahã</t>
+  </si>
+  <si>
+    <t>pira1253</t>
+  </si>
+  <si>
+    <t>Pitjantjatjara</t>
+  </si>
+  <si>
+    <t>pitj1243</t>
+  </si>
+  <si>
+    <t>Pitta Pitta</t>
+  </si>
+  <si>
+    <t>pitt1247</t>
+  </si>
+  <si>
+    <t>Purépecha</t>
+  </si>
+  <si>
+    <t>pure1242</t>
+  </si>
+  <si>
+    <t>Qafar</t>
+  </si>
+  <si>
+    <t>afar1241</t>
+  </si>
+  <si>
+    <t>Quechua (Huallaga)</t>
+  </si>
+  <si>
+    <t>huam1248</t>
+  </si>
+  <si>
+    <t>Rama</t>
+  </si>
+  <si>
+    <t>rama1270</t>
+  </si>
+  <si>
+    <t>Rapanui</t>
+  </si>
+  <si>
+    <t>rapa1244</t>
+  </si>
+  <si>
+    <t>Rawang</t>
+  </si>
+  <si>
+    <t>rawa1265</t>
+  </si>
+  <si>
+    <t>Retuarã</t>
+  </si>
+  <si>
+    <t>tani1257</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>ronn1241</t>
+  </si>
+  <si>
+    <t>Saami (Northern)</t>
+  </si>
+  <si>
+    <t>nort2671</t>
+  </si>
+  <si>
+    <t>Salt-Yui</t>
+  </si>
+  <si>
+    <t>salt1242</t>
+  </si>
+  <si>
+    <t>Sango</t>
+  </si>
+  <si>
+    <t>sang1328</t>
+  </si>
+  <si>
+    <t>Sangu</t>
+  </si>
+  <si>
+    <t>sang1333</t>
+  </si>
+  <si>
+    <t>Sanuma</t>
+  </si>
+  <si>
+    <t>sanu1240</t>
+  </si>
+  <si>
+    <t>Sapuan</t>
+  </si>
+  <si>
+    <t>sapu1248</t>
+  </si>
+  <si>
+    <t>Sedang</t>
+  </si>
+  <si>
+    <t>seda1262</t>
+  </si>
+  <si>
+    <t>Selkup</t>
+  </si>
+  <si>
+    <t>selk1253</t>
+  </si>
+  <si>
+    <t>Shoshone</t>
+  </si>
+  <si>
+    <t>shos1248</t>
+  </si>
+  <si>
+    <t>Sinaugoro</t>
+  </si>
+  <si>
+    <t>sina1266</t>
+  </si>
+  <si>
+    <t>Slave</t>
+  </si>
+  <si>
+    <t>slav1253</t>
+  </si>
+  <si>
+    <t>So</t>
+  </si>
+  <si>
+    <t>sooo1256</t>
+  </si>
+  <si>
+    <t>Somali</t>
+  </si>
+  <si>
+    <t>soma1255</t>
+  </si>
+  <si>
+    <t>Sotho (Northern)</t>
+  </si>
+  <si>
+    <t>pedi1238</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>stan1288</t>
+  </si>
+  <si>
+    <t>Sudest</t>
+  </si>
+  <si>
+    <t>sude1239</t>
+  </si>
+  <si>
+    <t>Suena</t>
+  </si>
+  <si>
+    <t>suen1241</t>
+  </si>
+  <si>
+    <t>Sundanese</t>
+  </si>
+  <si>
+    <t>sund1252</t>
+  </si>
+  <si>
+    <t>Taba</t>
+  </si>
+  <si>
+    <t>east2440</t>
+  </si>
+  <si>
+    <t>Tagalog</t>
+  </si>
+  <si>
+    <t>taga1270</t>
+  </si>
+  <si>
+    <t>Tamang</t>
+  </si>
+  <si>
+    <t>east2347</t>
+  </si>
+  <si>
+    <t>Tarao</t>
+  </si>
+  <si>
+    <t>tara1313</t>
+  </si>
+  <si>
+    <t>Tauya</t>
+  </si>
+  <si>
+    <t>tauy1241</t>
+  </si>
+  <si>
+    <t>Tepehuan (Northern)</t>
+  </si>
+  <si>
+    <t>nort2959</t>
+  </si>
+  <si>
+    <t>Tepehuan (Southeastern)</t>
+  </si>
+  <si>
+    <t>sout2976</t>
+  </si>
+  <si>
+    <t>Teribe</t>
+  </si>
+  <si>
+    <t>teri1250</t>
+  </si>
+  <si>
+    <t>Ternate</t>
+  </si>
+  <si>
+    <t>tern1247</t>
+  </si>
+  <si>
+    <t>Tetun</t>
+  </si>
+  <si>
+    <t>tetu1245</t>
+  </si>
+  <si>
+    <t>Tibetan (Standard Spoken)</t>
+  </si>
+  <si>
+    <t>tibe1272</t>
+  </si>
+  <si>
+    <t>Tidore</t>
+  </si>
+  <si>
+    <t>tido1248</t>
+  </si>
+  <si>
+    <t>Tigrinya</t>
+  </si>
+  <si>
+    <t>tigr1271</t>
+  </si>
+  <si>
+    <t>Tikar</t>
+  </si>
+  <si>
+    <t>tika1246</t>
+  </si>
+  <si>
+    <t>Tinrin</t>
+  </si>
+  <si>
+    <t>tiri1258</t>
+  </si>
+  <si>
+    <t>Tiwi</t>
+  </si>
+  <si>
+    <t>tiwi1244</t>
+  </si>
+  <si>
+    <t>Tobati</t>
+  </si>
+  <si>
+    <t>toba1266</t>
+  </si>
+  <si>
+    <t>Toratán</t>
+  </si>
+  <si>
+    <t>rata1244</t>
+  </si>
+  <si>
+    <t>Torwali</t>
+  </si>
+  <si>
+    <t>torw1241</t>
+  </si>
+  <si>
+    <t>Trumai</t>
+  </si>
+  <si>
+    <t>trum1247</t>
+  </si>
+  <si>
+    <t>Tsat</t>
+  </si>
+  <si>
+    <t>tsat1238</t>
+  </si>
+  <si>
+    <t>Tsez</t>
+  </si>
+  <si>
+    <t>dido1241</t>
+  </si>
+  <si>
+    <t>Tshangla</t>
+  </si>
+  <si>
+    <t>tsha1245</t>
+  </si>
+  <si>
+    <t>Tsimshian (Coast)</t>
+  </si>
+  <si>
+    <t>nucl1649</t>
+  </si>
+  <si>
+    <t>Tugun</t>
+  </si>
+  <si>
+    <t>tugu1245</t>
+  </si>
+  <si>
+    <t>Tunen</t>
+  </si>
+  <si>
+    <t>tune1241</t>
+  </si>
+  <si>
+    <t>Turkana</t>
+  </si>
+  <si>
+    <t>turk1308</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>nucl1301</t>
+  </si>
+  <si>
+    <t>Tzutujil</t>
+  </si>
+  <si>
+    <t>tzut1248</t>
+  </si>
+  <si>
+    <t>Udmurt</t>
+  </si>
+  <si>
+    <t>udmu1245</t>
+  </si>
+  <si>
+    <t>Upper Kuskokwim</t>
+  </si>
+  <si>
+    <t>uppe1438</t>
+  </si>
+  <si>
+    <t>Urubu-Kaapor</t>
+  </si>
+  <si>
+    <t>urub1250</t>
+  </si>
+  <si>
+    <t>Usan</t>
+  </si>
+  <si>
+    <t>usan1239</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>viet1252</t>
+  </si>
+  <si>
+    <t>Walmatjari</t>
+  </si>
+  <si>
+    <t>walm1241</t>
+  </si>
+  <si>
+    <t>Wambaya</t>
+  </si>
+  <si>
+    <t>wamb1258</t>
+  </si>
+  <si>
+    <t>Warao</t>
+  </si>
+  <si>
+    <t>wara1303</t>
+  </si>
+  <si>
+    <t>Waray (in Australia)</t>
+  </si>
+  <si>
+    <t>wara1290</t>
+  </si>
+  <si>
+    <t>Wardaman</t>
+  </si>
+  <si>
+    <t>ward1246</t>
+  </si>
+  <si>
+    <t>Warembori</t>
+  </si>
+  <si>
+    <t>ware1253</t>
+  </si>
+  <si>
+    <t>Warrgamay</t>
+  </si>
+  <si>
+    <t>warr1255</t>
+  </si>
+  <si>
+    <t>Wirangu</t>
+  </si>
+  <si>
+    <t>wira1260</t>
+  </si>
+  <si>
+    <t>/Xam</t>
+  </si>
+  <si>
+    <t>xamm1241</t>
+  </si>
+  <si>
+    <t>Yagua</t>
+  </si>
+  <si>
+    <t>yagu1244</t>
+  </si>
+  <si>
+    <t>Yanyuwa</t>
+  </si>
+  <si>
+    <t>yany1243</t>
+  </si>
+  <si>
+    <t>Yawelmani</t>
+  </si>
+  <si>
+    <t>yoku1256</t>
+  </si>
+  <si>
+    <t>Yawuru</t>
+  </si>
+  <si>
+    <t>yawu1244</t>
+  </si>
+  <si>
+    <t>Yidiny</t>
+  </si>
+  <si>
+    <t>yidi1250</t>
+  </si>
+  <si>
+    <t>Yimas</t>
+  </si>
+  <si>
+    <t>yima1243</t>
+  </si>
+  <si>
+    <t>Yingkarta</t>
+  </si>
+  <si>
+    <t>ying1247</t>
+  </si>
+  <si>
+    <t>Yir Yiront</t>
+  </si>
+  <si>
+    <t>yiry1245</t>
+  </si>
+  <si>
+    <t>Yukaghir (Tundra)</t>
+  </si>
+  <si>
+    <t>nort2745</t>
+  </si>
+  <si>
+    <t>Central Alaskan Yupik</t>
   </si>
   <si>
     <t>cent2127</t>
   </si>
   <si>
-    <t>Yuracare</t>
-  </si>
-  <si>
-    <t>yura1255</t>
-  </si>
-  <si>
-    <t>Zarma</t>
-  </si>
-  <si>
-    <t>zarm1239</t>
-  </si>
-  <si>
-    <t>Zulu</t>
-  </si>
-  <si>
-    <t>zulu1248</t>
-  </si>
-  <si>
-    <t>Puma</t>
-  </si>
-  <si>
-    <t>puma1239</t>
-  </si>
-  <si>
-    <t>Leti</t>
-  </si>
-  <si>
-    <t>leti1246</t>
-  </si>
-  <si>
-    <t>Kayardild</t>
-  </si>
-  <si>
-    <t>kaya1319</t>
-  </si>
-  <si>
-    <t>Hungarian</t>
-  </si>
-  <si>
-    <t>hung1274</t>
-  </si>
-  <si>
-    <t>Emai</t>
-  </si>
-  <si>
-    <t>emai1241</t>
-  </si>
-  <si>
-    <t>Lai</t>
-  </si>
-  <si>
-    <t>haka1240</t>
-  </si>
-  <si>
-    <t>Paiute (Northern)</t>
-  </si>
-  <si>
-    <t>nort2954</t>
-  </si>
-  <si>
-    <t>Indonesian</t>
-  </si>
-  <si>
-    <t>indo1316</t>
-  </si>
-  <si>
-    <t>Jalonke</t>
-  </si>
-  <si>
-    <t>yalu1240</t>
-  </si>
-  <si>
-    <t>Meithei</t>
-  </si>
-  <si>
-    <t>mani1292</t>
-  </si>
-  <si>
-    <t>N|uu</t>
-  </si>
-  <si>
-    <t>nuuu1241</t>
-  </si>
-  <si>
-    <t>Greenlandic (West)</t>
-  </si>
-  <si>
-    <t>kala1399</t>
-  </si>
-  <si>
-    <t>Jóola Banjal</t>
-  </si>
-  <si>
-    <t>band1340</t>
-  </si>
-  <si>
-    <t>Neo-Aramaic (Telkepe)</t>
-  </si>
-  <si>
-    <t>chal1275</t>
-  </si>
-  <si>
-    <t>Mian</t>
-  </si>
-  <si>
-    <t>mian1256</t>
-  </si>
-  <si>
-    <t>Tima</t>
-  </si>
-  <si>
-    <t>tima1241</t>
-  </si>
-  <si>
-    <t>Teiwa</t>
-  </si>
-  <si>
-    <t>teiw1235</t>
-  </si>
-  <si>
-    <t>Chintang</t>
-  </si>
-  <si>
-    <t>chhi1245</t>
-  </si>
-  <si>
-    <t>Donno So</t>
-  </si>
-  <si>
-    <t>donn1238</t>
-  </si>
-  <si>
-    <t>Ancient Greek</t>
-  </si>
-  <si>
-    <t>anci1242</t>
-  </si>
-  <si>
-    <t>Abun</t>
-  </si>
-  <si>
-    <t>abun1252</t>
-  </si>
-  <si>
-    <t>Akawaio</t>
-  </si>
-  <si>
-    <t>akaw1239</t>
-  </si>
-  <si>
-    <t>Ala'ala</t>
-  </si>
-  <si>
-    <t>lala1268</t>
-  </si>
-  <si>
-    <t>Alyawarra</t>
-  </si>
-  <si>
-    <t>alya1239</t>
-  </si>
-  <si>
-    <t>Ambae (Lolovoli Northeast)</t>
-  </si>
-  <si>
-    <t>east2443</t>
-  </si>
-  <si>
-    <t>Anong (BJ)</t>
-  </si>
-  <si>
-    <t>nung1282</t>
-  </si>
-  <si>
-    <t>Apurinã</t>
-  </si>
-  <si>
-    <t>apur1254</t>
-  </si>
-  <si>
-    <t>Egyptian Arabic (BJ)</t>
-  </si>
-  <si>
-    <t>egyp1253</t>
-  </si>
-  <si>
-    <t>Araona (BJ)</t>
-  </si>
-  <si>
-    <t>arao1248</t>
-  </si>
-  <si>
-    <t>Arawak (BJ)</t>
-  </si>
-  <si>
-    <t>araw1276</t>
-  </si>
-  <si>
-    <t>Eastern Armenian (BJ)</t>
-  </si>
-  <si>
-    <t>nucl1235</t>
-  </si>
-  <si>
-    <t>Arop-Lokep (BJ)</t>
-  </si>
-  <si>
-    <t>arop1243</t>
-  </si>
-  <si>
-    <t>Eastern Arrernte (BJ)</t>
-  </si>
-  <si>
-    <t>east2379</t>
-  </si>
-  <si>
-    <t>Babungo (BJ)</t>
-  </si>
-  <si>
-    <t>veng1238</t>
-  </si>
-  <si>
-    <t>Badimaya (BJ)</t>
-  </si>
-  <si>
-    <t>badi1246</t>
-  </si>
-  <si>
-    <t>Bagirmi (BJ)</t>
-  </si>
-  <si>
-    <t>bagi1246</t>
-  </si>
-  <si>
-    <t>Bai (BJ)</t>
-  </si>
-  <si>
-    <t>cent2004</t>
-  </si>
-  <si>
-    <t>Bajau (BJ)</t>
-  </si>
-  <si>
-    <t>Baka (in Cameroon) (BJ)</t>
-  </si>
-  <si>
-    <t>baka1272</t>
-  </si>
-  <si>
-    <t>Banoni (BJ)</t>
-  </si>
-  <si>
-    <t>bann1247</t>
-  </si>
-  <si>
-    <t>Barasano (BJ)</t>
-  </si>
-  <si>
-    <t>bara1380</t>
-  </si>
-  <si>
-    <t>Baré (BJ)</t>
-  </si>
-  <si>
-    <t>bare1276</t>
-  </si>
-  <si>
-    <t>Bauzi (BJ)</t>
-  </si>
-  <si>
-    <t>bauz1241</t>
-  </si>
-  <si>
-    <t>Bawm (BJ)</t>
-  </si>
-  <si>
-    <t>bawm1236</t>
-  </si>
-  <si>
-    <t>Belhare (BJ)</t>
-  </si>
-  <si>
-    <t>belh1239</t>
-  </si>
-  <si>
-    <t>Berber (Middle Atlas) (BJ)</t>
-  </si>
-  <si>
-    <t>cent2194</t>
-  </si>
-  <si>
-    <t>Berta (BJ)</t>
-  </si>
-  <si>
-    <t>bert1248</t>
-  </si>
-  <si>
-    <t>Bhojpuri (BJ)</t>
-  </si>
-  <si>
-    <t>bhoj1244</t>
-  </si>
-  <si>
-    <t>Bininj Gun-Wok (BJ)</t>
-  </si>
-  <si>
-    <t>gunw1252</t>
-  </si>
-  <si>
-    <t>Biri (BJ)</t>
-  </si>
-  <si>
-    <t>biri1256</t>
-  </si>
-  <si>
-    <t>Bisu (BJ)</t>
-  </si>
-  <si>
-    <t>bisu1244</t>
-  </si>
-  <si>
-    <t>Blackfoot (BJ)</t>
-  </si>
-  <si>
-    <t>siks1238</t>
-  </si>
-  <si>
-    <t>Bozo (Tigemaxo) (BJ)</t>
-  </si>
-  <si>
-    <t>tiey1235</t>
-  </si>
-  <si>
-    <t>Brokskat (BJ)</t>
-  </si>
-  <si>
-    <t>brok1247</t>
-  </si>
-  <si>
-    <t>Teanu (BJ)</t>
-  </si>
-  <si>
-    <t>tean1237</t>
-  </si>
-  <si>
-    <t>Burushaski (BJ)</t>
-  </si>
-  <si>
-    <t>buru1296</t>
-  </si>
-  <si>
-    <t>Busa (BJ)</t>
-  </si>
-  <si>
-    <t>busa1253</t>
-  </si>
-  <si>
-    <t>Byansi (BJ)</t>
-  </si>
-  <si>
-    <t>byan1241</t>
-  </si>
-  <si>
-    <t>Canela-Krahô (BJ)</t>
-  </si>
-  <si>
-    <t>ramk1239</t>
-  </si>
-  <si>
-    <t>Chantyal (BJ)</t>
-  </si>
-  <si>
-    <t>chan1310</t>
-  </si>
-  <si>
-    <t>Cherokee (BJ)</t>
-  </si>
-  <si>
-    <t>cher1273</t>
-  </si>
-  <si>
-    <t>Chinantec (Lealao) (BJ)</t>
-  </si>
-  <si>
-    <t>leal1235</t>
-  </si>
-  <si>
-    <t>Chocho (BJ)</t>
-  </si>
-  <si>
-    <t>choc1279</t>
-  </si>
-  <si>
-    <t>Choctaw (BJ)</t>
-  </si>
-  <si>
-    <t>choc1276</t>
-  </si>
-  <si>
-    <t>Chukchi (BJ)</t>
-  </si>
-  <si>
-    <t>chuk1273</t>
-  </si>
-  <si>
-    <t>Comanche (BJ)</t>
-  </si>
-  <si>
-    <t>coma1245</t>
-  </si>
-  <si>
-    <t>Coos (Hanis) (BJ)</t>
-  </si>
-  <si>
-    <t>coos1249</t>
-  </si>
-  <si>
-    <t>Coptic (BJ)</t>
-  </si>
-  <si>
-    <t>copt1239</t>
-  </si>
-  <si>
-    <t>Cree (Plains) (BJ)</t>
-  </si>
-  <si>
-    <t>plai1258</t>
-  </si>
-  <si>
-    <t>Dagbani (BJ)</t>
-  </si>
-  <si>
-    <t>dagb1246</t>
-  </si>
-  <si>
-    <t>Dahalo (BJ)</t>
-  </si>
-  <si>
-    <t>daha1245</t>
-  </si>
-  <si>
-    <t>Dhaasanac (BJ)</t>
-  </si>
-  <si>
-    <t>daas1238</t>
-  </si>
-  <si>
-    <t>Dharumbal (BJ)</t>
-  </si>
-  <si>
-    <t>baya1257</t>
-  </si>
-  <si>
-    <t>Dhivehi (BJ)</t>
-  </si>
-  <si>
-    <t>dhiv1236</t>
-  </si>
-  <si>
-    <t>Djabugay (BJ)</t>
-  </si>
-  <si>
-    <t>dyaa1242</t>
-  </si>
-  <si>
-    <t>Djaru (BJ)</t>
-  </si>
-  <si>
-    <t>jaru1254</t>
-  </si>
-  <si>
-    <t>Dogon (BJ)</t>
-  </si>
-  <si>
-    <t>bang1363</t>
-  </si>
-  <si>
-    <t>Doyayo (BJ)</t>
-  </si>
-  <si>
-    <t>doya1240</t>
-  </si>
-  <si>
-    <t>Drehu (BJ)</t>
-  </si>
-  <si>
-    <t>dehu1237</t>
-  </si>
-  <si>
-    <t>Duala (BJ)</t>
-  </si>
-  <si>
-    <t>dual1243</t>
-  </si>
-  <si>
-    <t>Dullay (Gollango) (BJ)</t>
-  </si>
-  <si>
-    <t>gaww1239</t>
-  </si>
-  <si>
-    <t>Efik (BJ)</t>
-  </si>
-  <si>
-    <t>efik1245</t>
-  </si>
-  <si>
-    <t>Epena Pedee (BJ)</t>
-  </si>
-  <si>
-    <t>epen1239</t>
-  </si>
-  <si>
-    <t>Erromangan (BJ)</t>
-  </si>
-  <si>
-    <t>siee1239</t>
-  </si>
-  <si>
-    <t>Ewondo (BJ)</t>
-  </si>
-  <si>
-    <t>ewon1239</t>
-  </si>
-  <si>
-    <t>Fijian (BJ)</t>
-  </si>
-  <si>
-    <t>fiji1243</t>
-  </si>
-  <si>
-    <t>French (BJ)</t>
-  </si>
-  <si>
-    <t>stan1290</t>
-  </si>
-  <si>
-    <t>Fyem (BJ)</t>
-  </si>
-  <si>
-    <t>fyam1238</t>
-  </si>
-  <si>
-    <t>Gamo (BJ)</t>
-  </si>
-  <si>
-    <t>gamo1244</t>
-  </si>
-  <si>
-    <t>Gapapaiwa (BJ)</t>
-  </si>
-  <si>
-    <t>gapa1238</t>
-  </si>
-  <si>
-    <t>Gola (BJ)</t>
-  </si>
-  <si>
-    <t>gola1255</t>
-  </si>
-  <si>
-    <t>Gooniyandi (BJ)</t>
-  </si>
-  <si>
-    <t>goon1238</t>
-  </si>
-  <si>
-    <t>Grebo (BJ)</t>
-  </si>
-  <si>
-    <t>sout2826</t>
-  </si>
-  <si>
-    <t>Guaraní (BJ)</t>
-  </si>
-  <si>
-    <t>para1311</t>
-  </si>
-  <si>
-    <t>Guduf (BJ)</t>
-  </si>
-  <si>
-    <t>gudu1252</t>
-  </si>
-  <si>
-    <t>Gumbaynggir (BJ)</t>
-  </si>
-  <si>
-    <t>kumb1268</t>
-  </si>
-  <si>
-    <t>Gurr-goni (BJ)</t>
-  </si>
-  <si>
-    <t>gura1252</t>
-  </si>
-  <si>
-    <t>Guugu Yimidhirr (BJ)</t>
-  </si>
-  <si>
-    <t>gugu1255</t>
-  </si>
-  <si>
-    <t>Haida (BJ)</t>
-  </si>
-  <si>
-    <t>haid1248</t>
-  </si>
-  <si>
-    <t>Hatam (BJ)</t>
-  </si>
-  <si>
-    <t>hata1243</t>
-  </si>
-  <si>
-    <t>Hausa (BJ)</t>
-  </si>
-  <si>
-    <t>haus1257</t>
-  </si>
-  <si>
-    <t>Hayu (BJ)</t>
-  </si>
-  <si>
-    <t>wayu1241</t>
-  </si>
-  <si>
-    <t>Hdi (BJ)</t>
-  </si>
-  <si>
-    <t>hdii1240</t>
-  </si>
-  <si>
-    <t>Hebrew (Modern) (BJ)</t>
-  </si>
-  <si>
-    <t>hebr1245</t>
-  </si>
-  <si>
-    <t>Hindi (BJ)</t>
-  </si>
-  <si>
-    <t>hind1269</t>
-  </si>
-  <si>
-    <t>Hmar (BJ)</t>
-  </si>
-  <si>
-    <t>hmar1241</t>
-  </si>
-  <si>
-    <t>Hmong Njua (BJ)</t>
-  </si>
-  <si>
-    <t>hmon1264</t>
-  </si>
-  <si>
-    <t>Hoava (BJ)</t>
-  </si>
-  <si>
-    <t>hoav1238</t>
-  </si>
-  <si>
-    <t>Hunzib (BJ)</t>
-  </si>
-  <si>
-    <t>hunz1247</t>
-  </si>
-  <si>
-    <t>Igbo (BJ)</t>
-  </si>
-  <si>
-    <t>nucl1417</t>
-  </si>
-  <si>
-    <t>Ik (BJ)</t>
-  </si>
-  <si>
-    <t>ikkk1242</t>
-  </si>
-  <si>
-    <t>Imonda (BJ)</t>
-  </si>
-  <si>
-    <t>imon1245</t>
-  </si>
-  <si>
-    <t>Ingush (BJ)</t>
-  </si>
-  <si>
-    <t>ingu1240</t>
-  </si>
-  <si>
-    <t>Iraqw (BJ)</t>
-  </si>
-  <si>
-    <t>iraq1241</t>
-  </si>
-  <si>
-    <t>Itzaj (BJ)</t>
-  </si>
-  <si>
-    <t>itza1241</t>
-  </si>
-  <si>
-    <t>Jabêm (BJ)</t>
-  </si>
-  <si>
-    <t>yabe1254</t>
-  </si>
-  <si>
-    <t>Jaminjung (BJ)</t>
-  </si>
-  <si>
-    <t>Jeli (BJ)</t>
-  </si>
-  <si>
-    <t>jeri1242</t>
-  </si>
-  <si>
-    <t>Jingpho (BJ)</t>
-  </si>
-  <si>
-    <t>kach1280</t>
-  </si>
-  <si>
-    <t>Ju|'hoan (BJ)</t>
-  </si>
-  <si>
-    <t>juho1239</t>
-  </si>
-  <si>
-    <t>Kairiru (BJ)</t>
-  </si>
-  <si>
-    <t>kair1263</t>
-  </si>
-  <si>
-    <t>Kala Lagaw Ya (BJ)</t>
-  </si>
-  <si>
-    <t>kala1377</t>
-  </si>
-  <si>
-    <t>Kalkatungu (BJ)</t>
-  </si>
-  <si>
-    <t>kalk1246</t>
-  </si>
-  <si>
-    <t>Kamaiurá (BJ)</t>
-  </si>
-  <si>
-    <t>kama1373</t>
-  </si>
-  <si>
-    <t>Kambera (BJ)</t>
-  </si>
-  <si>
-    <t>Kana (BJ)</t>
-  </si>
-  <si>
-    <t>khan1278</t>
-  </si>
-  <si>
-    <t>Kannada (BJ)</t>
-  </si>
-  <si>
-    <t>nucl1305</t>
-  </si>
-  <si>
-    <t>Karok (BJ)</t>
-  </si>
-  <si>
-    <t>karo1304</t>
-  </si>
-  <si>
-    <t>Kâte (BJ)</t>
-  </si>
-  <si>
-    <t>kate1253</t>
-  </si>
-  <si>
-    <t>Kayah Li (Eastern) (BJ)</t>
-  </si>
-  <si>
-    <t>east2342</t>
-  </si>
-  <si>
-    <t>Kemant (BJ)</t>
-  </si>
-  <si>
-    <t>qima1242</t>
-  </si>
-  <si>
-    <t>Kera (BJ)</t>
-  </si>
-  <si>
-    <t>kera1255</t>
-  </si>
-  <si>
-    <t>Ket (BJ)</t>
-  </si>
-  <si>
-    <t>Khalkha (BJ)</t>
-  </si>
-  <si>
-    <t>halh1238</t>
-  </si>
-  <si>
-    <t>Khasi (BJ)</t>
-  </si>
-  <si>
-    <t>khas1269</t>
-  </si>
-  <si>
-    <t>Khmer (BJ)</t>
-  </si>
-  <si>
-    <t>cent1989</t>
-  </si>
-  <si>
-    <t>Khmu' (BJ)</t>
-  </si>
-  <si>
-    <t>khmu1256</t>
-  </si>
-  <si>
-    <t>Kilivila (BJ)</t>
-  </si>
-  <si>
-    <t>kili1267</t>
-  </si>
-  <si>
-    <t>Kiribati (BJ)</t>
-  </si>
-  <si>
-    <t>gilb1244</t>
-  </si>
-  <si>
-    <t>Klamath (BJ)</t>
-  </si>
-  <si>
-    <t>klam1254</t>
-  </si>
-  <si>
-    <t>Kobon (BJ)</t>
-  </si>
-  <si>
-    <t>kobo1249</t>
-  </si>
-  <si>
-    <t>Kodava (BJ)</t>
-  </si>
-  <si>
-    <t>koda1255</t>
-  </si>
-  <si>
-    <t>Kombai (BJ)</t>
-  </si>
-  <si>
-    <t>ndei1235</t>
-  </si>
-  <si>
-    <t>Konda (BJ)</t>
-  </si>
-  <si>
-    <t>kond1295</t>
-  </si>
-  <si>
-    <t>Kongo (BJ)</t>
-  </si>
-  <si>
-    <t>koon1244</t>
-  </si>
-  <si>
-    <t>Korku (BJ)</t>
-  </si>
-  <si>
-    <t>kork1243</t>
-  </si>
-  <si>
-    <t>Koromfe (BJ)</t>
-  </si>
-  <si>
-    <t>Korowai (BJ)</t>
-  </si>
-  <si>
-    <t>koro1312</t>
-  </si>
-  <si>
-    <t>Krongo (BJ)</t>
-  </si>
-  <si>
-    <t>kron1241</t>
-  </si>
-  <si>
-    <t>Kugu Nganhcara (BJ)</t>
-  </si>
-  <si>
-    <t>kuku1280</t>
-  </si>
-  <si>
-    <t>Kukú (BJ)</t>
-  </si>
-  <si>
-    <t>bari1284</t>
-  </si>
-  <si>
-    <t>Kuku-Yalanji (BJ)</t>
-  </si>
-  <si>
-    <t>kuku1273</t>
-  </si>
-  <si>
-    <t>Kunama (BJ)</t>
-  </si>
-  <si>
-    <t>kuna1268</t>
-  </si>
-  <si>
-    <t>Kutenai (BJ)</t>
-  </si>
-  <si>
-    <t>kute1249</t>
-  </si>
-  <si>
-    <t>Kwaio (BJ)</t>
-  </si>
-  <si>
-    <t>kwai1243</t>
-  </si>
-  <si>
-    <t>Ladakhi (BJ)</t>
-  </si>
-  <si>
-    <t>lada1244</t>
-  </si>
-  <si>
-    <t>Lak (BJ)</t>
-  </si>
-  <si>
-    <t>lakk1252</t>
-  </si>
-  <si>
-    <t>Lamang (BJ)</t>
-  </si>
-  <si>
-    <t>lama1288</t>
-  </si>
-  <si>
-    <t>Latvian (BJ)</t>
-  </si>
-  <si>
-    <t>latv1249</t>
-  </si>
-  <si>
-    <t>Lepcha (BJ)</t>
-  </si>
-  <si>
-    <t>lepc1244</t>
-  </si>
-  <si>
-    <t>Lezgian (BJ)</t>
-  </si>
-  <si>
-    <t>lezg1247</t>
-  </si>
-  <si>
-    <t>Lillooet (BJ)</t>
-  </si>
-  <si>
-    <t>lill1248</t>
-  </si>
-  <si>
-    <t>Limilngan (BJ)</t>
-  </si>
-  <si>
-    <t>nucl1327</t>
-  </si>
-  <si>
-    <t>Lingala (BJ)</t>
-  </si>
-  <si>
-    <t>ling1263</t>
-  </si>
-  <si>
-    <t>Lisu (BJ)</t>
-  </si>
-  <si>
-    <t>lisu1250</t>
-  </si>
-  <si>
-    <t>Longgu (BJ)</t>
-  </si>
-  <si>
-    <t>long1395</t>
-  </si>
-  <si>
-    <t>Loniu (BJ)</t>
-  </si>
-  <si>
-    <t>loni1238</t>
-  </si>
-  <si>
-    <t>Lunda</t>
-  </si>
-  <si>
-    <t>lund1266</t>
-  </si>
-  <si>
-    <t>Ma'di (BJ)</t>
-  </si>
-  <si>
-    <t>madi1260</t>
-  </si>
-  <si>
-    <t>Maale (BJ)</t>
-  </si>
-  <si>
-    <t>male1284</t>
-  </si>
-  <si>
-    <t>Macushi (BJ)</t>
-  </si>
-  <si>
-    <t>macu1259</t>
-  </si>
-  <si>
-    <t>Madurese (BJ)</t>
-  </si>
-  <si>
-    <t>nucl1460</t>
-  </si>
-  <si>
-    <t>Maipure (BJ)</t>
-  </si>
-  <si>
-    <t>maip1247</t>
-  </si>
-  <si>
-    <t>Maithili (BJ)</t>
-  </si>
-  <si>
-    <t>mait1250</t>
-  </si>
-  <si>
-    <t>Makah (BJ)</t>
-  </si>
-  <si>
-    <t>maka1318</t>
-  </si>
-  <si>
-    <t>Mam (BJ)</t>
-  </si>
-  <si>
-    <t>mamc1234</t>
-  </si>
-  <si>
-    <t>Mangarrayi (BJ)</t>
-  </si>
-  <si>
-    <t>mang1381</t>
-  </si>
-  <si>
-    <t>Mangghuer (BJ)</t>
-  </si>
-  <si>
-    <t>tuuu1240</t>
-  </si>
-  <si>
-    <t>Maori (BJ)</t>
-  </si>
-  <si>
-    <t>maor1246</t>
-  </si>
-  <si>
-    <t>Maranungku (BJ)</t>
-  </si>
-  <si>
-    <t>mara1386</t>
-  </si>
-  <si>
-    <t>Marathi (BJ)</t>
-  </si>
-  <si>
-    <t>mara1378</t>
-  </si>
-  <si>
-    <t>Marquesan (BJ)</t>
-  </si>
-  <si>
-    <t>nort2845</t>
-  </si>
-  <si>
-    <t>Matis (BJ)</t>
-  </si>
-  <si>
-    <t>mati1255</t>
-  </si>
-  <si>
-    <t>Matsés (BJ)</t>
-  </si>
-  <si>
-    <t>mats1244</t>
-  </si>
-  <si>
-    <t>Maybrat (BJ)</t>
-  </si>
-  <si>
-    <t>maib1239</t>
-  </si>
-  <si>
-    <t>Mbabaram (BJ)</t>
-  </si>
-  <si>
-    <t>mbab1239</t>
-  </si>
-  <si>
-    <t>Mbay (BJ)</t>
-  </si>
-  <si>
-    <t>mbay1241</t>
-  </si>
-  <si>
-    <t>Mbili (BJ)</t>
-  </si>
-  <si>
-    <t>bamb1266</t>
-  </si>
-  <si>
-    <t>Mende (BJ)</t>
-  </si>
-  <si>
-    <t>mend1266</t>
-  </si>
-  <si>
-    <t>Mixtec (Chalcatongo) (BJ)</t>
-  </si>
-  <si>
-    <t>sanm1295</t>
-  </si>
-  <si>
-    <t>Miya (BJ)</t>
-  </si>
-  <si>
-    <t>miya1266</t>
-  </si>
-  <si>
-    <t>Mocoví (BJ)</t>
-  </si>
-  <si>
-    <t>moco1246</t>
-  </si>
-  <si>
-    <t>Mono (in United States) (BJ)</t>
-  </si>
-  <si>
-    <t>mono1275</t>
-  </si>
-  <si>
-    <t>Monumbo (BJ)</t>
-  </si>
-  <si>
-    <t>nucl1458</t>
-  </si>
-  <si>
-    <t>Mosetén (BJ)</t>
-  </si>
-  <si>
-    <t>mose1249</t>
-  </si>
-  <si>
-    <t>Motuna (BJ)</t>
-  </si>
-  <si>
-    <t>siwa1245</t>
-  </si>
-  <si>
-    <t>Mundang (BJ)</t>
-  </si>
-  <si>
-    <t>mund1325</t>
-  </si>
-  <si>
-    <t>Mundari (BJ)</t>
-  </si>
-  <si>
-    <t>mund1320</t>
-  </si>
-  <si>
-    <t>Mupun (BJ)</t>
-  </si>
-  <si>
-    <t>mwag1236</t>
-  </si>
-  <si>
-    <t>Murle (BJ)</t>
-  </si>
-  <si>
-    <t>murl1244</t>
-  </si>
-  <si>
-    <t>Musgu (BJ)</t>
-  </si>
-  <si>
-    <t>musg1254</t>
-  </si>
-  <si>
-    <t>Mussau (BJ)</t>
-  </si>
-  <si>
-    <t>muss1246</t>
-  </si>
-  <si>
-    <t>Nabak (BJ)</t>
-  </si>
-  <si>
-    <t>naba1256</t>
-  </si>
-  <si>
-    <t>Nagatman (BJ)</t>
-  </si>
-  <si>
-    <t>yale1246</t>
-  </si>
-  <si>
-    <t>Nahuatl (Tetelcingo) (BJ)</t>
-  </si>
-  <si>
-    <t>tete1251</t>
-  </si>
-  <si>
-    <t>Nambikuára (BJ)</t>
-  </si>
-  <si>
-    <t>sout2994</t>
-  </si>
-  <si>
-    <t>Navajo (BJ)</t>
-  </si>
-  <si>
-    <t>nava1243</t>
-  </si>
-  <si>
-    <t>Ndebele (in South Africa) (BJ)</t>
-  </si>
-  <si>
-    <t>sout2808</t>
-  </si>
-  <si>
-    <t>Ndjébbana (BJ)</t>
-  </si>
-  <si>
-    <t>djee1236</t>
-  </si>
-  <si>
-    <t>Nepali (BJ)</t>
-  </si>
-  <si>
-    <t>Ngalakan (BJ)</t>
-  </si>
-  <si>
-    <t>ngal1293</t>
-  </si>
-  <si>
-    <t>Ngiyambaa (BJ)</t>
-  </si>
-  <si>
-    <t>wang1291</t>
-  </si>
-  <si>
-    <t>Nhanda (BJ)</t>
-  </si>
-  <si>
-    <t>nhan1238</t>
-  </si>
-  <si>
-    <t>Nias (BJ)</t>
-  </si>
-  <si>
-    <t>nias1242</t>
-  </si>
-  <si>
-    <t>Nisgha (BJ)</t>
-  </si>
-  <si>
-    <t>nisg1240</t>
-  </si>
-  <si>
-    <t>Niuean (BJ)</t>
-  </si>
-  <si>
-    <t>niue1239</t>
-  </si>
-  <si>
-    <t>Nivkh (BJ)</t>
-  </si>
-  <si>
-    <t>gily1242</t>
-  </si>
-  <si>
-    <t>Nkore-Kiga (BJ)</t>
-  </si>
-  <si>
-    <t>chig1238</t>
-  </si>
-  <si>
-    <t>Nuaulu (BJ)</t>
-  </si>
-  <si>
-    <t>sout2895</t>
-  </si>
-  <si>
-    <t>Nubian (Dongolese) (BJ)</t>
-  </si>
-  <si>
-    <t>kenu1236</t>
-  </si>
-  <si>
-    <t>Nubian (Kunuz) (BJ)</t>
-  </si>
-  <si>
-    <t>Nuuchahnulth (BJ)</t>
-  </si>
-  <si>
-    <t>noot1239</t>
-  </si>
-  <si>
-    <t>O'odham (BJ)</t>
-  </si>
-  <si>
-    <t>toho1245</t>
-  </si>
-  <si>
-    <t>Obolo (BJ)</t>
-  </si>
-  <si>
-    <t>obol1243</t>
-  </si>
-  <si>
-    <t>Oromo (Harar) (BJ)</t>
-  </si>
-  <si>
-    <t>east2652</t>
-  </si>
-  <si>
-    <t>Orya (BJ)</t>
-  </si>
-  <si>
-    <t>orya1242</t>
-  </si>
-  <si>
-    <t>Otomí (Mezquital) (BJ)</t>
-  </si>
-  <si>
-    <t>mezq1235</t>
-  </si>
-  <si>
-    <t>Paamese (BJ)</t>
-  </si>
-  <si>
-    <t>paam1238</t>
-  </si>
-  <si>
-    <t>Páez (BJ)</t>
-  </si>
-  <si>
-    <t>paez1247</t>
-  </si>
-  <si>
-    <t>Paita (BJ)</t>
-  </si>
-  <si>
-    <t>dumb1241</t>
-  </si>
-  <si>
-    <t>Paiwan (BJ)</t>
-  </si>
-  <si>
-    <t>paiw1248</t>
-  </si>
-  <si>
-    <t>Palauan (BJ)</t>
-  </si>
-  <si>
-    <t>pala1344</t>
-  </si>
-  <si>
-    <t>Panyjima (BJ)</t>
-  </si>
-  <si>
-    <t>pany1241</t>
-  </si>
-  <si>
-    <t>Passamaquoddy-Maliseet (BJ)</t>
-  </si>
-  <si>
-    <t>Pattani (BJ)</t>
-  </si>
-  <si>
-    <t>patt1248</t>
-  </si>
-  <si>
-    <t>Pero (BJ)</t>
-  </si>
-  <si>
-    <t>pero1241</t>
-  </si>
-  <si>
-    <t>Pilagá (BJ)</t>
-  </si>
-  <si>
-    <t>pila1245</t>
-  </si>
-  <si>
-    <t>Pirahã (BJ)</t>
-  </si>
-  <si>
-    <t>pira1253</t>
-  </si>
-  <si>
-    <t>Pitjantjatjara (BJ)</t>
-  </si>
-  <si>
-    <t>pitj1243</t>
-  </si>
-  <si>
-    <t>Pitta Pitta (BJ)</t>
-  </si>
-  <si>
-    <t>pitt1247</t>
-  </si>
-  <si>
-    <t>Purépecha (BJ)</t>
-  </si>
-  <si>
-    <t>pure1242</t>
-  </si>
-  <si>
-    <t>Qafar</t>
-  </si>
-  <si>
-    <t>afar1241</t>
-  </si>
-  <si>
-    <t>Quechua (Huallaga) (BJ)</t>
-  </si>
-  <si>
-    <t>huam1248</t>
-  </si>
-  <si>
-    <t>Rama (BJ)</t>
-  </si>
-  <si>
-    <t>rama1270</t>
-  </si>
-  <si>
-    <t>Rapanui (BJ)</t>
-  </si>
-  <si>
-    <t>rapa1244</t>
-  </si>
-  <si>
-    <t>Rawang (BJ)</t>
-  </si>
-  <si>
-    <t>rawa1265</t>
-  </si>
-  <si>
-    <t>Retuarã (BJ)</t>
-  </si>
-  <si>
-    <t>tani1257</t>
-  </si>
-  <si>
-    <t>Ron (BJ)</t>
-  </si>
-  <si>
-    <t>ronn1241</t>
-  </si>
-  <si>
-    <t>Saami (Northern) (BJ)</t>
-  </si>
-  <si>
-    <t>nort2671</t>
-  </si>
-  <si>
-    <t>Salt-Yui (BJ)</t>
-  </si>
-  <si>
-    <t>salt1242</t>
-  </si>
-  <si>
-    <t>Sango (BJ)</t>
-  </si>
-  <si>
-    <t>sang1328</t>
-  </si>
-  <si>
-    <t>Sangu (BJ)</t>
-  </si>
-  <si>
-    <t>sang1333</t>
-  </si>
-  <si>
-    <t>Sanuma (BJ)</t>
-  </si>
-  <si>
-    <t>sanu1240</t>
-  </si>
-  <si>
-    <t>Sapuan (BJ)</t>
-  </si>
-  <si>
-    <t>sapu1248</t>
-  </si>
-  <si>
-    <t>Sedang (BJ)</t>
-  </si>
-  <si>
-    <t>seda1262</t>
-  </si>
-  <si>
-    <t>Selkup (BJ)</t>
-  </si>
-  <si>
-    <t>selk1253</t>
-  </si>
-  <si>
-    <t>Shoshone (BJ)</t>
-  </si>
-  <si>
-    <t>shos1248</t>
-  </si>
-  <si>
-    <t>Sinaugoro (BJ)</t>
-  </si>
-  <si>
-    <t>sina1266</t>
-  </si>
-  <si>
-    <t>Slave (BJ)</t>
-  </si>
-  <si>
-    <t>slav1253</t>
-  </si>
-  <si>
-    <t>So (BJ)</t>
-  </si>
-  <si>
-    <t>sooo1256</t>
-  </si>
-  <si>
-    <t>Somali (BJ)</t>
-  </si>
-  <si>
-    <t>soma1255</t>
-  </si>
-  <si>
-    <t>Sotho (Northern) (BJ)</t>
-  </si>
-  <si>
-    <t>pedi1238</t>
-  </si>
-  <si>
-    <t>Spanish (BJ)</t>
-  </si>
-  <si>
-    <t>stan1288</t>
-  </si>
-  <si>
-    <t>Sudest (BJ)</t>
-  </si>
-  <si>
-    <t>sude1239</t>
-  </si>
-  <si>
-    <t>Suena (BJ)</t>
-  </si>
-  <si>
-    <t>suen1241</t>
-  </si>
-  <si>
-    <t>Sundanese (BJ)</t>
-  </si>
-  <si>
-    <t>sund1252</t>
-  </si>
-  <si>
-    <t>Taba (BJ)</t>
-  </si>
-  <si>
-    <t>east2440</t>
-  </si>
-  <si>
-    <t>Tagalog (BJ)</t>
-  </si>
-  <si>
-    <t>taga1270</t>
-  </si>
-  <si>
-    <t>Tamang (BJ)</t>
-  </si>
-  <si>
-    <t>east2347</t>
-  </si>
-  <si>
-    <t>Tarao (BJ)</t>
-  </si>
-  <si>
-    <t>tara1313</t>
-  </si>
-  <si>
-    <t>Tauya (BJ)</t>
-  </si>
-  <si>
-    <t>tauy1241</t>
-  </si>
-  <si>
-    <t>Tepehuan (Northern) (BJ)</t>
-  </si>
-  <si>
-    <t>nort2959</t>
-  </si>
-  <si>
-    <t>Tepehuan (Southeastern) (BJ)</t>
-  </si>
-  <si>
-    <t>sout2976</t>
-  </si>
-  <si>
-    <t>Teribe (BJ)</t>
-  </si>
-  <si>
-    <t>teri1250</t>
-  </si>
-  <si>
-    <t>Ternate (BJ)</t>
-  </si>
-  <si>
-    <t>tern1247</t>
-  </si>
-  <si>
-    <t>Tetun (BJ)</t>
-  </si>
-  <si>
-    <t>tetu1245</t>
-  </si>
-  <si>
-    <t>Tibetan (Standard Spoken) (BJ)</t>
-  </si>
-  <si>
-    <t>tibe1272</t>
-  </si>
-  <si>
-    <t>Tidore (BJ)</t>
-  </si>
-  <si>
-    <t>tido1248</t>
-  </si>
-  <si>
-    <t>Tigrinya (BJ)</t>
-  </si>
-  <si>
-    <t>tigr1271</t>
-  </si>
-  <si>
-    <t>Tikar (BJ)</t>
-  </si>
-  <si>
-    <t>tika1246</t>
-  </si>
-  <si>
-    <t>Tinrin (BJ)</t>
-  </si>
-  <si>
-    <t>tiri1258</t>
-  </si>
-  <si>
-    <t>Tiwi (BJ)</t>
-  </si>
-  <si>
-    <t>tiwi1244</t>
-  </si>
-  <si>
-    <t>Tobati (BJ)</t>
-  </si>
-  <si>
-    <t>toba1266</t>
-  </si>
-  <si>
-    <t>Toratán (BJ)</t>
-  </si>
-  <si>
-    <t>rata1244</t>
-  </si>
-  <si>
-    <t>Torwali (BJ)</t>
-  </si>
-  <si>
-    <t>torw1241</t>
-  </si>
-  <si>
-    <t>Trumai (BJ)</t>
-  </si>
-  <si>
-    <t>trum1247</t>
-  </si>
-  <si>
-    <t>Tsat (BJ)</t>
-  </si>
-  <si>
-    <t>tsat1238</t>
-  </si>
-  <si>
-    <t>Tsez (BJ)</t>
-  </si>
-  <si>
-    <t>dido1241</t>
-  </si>
-  <si>
-    <t>Tshangla (BJ)</t>
-  </si>
-  <si>
-    <t>tsha1245</t>
-  </si>
-  <si>
-    <t>Tsimshian (Coast) (BJ)</t>
-  </si>
-  <si>
-    <t>nucl1649</t>
-  </si>
-  <si>
-    <t>Tugun (BJ)</t>
-  </si>
-  <si>
-    <t>tugu1245</t>
-  </si>
-  <si>
-    <t>Tunen (BJ)</t>
-  </si>
-  <si>
-    <t>tune1241</t>
-  </si>
-  <si>
-    <t>Turkana (BJ)</t>
-  </si>
-  <si>
-    <t>turk1308</t>
-  </si>
-  <si>
-    <t>Turkish (BJ)</t>
-  </si>
-  <si>
-    <t>nucl1301</t>
-  </si>
-  <si>
-    <t>Tzutujil (BJ)</t>
-  </si>
-  <si>
-    <t>tzut1248</t>
-  </si>
-  <si>
-    <t>Udmurt (BJ)</t>
-  </si>
-  <si>
-    <t>udmu1245</t>
-  </si>
-  <si>
-    <t>Upper Kuskokwim (BJ)</t>
-  </si>
-  <si>
-    <t>uppe1438</t>
-  </si>
-  <si>
-    <t>Urubu-Kaapor (BJ)</t>
-  </si>
-  <si>
-    <t>urub1250</t>
-  </si>
-  <si>
-    <t>Usan (BJ)</t>
-  </si>
-  <si>
-    <t>usan1239</t>
-  </si>
-  <si>
-    <t>Vietnamese (BJ)</t>
-  </si>
-  <si>
-    <t>viet1252</t>
-  </si>
-  <si>
-    <t>Walmatjari (BJ)</t>
-  </si>
-  <si>
-    <t>walm1241</t>
-  </si>
-  <si>
-    <t>Wambaya (BJ)</t>
-  </si>
-  <si>
-    <t>wamb1258</t>
-  </si>
-  <si>
-    <t>Warao (BJ)</t>
-  </si>
-  <si>
-    <t>wara1303</t>
-  </si>
-  <si>
-    <t>Waray (in Australia) (BJ)</t>
-  </si>
-  <si>
-    <t>wara1290</t>
-  </si>
-  <si>
-    <t>Wardaman (BJ)</t>
-  </si>
-  <si>
-    <t>ward1246</t>
-  </si>
-  <si>
-    <t>Warembori (BJ)</t>
-  </si>
-  <si>
-    <t>ware1253</t>
-  </si>
-  <si>
-    <t>Warrgamay (BJ)</t>
-  </si>
-  <si>
-    <t>warr1255</t>
-  </si>
-  <si>
-    <t>Wirangu (BJ)</t>
-  </si>
-  <si>
-    <t>wira1260</t>
-  </si>
-  <si>
-    <t>/Xam (BJ)</t>
-  </si>
-  <si>
-    <t>xamm1241</t>
-  </si>
-  <si>
-    <t>Yagua (BJ)</t>
-  </si>
-  <si>
-    <t>yagu1244</t>
-  </si>
-  <si>
-    <t>Yanyuwa (BJ)</t>
-  </si>
-  <si>
-    <t>yany1243</t>
-  </si>
-  <si>
-    <t>Yawelmani (BJ)</t>
-  </si>
-  <si>
-    <t>yoku1256</t>
-  </si>
-  <si>
-    <t>Yawuru (BJ)</t>
-  </si>
-  <si>
-    <t>yawu1244</t>
-  </si>
-  <si>
-    <t>Yidiny (BJ)</t>
-  </si>
-  <si>
-    <t>yidi1250</t>
-  </si>
-  <si>
-    <t>Yimas (BJ)</t>
-  </si>
-  <si>
-    <t>yima1243</t>
-  </si>
-  <si>
-    <t>Yingkarta (BJ)</t>
-  </si>
-  <si>
-    <t>ying1247</t>
-  </si>
-  <si>
-    <t>Yir Yiront (BJ)</t>
-  </si>
-  <si>
-    <t>yiry1245</t>
-  </si>
-  <si>
-    <t>Yukaghir (Tundra) (BJ)</t>
-  </si>
-  <si>
-    <t>nort2745</t>
-  </si>
-  <si>
-    <t>Yup'ik (Central) (BJ)</t>
-  </si>
-  <si>
-    <t>Zapotec (Quiegolani) (BJ)</t>
+    <t>Zapotec (Quiegolani)</t>
   </si>
   <si>
     <t>sant1451</t>
   </si>
   <si>
-    <t>Zayse (BJ)</t>
+    <t>Zayse</t>
   </si>
   <si>
     <t>zays1235</t>
   </si>
   <si>
-    <t>Zazaki (BJ)</t>
+    <t>Zazaki</t>
   </si>
   <si>
     <t>diml1238</t>
   </si>
   <si>
-    <t>Zoque (Chimalapa) (BJ)</t>
+    <t>Zoque (Chimalapa)</t>
   </si>
   <si>
     <t>chim1300</t>
   </si>
   <si>
-    <t>Jingulu (BJ)</t>
-  </si>
-  <si>
-    <t>Chinese (Kunming) (BJ)</t>
+    <t>Chinese (Kunming)</t>
   </si>
   <si>
     <t>kunm1234</t>
   </si>
   <si>
-    <t>Cinsenga (BJ)</t>
+    <t>Cinsenga</t>
   </si>
   <si>
     <t>nsen1242</t>
   </si>
   <si>
-    <t>Dargwa (BJ)</t>
+    <t>Dargwa</t>
   </si>
   <si>
     <t>darg1241</t>
   </si>
   <si>
-    <t>Cambodian (BJ)</t>
-  </si>
-  <si>
-    <t>Gikuyu (BJ)</t>
+    <t>Cambodian</t>
+  </si>
+  <si>
+    <t>Gikuyu</t>
   </si>
   <si>
     <t>kiku1240</t>
   </si>
   <si>
-    <t>Nishnaabemwin (BJ)</t>
+    <t>Nishnaabemwin</t>
   </si>
   <si>
     <t>Central Arctic Inuktitut</t>
@@ -3385,7 +3361,7 @@
     </row>
     <row r="57">
       <c r="A57" s="6">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B57" t="s" s="7">
         <v>113</v>
@@ -3396,7 +3372,7 @@
     </row>
     <row r="58">
       <c r="A58" s="6">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B58" t="s" s="7">
         <v>115</v>
@@ -3407,7 +3383,7 @@
     </row>
     <row r="59">
       <c r="A59" s="6">
-        <v>950</v>
+        <v>1052</v>
       </c>
       <c r="B59" t="s" s="7">
         <v>117</v>
@@ -3418,7 +3394,7 @@
     </row>
     <row r="60">
       <c r="A60" s="6">
-        <v>1010</v>
+        <v>1071</v>
       </c>
       <c r="B60" t="s" s="7">
         <v>119</v>
@@ -3429,7 +3405,7 @@
     </row>
     <row r="61">
       <c r="A61" s="6">
-        <v>1052</v>
+        <v>1088</v>
       </c>
       <c r="B61" t="s" s="7">
         <v>121</v>
@@ -3440,7 +3416,7 @@
     </row>
     <row r="62">
       <c r="A62" s="6">
-        <v>1071</v>
+        <v>1097</v>
       </c>
       <c r="B62" t="s" s="7">
         <v>123</v>
@@ -3451,7 +3427,7 @@
     </row>
     <row r="63">
       <c r="A63" s="6">
-        <v>1088</v>
+        <v>1103</v>
       </c>
       <c r="B63" t="s" s="7">
         <v>125</v>
@@ -3462,7 +3438,7 @@
     </row>
     <row r="64">
       <c r="A64" s="6">
-        <v>1097</v>
+        <v>1106</v>
       </c>
       <c r="B64" t="s" s="7">
         <v>127</v>
@@ -3473,7 +3449,7 @@
     </row>
     <row r="65">
       <c r="A65" s="6">
-        <v>1103</v>
+        <v>1133</v>
       </c>
       <c r="B65" t="s" s="7">
         <v>129</v>
@@ -3484,7 +3460,7 @@
     </row>
     <row r="66">
       <c r="A66" s="6">
-        <v>1106</v>
+        <v>1166</v>
       </c>
       <c r="B66" t="s" s="7">
         <v>131</v>
@@ -3495,7 +3471,7 @@
     </row>
     <row r="67">
       <c r="A67" s="6">
-        <v>1133</v>
+        <v>1179</v>
       </c>
       <c r="B67" t="s" s="7">
         <v>133</v>
@@ -3506,7 +3482,7 @@
     </row>
     <row r="68">
       <c r="A68" s="6">
-        <v>1166</v>
+        <v>1180</v>
       </c>
       <c r="B68" t="s" s="7">
         <v>135</v>
@@ -3517,7 +3493,7 @@
     </row>
     <row r="69">
       <c r="A69" s="6">
-        <v>1169</v>
+        <v>1241</v>
       </c>
       <c r="B69" t="s" s="7">
         <v>137</v>
@@ -3528,7 +3504,7 @@
     </row>
     <row r="70">
       <c r="A70" s="6">
-        <v>1179</v>
+        <v>1253</v>
       </c>
       <c r="B70" t="s" s="7">
         <v>139</v>
@@ -3539,7 +3515,7 @@
     </row>
     <row r="71">
       <c r="A71" s="6">
-        <v>1180</v>
+        <v>1263</v>
       </c>
       <c r="B71" t="s" s="7">
         <v>141</v>
@@ -3550,7 +3526,7 @@
     </row>
     <row r="72">
       <c r="A72" s="6">
-        <v>1241</v>
+        <v>1264</v>
       </c>
       <c r="B72" t="s" s="7">
         <v>143</v>
@@ -3561,7 +3537,7 @@
     </row>
     <row r="73">
       <c r="A73" s="6">
-        <v>1253</v>
+        <v>1371</v>
       </c>
       <c r="B73" t="s" s="7">
         <v>145</v>
@@ -3572,7 +3548,7 @@
     </row>
     <row r="74">
       <c r="A74" s="6">
-        <v>1263</v>
+        <v>1387</v>
       </c>
       <c r="B74" t="s" s="7">
         <v>147</v>
@@ -3583,7 +3559,7 @@
     </row>
     <row r="75">
       <c r="A75" s="6">
-        <v>1264</v>
+        <v>1407</v>
       </c>
       <c r="B75" t="s" s="7">
         <v>149</v>
@@ -3594,7 +3570,7 @@
     </row>
     <row r="76">
       <c r="A76" s="6">
-        <v>1371</v>
+        <v>1426</v>
       </c>
       <c r="B76" t="s" s="7">
         <v>151</v>
@@ -3605,7 +3581,7 @@
     </row>
     <row r="77">
       <c r="A77" s="6">
-        <v>1387</v>
+        <v>1439</v>
       </c>
       <c r="B77" t="s" s="7">
         <v>153</v>
@@ -3616,7 +3592,7 @@
     </row>
     <row r="78">
       <c r="A78" s="6">
-        <v>1407</v>
+        <v>1556</v>
       </c>
       <c r="B78" t="s" s="7">
         <v>155</v>
@@ -3627,7 +3603,7 @@
     </row>
     <row r="79">
       <c r="A79" s="6">
-        <v>1417</v>
+        <v>1657</v>
       </c>
       <c r="B79" t="s" s="7">
         <v>157</v>
@@ -3638,7 +3614,7 @@
     </row>
     <row r="80">
       <c r="A80" s="6">
-        <v>1426</v>
+        <v>1755</v>
       </c>
       <c r="B80" t="s" s="7">
         <v>159</v>
@@ -3649,7 +3625,7 @@
     </row>
     <row r="81">
       <c r="A81" s="6">
-        <v>1439</v>
+        <v>1763</v>
       </c>
       <c r="B81" t="s" s="7">
         <v>161</v>
@@ -3660,7 +3636,7 @@
     </row>
     <row r="82">
       <c r="A82" s="6">
-        <v>1556</v>
+        <v>1776</v>
       </c>
       <c r="B82" t="s" s="7">
         <v>163</v>
@@ -3671,7 +3647,7 @@
     </row>
     <row r="83">
       <c r="A83" s="6">
-        <v>1654</v>
+        <v>1817</v>
       </c>
       <c r="B83" t="s" s="7">
         <v>165</v>
@@ -3682,7 +3658,7 @@
     </row>
     <row r="84">
       <c r="A84" s="6">
-        <v>1657</v>
+        <v>1839</v>
       </c>
       <c r="B84" t="s" s="7">
         <v>167</v>
@@ -3693,7 +3669,7 @@
     </row>
     <row r="85">
       <c r="A85" s="6">
-        <v>1755</v>
+        <v>1871</v>
       </c>
       <c r="B85" t="s" s="7">
         <v>169</v>
@@ -3704,7 +3680,7 @@
     </row>
     <row r="86">
       <c r="A86" s="6">
-        <v>1763</v>
+        <v>1893</v>
       </c>
       <c r="B86" t="s" s="7">
         <v>171</v>
@@ -3715,7 +3691,7 @@
     </row>
     <row r="87">
       <c r="A87" s="6">
-        <v>1776</v>
+        <v>1903</v>
       </c>
       <c r="B87" t="s" s="7">
         <v>173</v>
@@ -3726,7 +3702,7 @@
     </row>
     <row r="88">
       <c r="A88" s="6">
-        <v>1817</v>
+        <v>1972</v>
       </c>
       <c r="B88" t="s" s="7">
         <v>175</v>
@@ -3737,7 +3713,7 @@
     </row>
     <row r="89">
       <c r="A89" s="6">
-        <v>1826</v>
+        <v>2012</v>
       </c>
       <c r="B89" t="s" s="7">
         <v>177</v>
@@ -3748,7 +3724,7 @@
     </row>
     <row r="90">
       <c r="A90" s="6">
-        <v>1839</v>
+        <v>2020</v>
       </c>
       <c r="B90" t="s" s="7">
         <v>179</v>
@@ -3759,7 +3735,7 @@
     </row>
     <row r="91">
       <c r="A91" s="6">
-        <v>1871</v>
+        <v>2110</v>
       </c>
       <c r="B91" t="s" s="7">
         <v>181</v>
@@ -3770,7 +3746,7 @@
     </row>
     <row r="92">
       <c r="A92" s="6">
-        <v>1893</v>
+        <v>2115</v>
       </c>
       <c r="B92" t="s" s="7">
         <v>183</v>
@@ -3781,7 +3757,7 @@
     </row>
     <row r="93">
       <c r="A93" s="6">
-        <v>1903</v>
+        <v>2116</v>
       </c>
       <c r="B93" t="s" s="7">
         <v>185</v>
@@ -3792,7 +3768,7 @@
     </row>
     <row r="94">
       <c r="A94" s="6">
-        <v>1972</v>
+        <v>2181</v>
       </c>
       <c r="B94" t="s" s="7">
         <v>187</v>
@@ -3803,7 +3779,7 @@
     </row>
     <row r="95">
       <c r="A95" s="6">
-        <v>2012</v>
+        <v>2191</v>
       </c>
       <c r="B95" t="s" s="7">
         <v>189</v>
@@ -3814,7 +3790,7 @@
     </row>
     <row r="96">
       <c r="A96" s="6">
-        <v>2020</v>
+        <v>2225</v>
       </c>
       <c r="B96" t="s" s="7">
         <v>191</v>
@@ -3825,7 +3801,7 @@
     </row>
     <row r="97">
       <c r="A97" s="6">
-        <v>2110</v>
+        <v>2234</v>
       </c>
       <c r="B97" t="s" s="7">
         <v>193</v>
@@ -3836,7 +3812,7 @@
     </row>
     <row r="98">
       <c r="A98" s="6">
-        <v>2115</v>
+        <v>2239</v>
       </c>
       <c r="B98" t="s" s="7">
         <v>195</v>
@@ -3847,7 +3823,7 @@
     </row>
     <row r="99">
       <c r="A99" s="6">
-        <v>2116</v>
+        <v>2241</v>
       </c>
       <c r="B99" t="s" s="7">
         <v>197</v>
@@ -3858,7 +3834,7 @@
     </row>
     <row r="100">
       <c r="A100" s="6">
-        <v>2181</v>
+        <v>2264</v>
       </c>
       <c r="B100" t="s" s="7">
         <v>199</v>
@@ -3869,7 +3845,7 @@
     </row>
     <row r="101">
       <c r="A101" s="6">
-        <v>2191</v>
+        <v>2293</v>
       </c>
       <c r="B101" t="s" s="7">
         <v>201</v>
@@ -3880,7 +3856,7 @@
     </row>
     <row r="102">
       <c r="A102" s="6">
-        <v>2225</v>
+        <v>2298</v>
       </c>
       <c r="B102" t="s" s="7">
         <v>203</v>
@@ -3891,7 +3867,7 @@
     </row>
     <row r="103">
       <c r="A103" s="6">
-        <v>2234</v>
+        <v>2323</v>
       </c>
       <c r="B103" t="s" s="7">
         <v>205</v>
@@ -3902,7 +3878,7 @@
     </row>
     <row r="104">
       <c r="A104" s="6">
-        <v>2239</v>
+        <v>2359</v>
       </c>
       <c r="B104" t="s" s="7">
         <v>207</v>
@@ -3913,7 +3889,7 @@
     </row>
     <row r="105">
       <c r="A105" s="6">
-        <v>2241</v>
+        <v>2384</v>
       </c>
       <c r="B105" t="s" s="7">
         <v>209</v>
@@ -3924,7 +3900,7 @@
     </row>
     <row r="106">
       <c r="A106" s="6">
-        <v>2264</v>
+        <v>2433</v>
       </c>
       <c r="B106" t="s" s="7">
         <v>211</v>
@@ -3935,7 +3911,7 @@
     </row>
     <row r="107">
       <c r="A107" s="6">
-        <v>2293</v>
+        <v>2447</v>
       </c>
       <c r="B107" t="s" s="7">
         <v>213</v>
@@ -3946,7 +3922,7 @@
     </row>
     <row r="108">
       <c r="A108" s="6">
-        <v>2298</v>
+        <v>2471</v>
       </c>
       <c r="B108" t="s" s="7">
         <v>215</v>
@@ -3957,7 +3933,7 @@
     </row>
     <row r="109">
       <c r="A109" s="6">
-        <v>2323</v>
+        <v>2502</v>
       </c>
       <c r="B109" t="s" s="7">
         <v>217</v>
@@ -3968,7 +3944,7 @@
     </row>
     <row r="110">
       <c r="A110" s="6">
-        <v>2359</v>
+        <v>2507</v>
       </c>
       <c r="B110" t="s" s="7">
         <v>219</v>
@@ -3979,7 +3955,7 @@
     </row>
     <row r="111">
       <c r="A111" s="6">
-        <v>2384</v>
+        <v>2521</v>
       </c>
       <c r="B111" t="s" s="7">
         <v>221</v>
@@ -3990,7 +3966,7 @@
     </row>
     <row r="112">
       <c r="A112" s="6">
-        <v>2433</v>
+        <v>2539</v>
       </c>
       <c r="B112" t="s" s="7">
         <v>223</v>
@@ -4001,7 +3977,7 @@
     </row>
     <row r="113">
       <c r="A113" s="6">
-        <v>2447</v>
+        <v>2552</v>
       </c>
       <c r="B113" t="s" s="7">
         <v>225</v>
@@ -4012,7 +3988,7 @@
     </row>
     <row r="114">
       <c r="A114" s="6">
-        <v>2471</v>
+        <v>2556</v>
       </c>
       <c r="B114" t="s" s="7">
         <v>227</v>
@@ -4023,7 +3999,7 @@
     </row>
     <row r="115">
       <c r="A115" s="6">
-        <v>2502</v>
+        <v>2558</v>
       </c>
       <c r="B115" t="s" s="7">
         <v>229</v>
@@ -4034,7 +4010,7 @@
     </row>
     <row r="116">
       <c r="A116" s="6">
-        <v>2507</v>
+        <v>2559</v>
       </c>
       <c r="B116" t="s" s="7">
         <v>231</v>
@@ -4045,7 +4021,7 @@
     </row>
     <row r="117">
       <c r="A117" s="6">
-        <v>2514</v>
+        <v>2560</v>
       </c>
       <c r="B117" t="s" s="7">
         <v>233</v>
@@ -4056,7 +4032,7 @@
     </row>
     <row r="118">
       <c r="A118" s="6">
-        <v>2521</v>
+        <v>2561</v>
       </c>
       <c r="B118" t="s" s="7">
         <v>235</v>
@@ -4067,7 +4043,7 @@
     </row>
     <row r="119">
       <c r="A119" s="6">
-        <v>2539</v>
+        <v>2562</v>
       </c>
       <c r="B119" t="s" s="7">
         <v>237</v>
@@ -4078,7 +4054,7 @@
     </row>
     <row r="120">
       <c r="A120" s="6">
-        <v>2552</v>
+        <v>2563</v>
       </c>
       <c r="B120" t="s" s="7">
         <v>239</v>
@@ -4089,7 +4065,7 @@
     </row>
     <row r="121">
       <c r="A121" s="6">
-        <v>2556</v>
+        <v>2564</v>
       </c>
       <c r="B121" t="s" s="7">
         <v>241</v>
@@ -4100,7 +4076,7 @@
     </row>
     <row r="122">
       <c r="A122" s="6">
-        <v>2558</v>
+        <v>2565</v>
       </c>
       <c r="B122" t="s" s="7">
         <v>243</v>
@@ -4111,7 +4087,7 @@
     </row>
     <row r="123">
       <c r="A123" s="6">
-        <v>2559</v>
+        <v>2566</v>
       </c>
       <c r="B123" t="s" s="7">
         <v>245</v>
@@ -4122,7 +4098,7 @@
     </row>
     <row r="124">
       <c r="A124" s="6">
-        <v>2560</v>
+        <v>2567</v>
       </c>
       <c r="B124" t="s" s="7">
         <v>247</v>
@@ -4133,7 +4109,7 @@
     </row>
     <row r="125">
       <c r="A125" s="6">
-        <v>2561</v>
+        <v>2568</v>
       </c>
       <c r="B125" t="s" s="7">
         <v>249</v>
@@ -4144,7 +4120,7 @@
     </row>
     <row r="126">
       <c r="A126" s="6">
-        <v>2562</v>
+        <v>2573</v>
       </c>
       <c r="B126" t="s" s="7">
         <v>251</v>
@@ -4155,7 +4131,7 @@
     </row>
     <row r="127">
       <c r="A127" s="6">
-        <v>2563</v>
+        <v>2574</v>
       </c>
       <c r="B127" t="s" s="7">
         <v>253</v>
@@ -4166,7 +4142,7 @@
     </row>
     <row r="128">
       <c r="A128" s="6">
-        <v>2564</v>
+        <v>2575</v>
       </c>
       <c r="B128" t="s" s="7">
         <v>255</v>
@@ -4177,7 +4153,7 @@
     </row>
     <row r="129">
       <c r="A129" s="6">
-        <v>2565</v>
+        <v>2576</v>
       </c>
       <c r="B129" t="s" s="7">
         <v>257</v>
@@ -4188,7 +4164,7 @@
     </row>
     <row r="130">
       <c r="A130" s="6">
-        <v>2566</v>
+        <v>2577</v>
       </c>
       <c r="B130" t="s" s="7">
         <v>259</v>
@@ -4199,7 +4175,7 @@
     </row>
     <row r="131">
       <c r="A131" s="6">
-        <v>2567</v>
+        <v>2578</v>
       </c>
       <c r="B131" t="s" s="7">
         <v>261</v>
@@ -4210,7 +4186,7 @@
     </row>
     <row r="132">
       <c r="A132" s="6">
-        <v>2568</v>
+        <v>2579</v>
       </c>
       <c r="B132" t="s" s="7">
         <v>263</v>
@@ -4221,7 +4197,7 @@
     </row>
     <row r="133">
       <c r="A133" s="6">
-        <v>2573</v>
+        <v>2582</v>
       </c>
       <c r="B133" t="s" s="7">
         <v>265</v>
@@ -4232,7 +4208,7 @@
     </row>
     <row r="134">
       <c r="A134" s="6">
-        <v>2574</v>
+        <v>2587</v>
       </c>
       <c r="B134" t="s" s="7">
         <v>267</v>
@@ -4243,7 +4219,7 @@
     </row>
     <row r="135">
       <c r="A135" s="6">
-        <v>2575</v>
+        <v>2590</v>
       </c>
       <c r="B135" t="s" s="7">
         <v>269</v>
@@ -4254,7 +4230,7 @@
     </row>
     <row r="136">
       <c r="A136" s="6">
-        <v>2576</v>
+        <v>2592</v>
       </c>
       <c r="B136" t="s" s="7">
         <v>271</v>
@@ -4265,7 +4241,7 @@
     </row>
     <row r="137">
       <c r="A137" s="6">
-        <v>2577</v>
+        <v>2593</v>
       </c>
       <c r="B137" t="s" s="7">
         <v>273</v>
@@ -4276,7 +4252,7 @@
     </row>
     <row r="138">
       <c r="A138" s="6">
-        <v>2578</v>
+        <v>2594</v>
       </c>
       <c r="B138" t="s" s="7">
         <v>275</v>
@@ -4287,7 +4263,7 @@
     </row>
     <row r="139">
       <c r="A139" s="6">
-        <v>2579</v>
+        <v>2595</v>
       </c>
       <c r="B139" t="s" s="7">
         <v>277</v>
@@ -4298,7 +4274,7 @@
     </row>
     <row r="140">
       <c r="A140" s="6">
-        <v>2582</v>
+        <v>2596</v>
       </c>
       <c r="B140" t="s" s="7">
         <v>279</v>
@@ -4309,7 +4285,7 @@
     </row>
     <row r="141">
       <c r="A141" s="6">
-        <v>2587</v>
+        <v>2597</v>
       </c>
       <c r="B141" t="s" s="7">
         <v>281</v>
@@ -4320,7 +4296,7 @@
     </row>
     <row r="142">
       <c r="A142" s="6">
-        <v>2590</v>
+        <v>2598</v>
       </c>
       <c r="B142" t="s" s="7">
         <v>283</v>
@@ -4331,7 +4307,7 @@
     </row>
     <row r="143">
       <c r="A143" s="6">
-        <v>2592</v>
+        <v>2599</v>
       </c>
       <c r="B143" t="s" s="7">
         <v>285</v>
@@ -4342,7 +4318,7 @@
     </row>
     <row r="144">
       <c r="A144" s="6">
-        <v>2593</v>
+        <v>2600</v>
       </c>
       <c r="B144" t="s" s="7">
         <v>287</v>
@@ -4353,7 +4329,7 @@
     </row>
     <row r="145">
       <c r="A145" s="6">
-        <v>2594</v>
+        <v>2601</v>
       </c>
       <c r="B145" t="s" s="7">
         <v>289</v>
@@ -4364,7 +4340,7 @@
     </row>
     <row r="146">
       <c r="A146" s="6">
-        <v>2595</v>
+        <v>2602</v>
       </c>
       <c r="B146" t="s" s="7">
         <v>291</v>
@@ -4375,7 +4351,7 @@
     </row>
     <row r="147">
       <c r="A147" s="6">
-        <v>2596</v>
+        <v>2603</v>
       </c>
       <c r="B147" t="s" s="7">
         <v>293</v>
@@ -4386,7 +4362,7 @@
     </row>
     <row r="148">
       <c r="A148" s="6">
-        <v>2597</v>
+        <v>2604</v>
       </c>
       <c r="B148" t="s" s="7">
         <v>295</v>
@@ -4397,7 +4373,7 @@
     </row>
     <row r="149">
       <c r="A149" s="6">
-        <v>2598</v>
+        <v>2605</v>
       </c>
       <c r="B149" t="s" s="7">
         <v>297</v>
@@ -4408,7 +4384,7 @@
     </row>
     <row r="150">
       <c r="A150" s="6">
-        <v>2599</v>
+        <v>2606</v>
       </c>
       <c r="B150" t="s" s="7">
         <v>299</v>
@@ -4419,7 +4395,7 @@
     </row>
     <row r="151">
       <c r="A151" s="6">
-        <v>2600</v>
+        <v>2608</v>
       </c>
       <c r="B151" t="s" s="7">
         <v>301</v>
@@ -4430,7 +4406,7 @@
     </row>
     <row r="152">
       <c r="A152" s="6">
-        <v>2601</v>
+        <v>2609</v>
       </c>
       <c r="B152" t="s" s="7">
         <v>303</v>
@@ -4441,7 +4417,7 @@
     </row>
     <row r="153">
       <c r="A153" s="6">
-        <v>2602</v>
+        <v>2610</v>
       </c>
       <c r="B153" t="s" s="7">
         <v>305</v>
@@ -4452,7 +4428,7 @@
     </row>
     <row r="154">
       <c r="A154" s="6">
-        <v>2603</v>
+        <v>2611</v>
       </c>
       <c r="B154" t="s" s="7">
         <v>307</v>
@@ -4463,7 +4439,7 @@
     </row>
     <row r="155">
       <c r="A155" s="6">
-        <v>2604</v>
+        <v>2612</v>
       </c>
       <c r="B155" t="s" s="7">
         <v>309</v>
@@ -4474,7 +4450,7 @@
     </row>
     <row r="156">
       <c r="A156" s="6">
-        <v>2605</v>
+        <v>2613</v>
       </c>
       <c r="B156" t="s" s="7">
         <v>311</v>
@@ -4485,7 +4461,7 @@
     </row>
     <row r="157">
       <c r="A157" s="6">
-        <v>2606</v>
+        <v>2614</v>
       </c>
       <c r="B157" t="s" s="7">
         <v>313</v>
@@ -4496,3247 +4472,3159 @@
     </row>
     <row r="158">
       <c r="A158" s="6">
-        <v>2607</v>
+        <v>2615</v>
       </c>
       <c r="B158" t="s" s="7">
         <v>315</v>
       </c>
       <c r="C158" t="s" s="8">
-        <v>66</v>
+        <v>316</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="6">
-        <v>2608</v>
+        <v>2616</v>
       </c>
       <c r="B159" t="s" s="7">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C159" t="s" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="6">
-        <v>2609</v>
+        <v>2617</v>
       </c>
       <c r="B160" t="s" s="7">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C160" t="s" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="6">
-        <v>2610</v>
+        <v>2618</v>
       </c>
       <c r="B161" t="s" s="7">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C161" t="s" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="6">
-        <v>2611</v>
+        <v>2619</v>
       </c>
       <c r="B162" t="s" s="7">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C162" t="s" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="6">
-        <v>2612</v>
+        <v>2620</v>
       </c>
       <c r="B163" t="s" s="7">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C163" t="s" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="6">
-        <v>2613</v>
+        <v>2621</v>
       </c>
       <c r="B164" t="s" s="7">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C164" t="s" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="6">
-        <v>2614</v>
+        <v>2622</v>
       </c>
       <c r="B165" t="s" s="7">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C165" t="s" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="6">
-        <v>2615</v>
+        <v>2624</v>
       </c>
       <c r="B166" t="s" s="7">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C166" t="s" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="6">
-        <v>2616</v>
+        <v>2626</v>
       </c>
       <c r="B167" t="s" s="7">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C167" t="s" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="6">
-        <v>2617</v>
+        <v>2629</v>
       </c>
       <c r="B168" t="s" s="7">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C168" t="s" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="6">
-        <v>2618</v>
+        <v>2630</v>
       </c>
       <c r="B169" t="s" s="7">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C169" t="s" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="6">
-        <v>2619</v>
+        <v>2631</v>
       </c>
       <c r="B170" t="s" s="7">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C170" t="s" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="6">
-        <v>2620</v>
+        <v>2632</v>
       </c>
       <c r="B171" t="s" s="7">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C171" t="s" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="6">
-        <v>2621</v>
+        <v>2633</v>
       </c>
       <c r="B172" t="s" s="7">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C172" t="s" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="6">
-        <v>2622</v>
+        <v>2634</v>
       </c>
       <c r="B173" t="s" s="7">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C173" t="s" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="6">
-        <v>2624</v>
+        <v>2635</v>
       </c>
       <c r="B174" t="s" s="7">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C174" t="s" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="6">
-        <v>2626</v>
+        <v>2636</v>
       </c>
       <c r="B175" t="s" s="7">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C175" t="s" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="6">
-        <v>2629</v>
+        <v>2637</v>
       </c>
       <c r="B176" t="s" s="7">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C176" t="s" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="6">
-        <v>2630</v>
+        <v>2638</v>
       </c>
       <c r="B177" t="s" s="7">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C177" t="s" s="8">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="6">
-        <v>2631</v>
+        <v>2639</v>
       </c>
       <c r="B178" t="s" s="7">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C178" t="s" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="6">
-        <v>2632</v>
+        <v>2640</v>
       </c>
       <c r="B179" t="s" s="7">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C179" t="s" s="8">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="6">
-        <v>2633</v>
+        <v>2641</v>
       </c>
       <c r="B180" t="s" s="7">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C180" t="s" s="8">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="6">
-        <v>2634</v>
+        <v>2642</v>
       </c>
       <c r="B181" t="s" s="7">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C181" t="s" s="8">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="6">
-        <v>2635</v>
+        <v>2643</v>
       </c>
       <c r="B182" t="s" s="7">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C182" t="s" s="8">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="6">
-        <v>2636</v>
+        <v>2644</v>
       </c>
       <c r="B183" t="s" s="7">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C183" t="s" s="8">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="6">
-        <v>2637</v>
+        <v>2646</v>
       </c>
       <c r="B184" t="s" s="7">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C184" t="s" s="8">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="6">
-        <v>2638</v>
+        <v>2647</v>
       </c>
       <c r="B185" t="s" s="7">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C185" t="s" s="8">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="6">
-        <v>2639</v>
+        <v>2648</v>
       </c>
       <c r="B186" t="s" s="7">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C186" t="s" s="8">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="6">
-        <v>2640</v>
+        <v>2649</v>
       </c>
       <c r="B187" t="s" s="7">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C187" t="s" s="8">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="6">
-        <v>2641</v>
+        <v>2650</v>
       </c>
       <c r="B188" t="s" s="7">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C188" t="s" s="8">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="6">
-        <v>2642</v>
+        <v>2651</v>
       </c>
       <c r="B189" t="s" s="7">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C189" t="s" s="8">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="6">
-        <v>2643</v>
+        <v>2652</v>
       </c>
       <c r="B190" t="s" s="7">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C190" t="s" s="8">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="6">
-        <v>2644</v>
+        <v>2653</v>
       </c>
       <c r="B191" t="s" s="7">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C191" t="s" s="8">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="6">
-        <v>2646</v>
+        <v>2654</v>
       </c>
       <c r="B192" t="s" s="7">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C192" t="s" s="8">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="6">
-        <v>2647</v>
+        <v>2655</v>
       </c>
       <c r="B193" t="s" s="7">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C193" t="s" s="8">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="6">
-        <v>2648</v>
+        <v>2656</v>
       </c>
       <c r="B194" t="s" s="7">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C194" t="s" s="8">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="6">
-        <v>2649</v>
+        <v>2657</v>
       </c>
       <c r="B195" t="s" s="7">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C195" t="s" s="8">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="6">
-        <v>2650</v>
+        <v>2658</v>
       </c>
       <c r="B196" t="s" s="7">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C196" t="s" s="8">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="6">
-        <v>2651</v>
+        <v>2659</v>
       </c>
       <c r="B197" t="s" s="7">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C197" t="s" s="8">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="6">
-        <v>2652</v>
+        <v>2660</v>
       </c>
       <c r="B198" t="s" s="7">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C198" t="s" s="8">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="6">
-        <v>2653</v>
+        <v>2661</v>
       </c>
       <c r="B199" t="s" s="7">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C199" t="s" s="8">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="6">
-        <v>2654</v>
+        <v>2662</v>
       </c>
       <c r="B200" t="s" s="7">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C200" t="s" s="8">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="6">
-        <v>2655</v>
+        <v>2663</v>
       </c>
       <c r="B201" t="s" s="7">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C201" t="s" s="8">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="6">
-        <v>2656</v>
+        <v>2664</v>
       </c>
       <c r="B202" t="s" s="7">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C202" t="s" s="8">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="6">
-        <v>2657</v>
+        <v>2665</v>
       </c>
       <c r="B203" t="s" s="7">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C203" t="s" s="8">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="6">
-        <v>2658</v>
+        <v>2666</v>
       </c>
       <c r="B204" t="s" s="7">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C204" t="s" s="8">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="6">
-        <v>2659</v>
+        <v>2667</v>
       </c>
       <c r="B205" t="s" s="7">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C205" t="s" s="8">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="6">
-        <v>2660</v>
+        <v>2668</v>
       </c>
       <c r="B206" t="s" s="7">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C206" t="s" s="8">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="6">
-        <v>2661</v>
+        <v>2669</v>
       </c>
       <c r="B207" t="s" s="7">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C207" t="s" s="8">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="6">
-        <v>2662</v>
+        <v>2670</v>
       </c>
       <c r="B208" t="s" s="7">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C208" t="s" s="8">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="6">
-        <v>2663</v>
+        <v>2671</v>
       </c>
       <c r="B209" t="s" s="7">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C209" t="s" s="8">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="6">
-        <v>2664</v>
+        <v>2672</v>
       </c>
       <c r="B210" t="s" s="7">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C210" t="s" s="8">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="6">
-        <v>2665</v>
+        <v>2673</v>
       </c>
       <c r="B211" t="s" s="7">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C211" t="s" s="8">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="6">
-        <v>2666</v>
+        <v>2674</v>
       </c>
       <c r="B212" t="s" s="7">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C212" t="s" s="8">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="6">
-        <v>2667</v>
+        <v>2675</v>
       </c>
       <c r="B213" t="s" s="7">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C213" t="s" s="8">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="6">
-        <v>2668</v>
+        <v>2676</v>
       </c>
       <c r="B214" t="s" s="7">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C214" t="s" s="8">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="6">
-        <v>2669</v>
+        <v>2677</v>
       </c>
       <c r="B215" t="s" s="7">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C215" t="s" s="8">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="6">
-        <v>2670</v>
+        <v>2678</v>
       </c>
       <c r="B216" t="s" s="7">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C216" t="s" s="8">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="6">
-        <v>2671</v>
+        <v>2679</v>
       </c>
       <c r="B217" t="s" s="7">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C217" t="s" s="8">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="6">
-        <v>2672</v>
+        <v>2680</v>
       </c>
       <c r="B218" t="s" s="7">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C218" t="s" s="8">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="6">
-        <v>2673</v>
+        <v>2681</v>
       </c>
       <c r="B219" t="s" s="7">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C219" t="s" s="8">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="6">
-        <v>2674</v>
+        <v>2682</v>
       </c>
       <c r="B220" t="s" s="7">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C220" t="s" s="8">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="6">
-        <v>2675</v>
+        <v>2683</v>
       </c>
       <c r="B221" t="s" s="7">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C221" t="s" s="8">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="6">
-        <v>2676</v>
+        <v>2684</v>
       </c>
       <c r="B222" t="s" s="7">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C222" t="s" s="8">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="6">
-        <v>2677</v>
+        <v>2685</v>
       </c>
       <c r="B223" t="s" s="7">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C223" t="s" s="8">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="6">
-        <v>2678</v>
+        <v>2686</v>
       </c>
       <c r="B224" t="s" s="7">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C224" t="s" s="8">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="6">
-        <v>2679</v>
+        <v>2687</v>
       </c>
       <c r="B225" t="s" s="7">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C225" t="s" s="8">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="6">
-        <v>2680</v>
+        <v>2688</v>
       </c>
       <c r="B226" t="s" s="7">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C226" t="s" s="8">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="6">
-        <v>2681</v>
+        <v>2689</v>
       </c>
       <c r="B227" t="s" s="7">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C227" t="s" s="8">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="6">
-        <v>2682</v>
+        <v>2690</v>
       </c>
       <c r="B228" t="s" s="7">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C228" t="s" s="8">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="6">
-        <v>2683</v>
+        <v>2691</v>
       </c>
       <c r="B229" t="s" s="7">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C229" t="s" s="8">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="6">
-        <v>2684</v>
+        <v>2692</v>
       </c>
       <c r="B230" t="s" s="7">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C230" t="s" s="8">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="6">
-        <v>2685</v>
+        <v>2693</v>
       </c>
       <c r="B231" t="s" s="7">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C231" t="s" s="8">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="6">
-        <v>2686</v>
+        <v>2694</v>
       </c>
       <c r="B232" t="s" s="7">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C232" t="s" s="8">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="6">
-        <v>2687</v>
+        <v>2695</v>
       </c>
       <c r="B233" t="s" s="7">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C233" t="s" s="8">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="6">
-        <v>2688</v>
+        <v>2696</v>
       </c>
       <c r="B234" t="s" s="7">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C234" t="s" s="8">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="6">
-        <v>2689</v>
+        <v>2697</v>
       </c>
       <c r="B235" t="s" s="7">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C235" t="s" s="8">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="6">
-        <v>2690</v>
+        <v>2698</v>
       </c>
       <c r="B236" t="s" s="7">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C236" t="s" s="8">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="6">
-        <v>2691</v>
+        <v>2699</v>
       </c>
       <c r="B237" t="s" s="7">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C237" t="s" s="8">
-        <v>114</v>
+        <v>474</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="6">
-        <v>2692</v>
+        <v>2700</v>
       </c>
       <c r="B238" t="s" s="7">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C238" t="s" s="8">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="6">
-        <v>2693</v>
+        <v>2701</v>
       </c>
       <c r="B239" t="s" s="7">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C239" t="s" s="8">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="6">
-        <v>2694</v>
+        <v>2702</v>
       </c>
       <c r="B240" t="s" s="7">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C240" t="s" s="8">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="6">
-        <v>2695</v>
+        <v>2703</v>
       </c>
       <c r="B241" t="s" s="7">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C241" t="s" s="8">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="6">
-        <v>2696</v>
+        <v>2704</v>
       </c>
       <c r="B242" t="s" s="7">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C242" t="s" s="8">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="6">
-        <v>2697</v>
+        <v>2705</v>
       </c>
       <c r="B243" t="s" s="7">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C243" t="s" s="8">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="6">
-        <v>2698</v>
+        <v>2706</v>
       </c>
       <c r="B244" t="s" s="7">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C244" t="s" s="8">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="6">
-        <v>2699</v>
+        <v>2707</v>
       </c>
       <c r="B245" t="s" s="7">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C245" t="s" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="6">
-        <v>2700</v>
+        <v>2708</v>
       </c>
       <c r="B246" t="s" s="7">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C246" t="s" s="8">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="6">
-        <v>2701</v>
+        <v>2709</v>
       </c>
       <c r="B247" t="s" s="7">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C247" t="s" s="8">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="6">
-        <v>2702</v>
+        <v>2710</v>
       </c>
       <c r="B248" t="s" s="7">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C248" t="s" s="8">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="6">
-        <v>2703</v>
+        <v>2711</v>
       </c>
       <c r="B249" t="s" s="7">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C249" t="s" s="8">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="6">
-        <v>2704</v>
+        <v>2712</v>
       </c>
       <c r="B250" t="s" s="7">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C250" t="s" s="8">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="6">
-        <v>2705</v>
+        <v>2713</v>
       </c>
       <c r="B251" t="s" s="7">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C251" t="s" s="8">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="6">
-        <v>2706</v>
+        <v>2714</v>
       </c>
       <c r="B252" t="s" s="7">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C252" t="s" s="8">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="6">
-        <v>2707</v>
+        <v>2715</v>
       </c>
       <c r="B253" t="s" s="7">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C253" t="s" s="8">
-        <v>126</v>
+        <v>505</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="6">
-        <v>2708</v>
+        <v>2716</v>
       </c>
       <c r="B254" t="s" s="7">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C254" t="s" s="8">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="6">
-        <v>2709</v>
+        <v>2717</v>
       </c>
       <c r="B255" t="s" s="7">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C255" t="s" s="8">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="6">
-        <v>2710</v>
+        <v>2718</v>
       </c>
       <c r="B256" t="s" s="7">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C256" t="s" s="8">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="6">
-        <v>2711</v>
+        <v>2719</v>
       </c>
       <c r="B257" t="s" s="7">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C257" t="s" s="8">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="6">
-        <v>2712</v>
+        <v>2720</v>
       </c>
       <c r="B258" t="s" s="7">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C258" t="s" s="8">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="6">
-        <v>2713</v>
+        <v>2721</v>
       </c>
       <c r="B259" t="s" s="7">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C259" t="s" s="8">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="6">
-        <v>2714</v>
+        <v>2722</v>
       </c>
       <c r="B260" t="s" s="7">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C260" t="s" s="8">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="6">
-        <v>2715</v>
+        <v>2723</v>
       </c>
       <c r="B261" t="s" s="7">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C261" t="s" s="8">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="6">
-        <v>2716</v>
+        <v>2724</v>
       </c>
       <c r="B262" t="s" s="7">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C262" t="s" s="8">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="6">
-        <v>2717</v>
+        <v>2725</v>
       </c>
       <c r="B263" t="s" s="7">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C263" t="s" s="8">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="6">
-        <v>2718</v>
+        <v>2726</v>
       </c>
       <c r="B264" t="s" s="7">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C264" t="s" s="8">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="6">
-        <v>2719</v>
+        <v>2727</v>
       </c>
       <c r="B265" t="s" s="7">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C265" t="s" s="8">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="6">
-        <v>2720</v>
+        <v>2728</v>
       </c>
       <c r="B266" t="s" s="7">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C266" t="s" s="8">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="6">
-        <v>2721</v>
+        <v>2729</v>
       </c>
       <c r="B267" t="s" s="7">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C267" t="s" s="8">
-        <v>138</v>
+        <v>533</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="6">
-        <v>2722</v>
+        <v>2730</v>
       </c>
       <c r="B268" t="s" s="7">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C268" t="s" s="8">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="6">
-        <v>2723</v>
+        <v>2731</v>
       </c>
       <c r="B269" t="s" s="7">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C269" t="s" s="8">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="6">
-        <v>2724</v>
+        <v>2732</v>
       </c>
       <c r="B270" t="s" s="7">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C270" t="s" s="8">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="6">
-        <v>2725</v>
+        <v>2733</v>
       </c>
       <c r="B271" t="s" s="7">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C271" t="s" s="8">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="6">
-        <v>2726</v>
+        <v>2734</v>
       </c>
       <c r="B272" t="s" s="7">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C272" t="s" s="8">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="6">
-        <v>2727</v>
+        <v>2735</v>
       </c>
       <c r="B273" t="s" s="7">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C273" t="s" s="8">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="6">
-        <v>2728</v>
+        <v>2736</v>
       </c>
       <c r="B274" t="s" s="7">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C274" t="s" s="8">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="6">
-        <v>2729</v>
+        <v>2737</v>
       </c>
       <c r="B275" t="s" s="7">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C275" t="s" s="8">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="6">
-        <v>2730</v>
+        <v>2738</v>
       </c>
       <c r="B276" t="s" s="7">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C276" t="s" s="8">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="6">
-        <v>2731</v>
+        <v>2739</v>
       </c>
       <c r="B277" t="s" s="7">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C277" t="s" s="8">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="6">
-        <v>2732</v>
+        <v>2740</v>
       </c>
       <c r="B278" t="s" s="7">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C278" t="s" s="8">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="6">
-        <v>2733</v>
+        <v>2741</v>
       </c>
       <c r="B279" t="s" s="7">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C279" t="s" s="8">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="6">
-        <v>2734</v>
+        <v>2742</v>
       </c>
       <c r="B280" t="s" s="7">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C280" t="s" s="8">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="6">
-        <v>2735</v>
+        <v>2743</v>
       </c>
       <c r="B281" t="s" s="7">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C281" t="s" s="8">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="6">
-        <v>2736</v>
+        <v>2744</v>
       </c>
       <c r="B282" t="s" s="7">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C282" t="s" s="8">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="6">
-        <v>2737</v>
+        <v>2745</v>
       </c>
       <c r="B283" t="s" s="7">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C283" t="s" s="8">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="6">
-        <v>2738</v>
+        <v>2746</v>
       </c>
       <c r="B284" t="s" s="7">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C284" t="s" s="8">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="6">
-        <v>2739</v>
+        <v>2747</v>
       </c>
       <c r="B285" t="s" s="7">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C285" t="s" s="8">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="6">
-        <v>2740</v>
+        <v>2748</v>
       </c>
       <c r="B286" t="s" s="7">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C286" t="s" s="8">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="6">
-        <v>2741</v>
+        <v>2749</v>
       </c>
       <c r="B287" t="s" s="7">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C287" t="s" s="8">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="6">
-        <v>2742</v>
+        <v>2750</v>
       </c>
       <c r="B288" t="s" s="7">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C288" t="s" s="8">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="6">
-        <v>2743</v>
+        <v>2751</v>
       </c>
       <c r="B289" t="s" s="7">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C289" t="s" s="8">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="6">
-        <v>2744</v>
+        <v>2752</v>
       </c>
       <c r="B290" t="s" s="7">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C290" t="s" s="8">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="6">
-        <v>2745</v>
+        <v>2753</v>
       </c>
       <c r="B291" t="s" s="7">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C291" t="s" s="8">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="6">
-        <v>2746</v>
+        <v>2754</v>
       </c>
       <c r="B292" t="s" s="7">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C292" t="s" s="8">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="6">
-        <v>2747</v>
+        <v>2755</v>
       </c>
       <c r="B293" t="s" s="7">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C293" t="s" s="8">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="6">
-        <v>2748</v>
+        <v>2756</v>
       </c>
       <c r="B294" t="s" s="7">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C294" t="s" s="8">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="6">
-        <v>2749</v>
+        <v>2757</v>
       </c>
       <c r="B295" t="s" s="7">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C295" t="s" s="8">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="6">
-        <v>2750</v>
+        <v>2758</v>
       </c>
       <c r="B296" t="s" s="7">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C296" t="s" s="8">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="6">
-        <v>2751</v>
+        <v>2759</v>
       </c>
       <c r="B297" t="s" s="7">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C297" t="s" s="8">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="6">
-        <v>2752</v>
+        <v>2760</v>
       </c>
       <c r="B298" t="s" s="7">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C298" t="s" s="8">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="6">
-        <v>2753</v>
+        <v>2761</v>
       </c>
       <c r="B299" t="s" s="7">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C299" t="s" s="8">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="6">
-        <v>2754</v>
+        <v>2762</v>
       </c>
       <c r="B300" t="s" s="7">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C300" t="s" s="8">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="6">
-        <v>2755</v>
+        <v>2763</v>
       </c>
       <c r="B301" t="s" s="7">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C301" t="s" s="8">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="6">
-        <v>2757</v>
+        <v>2764</v>
       </c>
       <c r="B302" t="s" s="7">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C302" t="s" s="8">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="6">
-        <v>2758</v>
+        <v>2765</v>
       </c>
       <c r="B303" t="s" s="7">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C303" t="s" s="8">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="6">
-        <v>2759</v>
+        <v>2766</v>
       </c>
       <c r="B304" t="s" s="7">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C304" t="s" s="8">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="6">
-        <v>2760</v>
+        <v>2767</v>
       </c>
       <c r="B305" t="s" s="7">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C305" t="s" s="8">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="6">
-        <v>2761</v>
+        <v>2768</v>
       </c>
       <c r="B306" t="s" s="7">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C306" t="s" s="8">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="6">
-        <v>2762</v>
+        <v>2769</v>
       </c>
       <c r="B307" t="s" s="7">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C307" t="s" s="8">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="6">
-        <v>2763</v>
+        <v>2770</v>
       </c>
       <c r="B308" t="s" s="7">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="C308" t="s" s="8">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="6">
-        <v>2764</v>
+        <v>2771</v>
       </c>
       <c r="B309" t="s" s="7">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C309" t="s" s="8">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="6">
-        <v>2765</v>
+        <v>2772</v>
       </c>
       <c r="B310" t="s" s="7">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C310" t="s" s="8">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="6">
-        <v>2766</v>
+        <v>2773</v>
       </c>
       <c r="B311" t="s" s="7">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C311" t="s" s="8">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="6">
-        <v>2767</v>
+        <v>2774</v>
       </c>
       <c r="B312" t="s" s="7">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C312" t="s" s="8">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="6">
-        <v>2768</v>
+        <v>2775</v>
       </c>
       <c r="B313" t="s" s="7">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C313" t="s" s="8">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="6">
-        <v>2769</v>
+        <v>2776</v>
       </c>
       <c r="B314" t="s" s="7">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C314" t="s" s="8">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="6">
-        <v>2770</v>
+        <v>2777</v>
       </c>
       <c r="B315" t="s" s="7">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C315" t="s" s="8">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="6">
-        <v>2771</v>
+        <v>2778</v>
       </c>
       <c r="B316" t="s" s="7">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C316" t="s" s="8">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="6">
-        <v>2772</v>
+        <v>2779</v>
       </c>
       <c r="B317" t="s" s="7">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C317" t="s" s="8">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="6">
-        <v>2773</v>
+        <v>2780</v>
       </c>
       <c r="B318" t="s" s="7">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C318" t="s" s="8">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="6">
-        <v>2774</v>
+        <v>2781</v>
       </c>
       <c r="B319" t="s" s="7">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C319" t="s" s="8">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="6">
-        <v>2775</v>
+        <v>2782</v>
       </c>
       <c r="B320" t="s" s="7">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C320" t="s" s="8">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="6">
-        <v>2776</v>
+        <v>2783</v>
       </c>
       <c r="B321" t="s" s="7">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C321" t="s" s="8">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="6">
-        <v>2777</v>
+        <v>2784</v>
       </c>
       <c r="B322" t="s" s="7">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C322" t="s" s="8">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="6">
-        <v>2778</v>
+        <v>2785</v>
       </c>
       <c r="B323" t="s" s="7">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C323" t="s" s="8">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="6">
-        <v>2779</v>
+        <v>2786</v>
       </c>
       <c r="B324" t="s" s="7">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C324" t="s" s="8">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="6">
-        <v>2780</v>
+        <v>2787</v>
       </c>
       <c r="B325" t="s" s="7">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C325" t="s" s="8">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="6">
-        <v>2781</v>
+        <v>2788</v>
       </c>
       <c r="B326" t="s" s="7">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C326" t="s" s="8">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="6">
-        <v>2782</v>
+        <v>2789</v>
       </c>
       <c r="B327" t="s" s="7">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="C327" t="s" s="8">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="6">
-        <v>2783</v>
+        <v>2790</v>
       </c>
       <c r="B328" t="s" s="7">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C328" t="s" s="8">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="6">
-        <v>2784</v>
+        <v>2791</v>
       </c>
       <c r="B329" t="s" s="7">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C329" t="s" s="8">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="6">
-        <v>2785</v>
+        <v>2792</v>
       </c>
       <c r="B330" t="s" s="7">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C330" t="s" s="8">
-        <v>166</v>
+        <v>659</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="6">
-        <v>2786</v>
+        <v>2793</v>
       </c>
       <c r="B331" t="s" s="7">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C331" t="s" s="8">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="6">
-        <v>2787</v>
+        <v>2794</v>
       </c>
       <c r="B332" t="s" s="7">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="C332" t="s" s="8">
-        <v>658</v>
+        <v>663</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="6">
-        <v>2788</v>
+        <v>2795</v>
       </c>
       <c r="B333" t="s" s="7">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="C333" t="s" s="8">
-        <v>660</v>
+        <v>665</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="6">
-        <v>2789</v>
+        <v>2796</v>
       </c>
       <c r="B334" t="s" s="7">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="C334" t="s" s="8">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="6">
-        <v>2790</v>
+        <v>2797</v>
       </c>
       <c r="B335" t="s" s="7">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C335" t="s" s="8">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="6">
-        <v>2791</v>
+        <v>2798</v>
       </c>
       <c r="B336" t="s" s="7">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C336" t="s" s="8">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="6">
-        <v>2792</v>
+        <v>2799</v>
       </c>
       <c r="B337" t="s" s="7">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C337" t="s" s="8">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="6">
-        <v>2793</v>
+        <v>2800</v>
       </c>
       <c r="B338" t="s" s="7">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C338" t="s" s="8">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="6">
-        <v>2794</v>
+        <v>2801</v>
       </c>
       <c r="B339" t="s" s="7">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C339" t="s" s="8">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="6">
-        <v>2795</v>
+        <v>2802</v>
       </c>
       <c r="B340" t="s" s="7">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C340" t="s" s="8">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="6">
-        <v>2796</v>
+        <v>2803</v>
       </c>
       <c r="B341" t="s" s="7">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C341" t="s" s="8">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="6">
-        <v>2797</v>
+        <v>2804</v>
       </c>
       <c r="B342" t="s" s="7">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="C342" t="s" s="8">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="6">
-        <v>2798</v>
+        <v>2805</v>
       </c>
       <c r="B343" t="s" s="7">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="C343" t="s" s="8">
-        <v>679</v>
+        <v>684</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="6">
-        <v>2799</v>
+        <v>2806</v>
       </c>
       <c r="B344" t="s" s="7">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="C344" t="s" s="8">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="6">
-        <v>2800</v>
+        <v>2807</v>
       </c>
       <c r="B345" t="s" s="7">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="C345" t="s" s="8">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="6">
-        <v>2801</v>
+        <v>2808</v>
       </c>
       <c r="B346" t="s" s="7">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="C346" t="s" s="8">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="6">
-        <v>2802</v>
+        <v>2809</v>
       </c>
       <c r="B347" t="s" s="7">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="C347" t="s" s="8">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="6">
-        <v>2803</v>
+        <v>2810</v>
       </c>
       <c r="B348" t="s" s="7">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="C348" t="s" s="8">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="6">
-        <v>2804</v>
+        <v>2811</v>
       </c>
       <c r="B349" t="s" s="7">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="C349" t="s" s="8">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="6">
-        <v>2805</v>
+        <v>2812</v>
       </c>
       <c r="B350" t="s" s="7">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="C350" t="s" s="8">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="6">
-        <v>2806</v>
+        <v>2813</v>
       </c>
       <c r="B351" t="s" s="7">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C351" t="s" s="8">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="6">
-        <v>2807</v>
+        <v>2814</v>
       </c>
       <c r="B352" t="s" s="7">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="C352" t="s" s="8">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="6">
-        <v>2808</v>
+        <v>2815</v>
       </c>
       <c r="B353" t="s" s="7">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="C353" t="s" s="8">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="6">
-        <v>2809</v>
+        <v>2816</v>
       </c>
       <c r="B354" t="s" s="7">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="C354" t="s" s="8">
-        <v>178</v>
+        <v>706</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="6">
-        <v>2810</v>
+        <v>2817</v>
       </c>
       <c r="B355" t="s" s="7">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="C355" t="s" s="8">
-        <v>702</v>
+        <v>708</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="6">
-        <v>2811</v>
+        <v>2818</v>
       </c>
       <c r="B356" t="s" s="7">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="C356" t="s" s="8">
-        <v>704</v>
+        <v>710</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="6">
-        <v>2812</v>
+        <v>2819</v>
       </c>
       <c r="B357" t="s" s="7">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="C357" t="s" s="8">
-        <v>706</v>
+        <v>712</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="6">
-        <v>2813</v>
+        <v>2820</v>
       </c>
       <c r="B358" t="s" s="7">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="C358" t="s" s="8">
-        <v>708</v>
+        <v>714</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="6">
-        <v>2814</v>
+        <v>2821</v>
       </c>
       <c r="B359" t="s" s="7">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="C359" t="s" s="8">
-        <v>710</v>
+        <v>716</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="6">
-        <v>2815</v>
+        <v>2822</v>
       </c>
       <c r="B360" t="s" s="7">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="C360" t="s" s="8">
-        <v>712</v>
+        <v>718</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="6">
-        <v>2816</v>
+        <v>2823</v>
       </c>
       <c r="B361" t="s" s="7">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="C361" t="s" s="8">
-        <v>714</v>
+        <v>720</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="6">
-        <v>2817</v>
+        <v>2824</v>
       </c>
       <c r="B362" t="s" s="7">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="C362" t="s" s="8">
-        <v>716</v>
+        <v>722</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="6">
-        <v>2818</v>
+        <v>2825</v>
       </c>
       <c r="B363" t="s" s="7">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="C363" t="s" s="8">
-        <v>718</v>
+        <v>724</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="6">
-        <v>2819</v>
+        <v>2826</v>
       </c>
       <c r="B364" t="s" s="7">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="C364" t="s" s="8">
-        <v>720</v>
+        <v>726</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="6">
-        <v>2820</v>
+        <v>2827</v>
       </c>
       <c r="B365" t="s" s="7">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="C365" t="s" s="8">
-        <v>722</v>
+        <v>728</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="6">
-        <v>2821</v>
+        <v>2828</v>
       </c>
       <c r="B366" t="s" s="7">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="C366" t="s" s="8">
-        <v>724</v>
+        <v>730</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="6">
-        <v>2822</v>
+        <v>2829</v>
       </c>
       <c r="B367" t="s" s="7">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="C367" t="s" s="8">
-        <v>726</v>
+        <v>732</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="6">
-        <v>2823</v>
+        <v>2830</v>
       </c>
       <c r="B368" t="s" s="7">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="C368" t="s" s="8">
-        <v>728</v>
+        <v>734</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="6">
-        <v>2824</v>
+        <v>2831</v>
       </c>
       <c r="B369" t="s" s="7">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="C369" t="s" s="8">
-        <v>730</v>
+        <v>736</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="6">
-        <v>2825</v>
+        <v>2832</v>
       </c>
       <c r="B370" t="s" s="7">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="C370" t="s" s="8">
-        <v>732</v>
+        <v>738</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="6">
-        <v>2826</v>
+        <v>2833</v>
       </c>
       <c r="B371" t="s" s="7">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="C371" t="s" s="8">
-        <v>734</v>
+        <v>740</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="6">
-        <v>2827</v>
+        <v>2834</v>
       </c>
       <c r="B372" t="s" s="7">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="C372" t="s" s="8">
-        <v>736</v>
+        <v>742</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="6">
-        <v>2828</v>
+        <v>2835</v>
       </c>
       <c r="B373" t="s" s="7">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="C373" t="s" s="8">
-        <v>738</v>
+        <v>744</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="6">
-        <v>2829</v>
+        <v>2836</v>
       </c>
       <c r="B374" t="s" s="7">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="C374" t="s" s="8">
-        <v>740</v>
+        <v>746</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="6">
-        <v>2830</v>
+        <v>2837</v>
       </c>
       <c r="B375" t="s" s="7">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="C375" t="s" s="8">
-        <v>742</v>
+        <v>748</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="6">
-        <v>2831</v>
+        <v>2838</v>
       </c>
       <c r="B376" t="s" s="7">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="C376" t="s" s="8">
-        <v>744</v>
+        <v>750</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="6">
-        <v>2832</v>
+        <v>2839</v>
       </c>
       <c r="B377" t="s" s="7">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="C377" t="s" s="8">
-        <v>746</v>
+        <v>752</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="6">
-        <v>2833</v>
+        <v>2840</v>
       </c>
       <c r="B378" t="s" s="7">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="C378" t="s" s="8">
-        <v>748</v>
+        <v>754</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="6">
-        <v>2834</v>
+        <v>2841</v>
       </c>
       <c r="B379" t="s" s="7">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="C379" t="s" s="8">
-        <v>750</v>
+        <v>756</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="6">
-        <v>2835</v>
+        <v>2842</v>
       </c>
       <c r="B380" t="s" s="7">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="C380" t="s" s="8">
-        <v>752</v>
+        <v>758</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="6">
-        <v>2836</v>
+        <v>2843</v>
       </c>
       <c r="B381" t="s" s="7">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="C381" t="s" s="8">
-        <v>754</v>
+        <v>760</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="6">
-        <v>2837</v>
+        <v>2844</v>
       </c>
       <c r="B382" t="s" s="7">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="C382" t="s" s="8">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="6">
-        <v>2838</v>
+        <v>2845</v>
       </c>
       <c r="B383" t="s" s="7">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="C383" t="s" s="8">
-        <v>758</v>
+        <v>764</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="6">
-        <v>2839</v>
+        <v>2846</v>
       </c>
       <c r="B384" t="s" s="7">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="C384" t="s" s="8">
-        <v>760</v>
+        <v>766</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="6">
-        <v>2840</v>
+        <v>2847</v>
       </c>
       <c r="B385" t="s" s="7">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="C385" t="s" s="8">
-        <v>762</v>
+        <v>768</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="6">
-        <v>2841</v>
+        <v>2848</v>
       </c>
       <c r="B386" t="s" s="7">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="C386" t="s" s="8">
-        <v>764</v>
+        <v>770</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="6">
-        <v>2842</v>
+        <v>2849</v>
       </c>
       <c r="B387" t="s" s="7">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="C387" t="s" s="8">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="6">
-        <v>2843</v>
+        <v>2850</v>
       </c>
       <c r="B388" t="s" s="7">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="C388" t="s" s="8">
-        <v>768</v>
+        <v>774</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="6">
-        <v>2844</v>
+        <v>2851</v>
       </c>
       <c r="B389" t="s" s="7">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="C389" t="s" s="8">
-        <v>770</v>
+        <v>776</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="6">
-        <v>2845</v>
+        <v>2852</v>
       </c>
       <c r="B390" t="s" s="7">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="C390" t="s" s="8">
-        <v>772</v>
+        <v>778</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="6">
-        <v>2846</v>
+        <v>2853</v>
       </c>
       <c r="B391" t="s" s="7">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="C391" t="s" s="8">
-        <v>774</v>
+        <v>780</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="6">
-        <v>2847</v>
+        <v>2854</v>
       </c>
       <c r="B392" t="s" s="7">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="C392" t="s" s="8">
-        <v>776</v>
+        <v>782</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="6">
-        <v>2848</v>
+        <v>2855</v>
       </c>
       <c r="B393" t="s" s="7">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="C393" t="s" s="8">
-        <v>778</v>
+        <v>784</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="6">
-        <v>2849</v>
+        <v>2856</v>
       </c>
       <c r="B394" t="s" s="7">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="C394" t="s" s="8">
-        <v>780</v>
+        <v>786</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="6">
-        <v>2850</v>
+        <v>2857</v>
       </c>
       <c r="B395" t="s" s="7">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="C395" t="s" s="8">
-        <v>782</v>
+        <v>788</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="6">
-        <v>2851</v>
+        <v>2858</v>
       </c>
       <c r="B396" t="s" s="7">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="C396" t="s" s="8">
-        <v>784</v>
+        <v>790</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="6">
-        <v>2852</v>
+        <v>2859</v>
       </c>
       <c r="B397" t="s" s="7">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="C397" t="s" s="8">
-        <v>786</v>
+        <v>792</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="6">
-        <v>2853</v>
+        <v>2860</v>
       </c>
       <c r="B398" t="s" s="7">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="C398" t="s" s="8">
-        <v>788</v>
+        <v>794</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="6">
-        <v>2854</v>
+        <v>2861</v>
       </c>
       <c r="B399" t="s" s="7">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="C399" t="s" s="8">
-        <v>790</v>
+        <v>796</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="6">
-        <v>2855</v>
+        <v>2862</v>
       </c>
       <c r="B400" t="s" s="7">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="C400" t="s" s="8">
-        <v>792</v>
+        <v>798</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="6">
-        <v>2856</v>
+        <v>2863</v>
       </c>
       <c r="B401" t="s" s="7">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="C401" t="s" s="8">
-        <v>794</v>
+        <v>800</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="6">
-        <v>2857</v>
+        <v>2864</v>
       </c>
       <c r="B402" t="s" s="7">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="C402" t="s" s="8">
-        <v>796</v>
+        <v>802</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="6">
-        <v>2858</v>
+        <v>2865</v>
       </c>
       <c r="B403" t="s" s="7">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="C403" t="s" s="8">
-        <v>798</v>
+        <v>804</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="6">
-        <v>2859</v>
+        <v>2866</v>
       </c>
       <c r="B404" t="s" s="7">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="C404" t="s" s="8">
-        <v>800</v>
+        <v>806</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="6">
-        <v>2860</v>
+        <v>2867</v>
       </c>
       <c r="B405" t="s" s="7">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="C405" t="s" s="8">
-        <v>802</v>
+        <v>808</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="6">
-        <v>2861</v>
+        <v>2868</v>
       </c>
       <c r="B406" t="s" s="7">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="C406" t="s" s="8">
-        <v>804</v>
+        <v>810</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="6">
-        <v>2862</v>
+        <v>2869</v>
       </c>
       <c r="B407" t="s" s="7">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="C407" t="s" s="8">
-        <v>806</v>
+        <v>812</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="6">
-        <v>2863</v>
+        <v>2870</v>
       </c>
       <c r="B408" t="s" s="7">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="C408" t="s" s="8">
-        <v>808</v>
+        <v>814</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="6">
-        <v>2864</v>
+        <v>2871</v>
       </c>
       <c r="B409" t="s" s="7">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="C409" t="s" s="8">
-        <v>810</v>
+        <v>816</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="6">
-        <v>2865</v>
+        <v>2872</v>
       </c>
       <c r="B410" t="s" s="7">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="C410" t="s" s="8">
-        <v>812</v>
+        <v>818</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="6">
-        <v>2866</v>
+        <v>2873</v>
       </c>
       <c r="B411" t="s" s="7">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="C411" t="s" s="8">
-        <v>814</v>
+        <v>820</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="6">
-        <v>2867</v>
+        <v>2874</v>
       </c>
       <c r="B412" t="s" s="7">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="C412" t="s" s="8">
-        <v>816</v>
+        <v>822</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="6">
-        <v>2868</v>
+        <v>2875</v>
       </c>
       <c r="B413" t="s" s="7">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="C413" t="s" s="8">
-        <v>818</v>
+        <v>824</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="6">
-        <v>2869</v>
+        <v>2876</v>
       </c>
       <c r="B414" t="s" s="7">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="C414" t="s" s="8">
-        <v>820</v>
+        <v>826</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="6">
-        <v>2870</v>
+        <v>2877</v>
       </c>
       <c r="B415" t="s" s="7">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="C415" t="s" s="8">
-        <v>822</v>
+        <v>828</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="6">
-        <v>2871</v>
+        <v>2878</v>
       </c>
       <c r="B416" t="s" s="7">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="C416" t="s" s="8">
-        <v>824</v>
+        <v>830</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="6">
-        <v>2872</v>
+        <v>2879</v>
       </c>
       <c r="B417" t="s" s="7">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="C417" t="s" s="8">
-        <v>826</v>
+        <v>832</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="6">
-        <v>2873</v>
+        <v>2880</v>
       </c>
       <c r="B418" t="s" s="7">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="C418" t="s" s="8">
-        <v>828</v>
+        <v>834</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="6">
-        <v>2874</v>
+        <v>2881</v>
       </c>
       <c r="B419" t="s" s="7">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C419" t="s" s="8">
-        <v>830</v>
+        <v>836</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="6">
-        <v>2875</v>
+        <v>2882</v>
       </c>
       <c r="B420" t="s" s="7">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="C420" t="s" s="8">
-        <v>832</v>
+        <v>838</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="6">
-        <v>2876</v>
+        <v>2883</v>
       </c>
       <c r="B421" t="s" s="7">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="C421" t="s" s="8">
-        <v>834</v>
+        <v>840</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="6">
-        <v>2877</v>
+        <v>2884</v>
       </c>
       <c r="B422" t="s" s="7">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="C422" t="s" s="8">
-        <v>836</v>
+        <v>842</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="6">
-        <v>2878</v>
+        <v>2885</v>
       </c>
       <c r="B423" t="s" s="7">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="C423" t="s" s="8">
-        <v>838</v>
+        <v>844</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="6">
-        <v>2879</v>
+        <v>2886</v>
       </c>
       <c r="B424" t="s" s="7">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="C424" t="s" s="8">
-        <v>840</v>
+        <v>846</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="6">
-        <v>2880</v>
+        <v>2887</v>
       </c>
       <c r="B425" t="s" s="7">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="C425" t="s" s="8">
-        <v>842</v>
+        <v>848</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="6">
-        <v>2881</v>
+        <v>2888</v>
       </c>
       <c r="B426" t="s" s="7">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="C426" t="s" s="8">
-        <v>844</v>
+        <v>850</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="6">
-        <v>2882</v>
+        <v>2889</v>
       </c>
       <c r="B427" t="s" s="7">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="C427" t="s" s="8">
-        <v>846</v>
+        <v>852</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="6">
-        <v>2883</v>
+        <v>2890</v>
       </c>
       <c r="B428" t="s" s="7">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="C428" t="s" s="8">
-        <v>848</v>
+        <v>854</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="6">
-        <v>2884</v>
+        <v>2891</v>
       </c>
       <c r="B429" t="s" s="7">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="C429" t="s" s="8">
-        <v>850</v>
+        <v>856</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="6">
-        <v>2885</v>
+        <v>2892</v>
       </c>
       <c r="B430" t="s" s="7">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="C430" t="s" s="8">
-        <v>852</v>
+        <v>858</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="6">
-        <v>2886</v>
+        <v>2893</v>
       </c>
       <c r="B431" t="s" s="7">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="C431" t="s" s="8">
-        <v>854</v>
+        <v>860</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="6">
-        <v>2887</v>
+        <v>2894</v>
       </c>
       <c r="B432" t="s" s="7">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="C432" t="s" s="8">
-        <v>856</v>
+        <v>862</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="6">
-        <v>2888</v>
+        <v>2895</v>
       </c>
       <c r="B433" t="s" s="7">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="C433" t="s" s="8">
-        <v>858</v>
+        <v>864</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="6">
-        <v>2889</v>
+        <v>2896</v>
       </c>
       <c r="B434" t="s" s="7">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="C434" t="s" s="8">
-        <v>860</v>
+        <v>866</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="6">
-        <v>2890</v>
+        <v>2897</v>
       </c>
       <c r="B435" t="s" s="7">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="C435" t="s" s="8">
-        <v>862</v>
+        <v>868</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="6">
-        <v>2891</v>
+        <v>2898</v>
       </c>
       <c r="B436" t="s" s="7">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="C436" t="s" s="8">
-        <v>864</v>
+        <v>870</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="6">
-        <v>2892</v>
+        <v>2900</v>
       </c>
       <c r="B437" t="s" s="7">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="C437" t="s" s="8">
-        <v>866</v>
+        <v>872</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="6">
-        <v>2893</v>
+        <v>2901</v>
       </c>
       <c r="B438" t="s" s="7">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="C438" t="s" s="8">
-        <v>868</v>
+        <v>874</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="6">
-        <v>2894</v>
+        <v>2902</v>
       </c>
       <c r="B439" t="s" s="7">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="C439" t="s" s="8">
-        <v>234</v>
+        <v>876</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="6">
-        <v>2895</v>
+        <v>2903</v>
       </c>
       <c r="B440" t="s" s="7">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="C440" t="s" s="8">
-        <v>871</v>
+        <v>495</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="6">
-        <v>2896</v>
+        <v>2904</v>
       </c>
       <c r="B441" t="s" s="7">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="C441" t="s" s="8">
-        <v>873</v>
+        <v>879</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="6">
-        <v>2897</v>
+        <v>2907</v>
       </c>
       <c r="B442" t="s" s="7">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="C442" t="s" s="8">
-        <v>875</v>
+        <v>160</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="6">
-        <v>2898</v>
+        <v>5388536538</v>
       </c>
       <c r="B443" t="s" s="7">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="C443" t="s" s="8">
-        <v>877</v>
+        <v>882</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="6">
-        <v>2899</v>
+        <v>16152612577</v>
       </c>
       <c r="B444" t="s" s="7">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="C444" t="s" s="8">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="6">
-        <v>2900</v>
-      </c>
-      <c r="B445" t="s" s="7">
-        <v>879</v>
-      </c>
-      <c r="C445" t="s" s="8">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="6">
-        <v>2901</v>
-      </c>
-      <c r="B446" t="s" s="7">
-        <v>881</v>
-      </c>
-      <c r="C446" t="s" s="8">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="6">
-        <v>2902</v>
-      </c>
-      <c r="B447" t="s" s="7">
-        <v>883</v>
-      </c>
-      <c r="C447" t="s" s="8">
         <v>884</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="6">
-        <v>2903</v>
-      </c>
-      <c r="B448" t="s" s="7">
-        <v>885</v>
-      </c>
-      <c r="C448" t="s" s="8">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="6">
-        <v>2904</v>
-      </c>
-      <c r="B449" t="s" s="7">
-        <v>886</v>
-      </c>
-      <c r="C449" t="s" s="8">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="6">
-        <v>2907</v>
-      </c>
-      <c r="B450" t="s" s="7">
-        <v>888</v>
-      </c>
-      <c r="C450" t="s" s="8">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="6">
-        <v>5388536538</v>
-      </c>
-      <c r="B451" t="s" s="7">
-        <v>889</v>
-      </c>
-      <c r="C451" t="s" s="8">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="6">
-        <v>16152612577</v>
-      </c>
-      <c r="B452" t="s" s="7">
-        <v>891</v>
-      </c>
-      <c r="C452" t="s" s="8">
-        <v>892</v>
       </c>
     </row>
   </sheetData>

--- a/raw/Languages.xlsx
+++ b/raw/Languages.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="882">
   <si>
     <t>Language_ID</t>
   </si>
@@ -1478,9 +1478,6 @@
     <t>kera1255</t>
   </si>
   <si>
-    <t xml:space="preserve">Ket </t>
-  </si>
-  <si>
     <t>Khalkha</t>
   </si>
   <si>
@@ -2642,16 +2639,10 @@
     <t>darg1241</t>
   </si>
   <si>
-    <t>Cambodian</t>
-  </si>
-  <si>
     <t>Gikuyu</t>
   </si>
   <si>
     <t>kiku1240</t>
-  </si>
-  <si>
-    <t>Nishnaabemwin</t>
   </si>
   <si>
     <t>Central Arctic Inuktitut</t>
@@ -5429,2202 +5420,2169 @@
     </row>
     <row r="245">
       <c r="A245" s="6">
-        <v>2707</v>
+        <v>2708</v>
       </c>
       <c r="B245" t="s" s="7">
         <v>489</v>
       </c>
       <c r="C245" t="s" s="8">
-        <v>122</v>
+        <v>490</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="6">
-        <v>2708</v>
+        <v>2709</v>
       </c>
       <c r="B246" t="s" s="7">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C246" t="s" s="8">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="6">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="B247" t="s" s="7">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C247" t="s" s="8">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="6">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="B248" t="s" s="7">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C248" t="s" s="8">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="6">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="B249" t="s" s="7">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C249" t="s" s="8">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="6">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="B250" t="s" s="7">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C250" t="s" s="8">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="6">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="B251" t="s" s="7">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C251" t="s" s="8">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="6">
-        <v>2714</v>
+        <v>2715</v>
       </c>
       <c r="B252" t="s" s="7">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C252" t="s" s="8">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="6">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="B253" t="s" s="7">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C253" t="s" s="8">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="6">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="B254" t="s" s="7">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C254" t="s" s="8">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="6">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="B255" t="s" s="7">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C255" t="s" s="8">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="6">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="B256" t="s" s="7">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C256" t="s" s="8">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="6">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="B257" t="s" s="7">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C257" t="s" s="8">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="6">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="B258" t="s" s="7">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C258" t="s" s="8">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="6">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="B259" t="s" s="7">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C259" t="s" s="8">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="6">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="B260" t="s" s="7">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C260" t="s" s="8">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="6">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="B261" t="s" s="7">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C261" t="s" s="8">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="6">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="B262" t="s" s="7">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C262" t="s" s="8">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="6">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="B263" t="s" s="7">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C263" t="s" s="8">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="6">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="B264" t="s" s="7">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C264" t="s" s="8">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="6">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="B265" t="s" s="7">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C265" t="s" s="8">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="6">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="B266" t="s" s="7">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C266" t="s" s="8">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="6">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="B267" t="s" s="7">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C267" t="s" s="8">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="6">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="B268" t="s" s="7">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C268" t="s" s="8">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="6">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="B269" t="s" s="7">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C269" t="s" s="8">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="6">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="B270" t="s" s="7">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C270" t="s" s="8">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="6">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="B271" t="s" s="7">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C271" t="s" s="8">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="6">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="B272" t="s" s="7">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C272" t="s" s="8">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="6">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="B273" t="s" s="7">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C273" t="s" s="8">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="6">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="B274" t="s" s="7">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C274" t="s" s="8">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="6">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="B275" t="s" s="7">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C275" t="s" s="8">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="6">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="B276" t="s" s="7">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C276" t="s" s="8">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="6">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="B277" t="s" s="7">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C277" t="s" s="8">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="6">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="B278" t="s" s="7">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C278" t="s" s="8">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="6">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="B279" t="s" s="7">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C279" t="s" s="8">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="6">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="B280" t="s" s="7">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C280" t="s" s="8">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="6">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="B281" t="s" s="7">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C281" t="s" s="8">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="6">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="B282" t="s" s="7">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C282" t="s" s="8">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="6">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="B283" t="s" s="7">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C283" t="s" s="8">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="6">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="B284" t="s" s="7">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C284" t="s" s="8">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="6">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="B285" t="s" s="7">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C285" t="s" s="8">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="6">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="B286" t="s" s="7">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C286" t="s" s="8">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="6">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="B287" t="s" s="7">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C287" t="s" s="8">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="6">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="B288" t="s" s="7">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C288" t="s" s="8">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="6">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="B289" t="s" s="7">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C289" t="s" s="8">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="6">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="B290" t="s" s="7">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C290" t="s" s="8">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="6">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="B291" t="s" s="7">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C291" t="s" s="8">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="6">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="B292" t="s" s="7">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C292" t="s" s="8">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="6">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="B293" t="s" s="7">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C293" t="s" s="8">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="6">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="B294" t="s" s="7">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C294" t="s" s="8">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="6">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="B295" t="s" s="7">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C295" t="s" s="8">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="6">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="B296" t="s" s="7">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C296" t="s" s="8">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="6">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="B297" t="s" s="7">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C297" t="s" s="8">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="6">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="B298" t="s" s="7">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C298" t="s" s="8">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="6">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="B299" t="s" s="7">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C299" t="s" s="8">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="6">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="B300" t="s" s="7">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C300" t="s" s="8">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="6">
-        <v>2763</v>
+        <v>2764</v>
       </c>
       <c r="B301" t="s" s="7">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C301" t="s" s="8">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="6">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="B302" t="s" s="7">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C302" t="s" s="8">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="6">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="B303" t="s" s="7">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C303" t="s" s="8">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="6">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="B304" t="s" s="7">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C304" t="s" s="8">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="6">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="B305" t="s" s="7">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C305" t="s" s="8">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="6">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="B306" t="s" s="7">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C306" t="s" s="8">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="6">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="B307" t="s" s="7">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C307" t="s" s="8">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="6">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="B308" t="s" s="7">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C308" t="s" s="8">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="6">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="B309" t="s" s="7">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C309" t="s" s="8">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="6">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="B310" t="s" s="7">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C310" t="s" s="8">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="6">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="B311" t="s" s="7">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C311" t="s" s="8">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="6">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="B312" t="s" s="7">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C312" t="s" s="8">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="6">
-        <v>2775</v>
+        <v>2776</v>
       </c>
       <c r="B313" t="s" s="7">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C313" t="s" s="8">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="6">
-        <v>2776</v>
+        <v>2777</v>
       </c>
       <c r="B314" t="s" s="7">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C314" t="s" s="8">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="6">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="B315" t="s" s="7">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C315" t="s" s="8">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="6">
-        <v>2778</v>
+        <v>2779</v>
       </c>
       <c r="B316" t="s" s="7">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C316" t="s" s="8">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="6">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="B317" t="s" s="7">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C317" t="s" s="8">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="6">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="B318" t="s" s="7">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C318" t="s" s="8">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="6">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="B319" t="s" s="7">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C319" t="s" s="8">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="6">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="B320" t="s" s="7">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C320" t="s" s="8">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="6">
-        <v>2783</v>
+        <v>2784</v>
       </c>
       <c r="B321" t="s" s="7">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C321" t="s" s="8">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="6">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="B322" t="s" s="7">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C322" t="s" s="8">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="6">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="B323" t="s" s="7">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C323" t="s" s="8">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="6">
-        <v>2786</v>
+        <v>2787</v>
       </c>
       <c r="B324" t="s" s="7">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C324" t="s" s="8">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="6">
-        <v>2787</v>
+        <v>2788</v>
       </c>
       <c r="B325" t="s" s="7">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C325" t="s" s="8">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="6">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="B326" t="s" s="7">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C326" t="s" s="8">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="6">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="B327" t="s" s="7">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C327" t="s" s="8">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="6">
-        <v>2790</v>
+        <v>2791</v>
       </c>
       <c r="B328" t="s" s="7">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C328" t="s" s="8">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="6">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="B329" t="s" s="7">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C329" t="s" s="8">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="6">
-        <v>2792</v>
+        <v>2793</v>
       </c>
       <c r="B330" t="s" s="7">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C330" t="s" s="8">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="6">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="B331" t="s" s="7">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C331" t="s" s="8">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="6">
-        <v>2794</v>
+        <v>2795</v>
       </c>
       <c r="B332" t="s" s="7">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C332" t="s" s="8">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="6">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="B333" t="s" s="7">
+        <v>665</v>
+      </c>
+      <c r="C333" t="s" s="8">
         <v>664</v>
-      </c>
-      <c r="C333" t="s" s="8">
-        <v>665</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="6">
-        <v>2796</v>
+        <v>2797</v>
       </c>
       <c r="B334" t="s" s="7">
         <v>666</v>
       </c>
       <c r="C334" t="s" s="8">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="6">
-        <v>2797</v>
+        <v>2798</v>
       </c>
       <c r="B335" t="s" s="7">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C335" t="s" s="8">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="6">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="B336" t="s" s="7">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C336" t="s" s="8">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="6">
-        <v>2799</v>
+        <v>2800</v>
       </c>
       <c r="B337" t="s" s="7">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C337" t="s" s="8">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="6">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="B338" t="s" s="7">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C338" t="s" s="8">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="6">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="B339" t="s" s="7">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C339" t="s" s="8">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="6">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="B340" t="s" s="7">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C340" t="s" s="8">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="6">
-        <v>2803</v>
+        <v>2804</v>
       </c>
       <c r="B341" t="s" s="7">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C341" t="s" s="8">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="6">
-        <v>2804</v>
+        <v>2805</v>
       </c>
       <c r="B342" t="s" s="7">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C342" t="s" s="8">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="6">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="B343" t="s" s="7">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C343" t="s" s="8">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="6">
-        <v>2806</v>
+        <v>2807</v>
       </c>
       <c r="B344" t="s" s="7">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C344" t="s" s="8">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="6">
-        <v>2807</v>
+        <v>2808</v>
       </c>
       <c r="B345" t="s" s="7">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C345" t="s" s="8">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="6">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="B346" t="s" s="7">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C346" t="s" s="8">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="6">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="B347" t="s" s="7">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C347" t="s" s="8">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="6">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="B348" t="s" s="7">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C348" t="s" s="8">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="6">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="B349" t="s" s="7">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C349" t="s" s="8">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="6">
-        <v>2812</v>
+        <v>2813</v>
       </c>
       <c r="B350" t="s" s="7">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C350" t="s" s="8">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="6">
-        <v>2813</v>
+        <v>2814</v>
       </c>
       <c r="B351" t="s" s="7">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C351" t="s" s="8">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="6">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="B352" t="s" s="7">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C352" t="s" s="8">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="6">
-        <v>2815</v>
+        <v>2816</v>
       </c>
       <c r="B353" t="s" s="7">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C353" t="s" s="8">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="6">
-        <v>2816</v>
+        <v>2817</v>
       </c>
       <c r="B354" t="s" s="7">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C354" t="s" s="8">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="6">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="B355" t="s" s="7">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C355" t="s" s="8">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="6">
-        <v>2818</v>
+        <v>2819</v>
       </c>
       <c r="B356" t="s" s="7">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C356" t="s" s="8">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="6">
-        <v>2819</v>
+        <v>2820</v>
       </c>
       <c r="B357" t="s" s="7">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C357" t="s" s="8">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="6">
-        <v>2820</v>
+        <v>2821</v>
       </c>
       <c r="B358" t="s" s="7">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C358" t="s" s="8">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="6">
-        <v>2821</v>
+        <v>2822</v>
       </c>
       <c r="B359" t="s" s="7">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C359" t="s" s="8">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="6">
-        <v>2822</v>
+        <v>2823</v>
       </c>
       <c r="B360" t="s" s="7">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C360" t="s" s="8">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="6">
-        <v>2823</v>
+        <v>2824</v>
       </c>
       <c r="B361" t="s" s="7">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C361" t="s" s="8">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="6">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="B362" t="s" s="7">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C362" t="s" s="8">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="6">
-        <v>2825</v>
+        <v>2826</v>
       </c>
       <c r="B363" t="s" s="7">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C363" t="s" s="8">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="6">
-        <v>2826</v>
+        <v>2827</v>
       </c>
       <c r="B364" t="s" s="7">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C364" t="s" s="8">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="6">
-        <v>2827</v>
+        <v>2828</v>
       </c>
       <c r="B365" t="s" s="7">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C365" t="s" s="8">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="6">
-        <v>2828</v>
+        <v>2829</v>
       </c>
       <c r="B366" t="s" s="7">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C366" t="s" s="8">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="6">
-        <v>2829</v>
+        <v>2830</v>
       </c>
       <c r="B367" t="s" s="7">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C367" t="s" s="8">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="6">
-        <v>2830</v>
+        <v>2831</v>
       </c>
       <c r="B368" t="s" s="7">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C368" t="s" s="8">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="6">
-        <v>2831</v>
+        <v>2832</v>
       </c>
       <c r="B369" t="s" s="7">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C369" t="s" s="8">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="6">
-        <v>2832</v>
+        <v>2833</v>
       </c>
       <c r="B370" t="s" s="7">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C370" t="s" s="8">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="6">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="B371" t="s" s="7">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C371" t="s" s="8">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="6">
-        <v>2834</v>
+        <v>2835</v>
       </c>
       <c r="B372" t="s" s="7">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C372" t="s" s="8">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="6">
-        <v>2835</v>
+        <v>2836</v>
       </c>
       <c r="B373" t="s" s="7">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C373" t="s" s="8">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="6">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="B374" t="s" s="7">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C374" t="s" s="8">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="6">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="B375" t="s" s="7">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C375" t="s" s="8">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="6">
-        <v>2838</v>
+        <v>2839</v>
       </c>
       <c r="B376" t="s" s="7">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C376" t="s" s="8">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="6">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="B377" t="s" s="7">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C377" t="s" s="8">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="6">
-        <v>2840</v>
+        <v>2841</v>
       </c>
       <c r="B378" t="s" s="7">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C378" t="s" s="8">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="6">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="B379" t="s" s="7">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C379" t="s" s="8">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="6">
-        <v>2842</v>
+        <v>2843</v>
       </c>
       <c r="B380" t="s" s="7">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C380" t="s" s="8">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="6">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="B381" t="s" s="7">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C381" t="s" s="8">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="6">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="B382" t="s" s="7">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C382" t="s" s="8">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="6">
-        <v>2845</v>
+        <v>2846</v>
       </c>
       <c r="B383" t="s" s="7">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C383" t="s" s="8">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="6">
-        <v>2846</v>
+        <v>2847</v>
       </c>
       <c r="B384" t="s" s="7">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C384" t="s" s="8">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="6">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="B385" t="s" s="7">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C385" t="s" s="8">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="6">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="B386" t="s" s="7">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C386" t="s" s="8">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="6">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="B387" t="s" s="7">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C387" t="s" s="8">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="6">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="B388" t="s" s="7">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C388" t="s" s="8">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="6">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="B389" t="s" s="7">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C389" t="s" s="8">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="6">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="B390" t="s" s="7">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C390" t="s" s="8">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="6">
-        <v>2853</v>
+        <v>2854</v>
       </c>
       <c r="B391" t="s" s="7">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C391" t="s" s="8">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="6">
-        <v>2854</v>
+        <v>2855</v>
       </c>
       <c r="B392" t="s" s="7">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C392" t="s" s="8">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="6">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="B393" t="s" s="7">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C393" t="s" s="8">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="6">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="B394" t="s" s="7">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C394" t="s" s="8">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="6">
-        <v>2857</v>
+        <v>2858</v>
       </c>
       <c r="B395" t="s" s="7">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C395" t="s" s="8">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="6">
-        <v>2858</v>
+        <v>2859</v>
       </c>
       <c r="B396" t="s" s="7">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C396" t="s" s="8">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="6">
-        <v>2859</v>
+        <v>2860</v>
       </c>
       <c r="B397" t="s" s="7">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C397" t="s" s="8">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="6">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="B398" t="s" s="7">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C398" t="s" s="8">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="6">
-        <v>2861</v>
+        <v>2862</v>
       </c>
       <c r="B399" t="s" s="7">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C399" t="s" s="8">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="6">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="B400" t="s" s="7">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C400" t="s" s="8">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="6">
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="B401" t="s" s="7">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C401" t="s" s="8">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="6">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="B402" t="s" s="7">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C402" t="s" s="8">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="6">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="B403" t="s" s="7">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C403" t="s" s="8">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="6">
-        <v>2866</v>
+        <v>2867</v>
       </c>
       <c r="B404" t="s" s="7">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C404" t="s" s="8">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="6">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="B405" t="s" s="7">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C405" t="s" s="8">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="6">
-        <v>2868</v>
+        <v>2869</v>
       </c>
       <c r="B406" t="s" s="7">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C406" t="s" s="8">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="6">
-        <v>2869</v>
+        <v>2870</v>
       </c>
       <c r="B407" t="s" s="7">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C407" t="s" s="8">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="6">
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="B408" t="s" s="7">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C408" t="s" s="8">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="6">
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="B409" t="s" s="7">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C409" t="s" s="8">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="6">
-        <v>2872</v>
+        <v>2873</v>
       </c>
       <c r="B410" t="s" s="7">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C410" t="s" s="8">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="6">
-        <v>2873</v>
+        <v>2874</v>
       </c>
       <c r="B411" t="s" s="7">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C411" t="s" s="8">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="6">
-        <v>2874</v>
+        <v>2875</v>
       </c>
       <c r="B412" t="s" s="7">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C412" t="s" s="8">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="6">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="B413" t="s" s="7">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C413" t="s" s="8">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="6">
-        <v>2876</v>
+        <v>2877</v>
       </c>
       <c r="B414" t="s" s="7">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C414" t="s" s="8">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="6">
-        <v>2877</v>
+        <v>2878</v>
       </c>
       <c r="B415" t="s" s="7">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C415" t="s" s="8">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="6">
-        <v>2878</v>
+        <v>2879</v>
       </c>
       <c r="B416" t="s" s="7">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C416" t="s" s="8">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="6">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="B417" t="s" s="7">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C417" t="s" s="8">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="6">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="B418" t="s" s="7">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C418" t="s" s="8">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="6">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="B419" t="s" s="7">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C419" t="s" s="8">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="6">
-        <v>2882</v>
+        <v>2883</v>
       </c>
       <c r="B420" t="s" s="7">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C420" t="s" s="8">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="6">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="B421" t="s" s="7">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C421" t="s" s="8">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="6">
-        <v>2884</v>
+        <v>2885</v>
       </c>
       <c r="B422" t="s" s="7">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C422" t="s" s="8">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="6">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="B423" t="s" s="7">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C423" t="s" s="8">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="6">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="B424" t="s" s="7">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C424" t="s" s="8">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="6">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="B425" t="s" s="7">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C425" t="s" s="8">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="6">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="B426" t="s" s="7">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C426" t="s" s="8">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="6">
-        <v>2889</v>
+        <v>2890</v>
       </c>
       <c r="B427" t="s" s="7">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C427" t="s" s="8">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="6">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="B428" t="s" s="7">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C428" t="s" s="8">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="6">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="B429" t="s" s="7">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C429" t="s" s="8">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="6">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="B430" t="s" s="7">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C430" t="s" s="8">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="6">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="B431" t="s" s="7">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C431" t="s" s="8">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="6">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="B432" t="s" s="7">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C432" t="s" s="8">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="6">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="B433" t="s" s="7">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C433" t="s" s="8">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="6">
-        <v>2896</v>
+        <v>2897</v>
       </c>
       <c r="B434" t="s" s="7">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C434" t="s" s="8">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="6">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="B435" t="s" s="7">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C435" t="s" s="8">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="6">
-        <v>2898</v>
+        <v>2900</v>
       </c>
       <c r="B436" t="s" s="7">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C436" t="s" s="8">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="6">
-        <v>2900</v>
+        <v>2901</v>
       </c>
       <c r="B437" t="s" s="7">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C437" t="s" s="8">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="6">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="B438" t="s" s="7">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C438" t="s" s="8">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="6">
-        <v>2902</v>
+        <v>2904</v>
       </c>
       <c r="B439" t="s" s="7">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C439" t="s" s="8">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="6">
-        <v>2903</v>
+        <v>5388536538</v>
       </c>
       <c r="B440" t="s" s="7">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C440" t="s" s="8">
-        <v>495</v>
+        <v>879</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="6">
-        <v>2904</v>
+        <v>16152612577</v>
       </c>
       <c r="B441" t="s" s="7">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C441" t="s" s="8">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="6">
-        <v>2907</v>
-      </c>
-      <c r="B442" t="s" s="7">
-        <v>880</v>
-      </c>
-      <c r="C442" t="s" s="8">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="6">
-        <v>5388536538</v>
-      </c>
-      <c r="B443" t="s" s="7">
         <v>881</v>
-      </c>
-      <c r="C443" t="s" s="8">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="6">
-        <v>16152612577</v>
-      </c>
-      <c r="B444" t="s" s="7">
-        <v>883</v>
-      </c>
-      <c r="C444" t="s" s="8">
-        <v>884</v>
       </c>
     </row>
   </sheetData>

--- a/raw/Languages.xlsx
+++ b/raw/Languages.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="864">
   <si>
     <t>Language_ID</t>
   </si>
@@ -1058,12 +1058,6 @@
     <t>leal1235</t>
   </si>
   <si>
-    <t>Chocho</t>
-  </si>
-  <si>
-    <t>choc1279</t>
-  </si>
-  <si>
     <t>Choctaw</t>
   </si>
   <si>
@@ -1145,7 +1139,7 @@
     <t>Dogon</t>
   </si>
   <si>
-    <t>bang1363</t>
+    <t>tomm1242</t>
   </si>
   <si>
     <t>Doyayo</t>
@@ -1448,18 +1442,6 @@
     <t>nucl1305</t>
   </si>
   <si>
-    <t>Karok</t>
-  </si>
-  <si>
-    <t>karo1304</t>
-  </si>
-  <si>
-    <t>Kâte</t>
-  </si>
-  <si>
-    <t>kate1253</t>
-  </si>
-  <si>
     <t>Kayah Li (Eastern)</t>
   </si>
   <si>
@@ -1538,12 +1520,6 @@
     <t>ndei1235</t>
   </si>
   <si>
-    <t>Konda</t>
-  </si>
-  <si>
-    <t>kond1295</t>
-  </si>
-  <si>
     <t>Kongo</t>
   </si>
   <si>
@@ -1622,12 +1598,6 @@
     <t>lakk1252</t>
   </si>
   <si>
-    <t>Lamang</t>
-  </si>
-  <si>
-    <t>lama1288</t>
-  </si>
-  <si>
     <t>Latvian</t>
   </si>
   <si>
@@ -1880,12 +1850,6 @@
     <t>mwag1236</t>
   </si>
   <si>
-    <t>Murle</t>
-  </si>
-  <si>
-    <t>murl1244</t>
-  </si>
-  <si>
     <t>Musgu</t>
   </si>
   <si>
@@ -2471,12 +2435,6 @@
     <t>urub1250</t>
   </si>
   <si>
-    <t>Usan</t>
-  </si>
-  <si>
-    <t>usan1239</t>
-  </si>
-  <si>
     <t>Vietnamese</t>
   </si>
   <si>
@@ -2495,12 +2453,6 @@
     <t>wamb1258</t>
   </si>
   <si>
-    <t>Warao</t>
-  </si>
-  <si>
-    <t>wara1303</t>
-  </si>
-  <si>
     <t>Waray (in Australia)</t>
   </si>
   <si>
@@ -2547,12 +2499,6 @@
   </si>
   <si>
     <t>yany1243</t>
-  </si>
-  <si>
-    <t>Yawelmani</t>
-  </si>
-  <si>
-    <t>yoku1256</t>
   </si>
   <si>
     <t>Yawuru</t>
@@ -4650,7 +4596,7 @@
     </row>
     <row r="175">
       <c r="A175" s="6">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="B175" t="s" s="7">
         <v>349</v>
@@ -4661,7 +4607,7 @@
     </row>
     <row r="176">
       <c r="A176" s="6">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="B176" t="s" s="7">
         <v>351</v>
@@ -4672,7 +4618,7 @@
     </row>
     <row r="177">
       <c r="A177" s="6">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="B177" t="s" s="7">
         <v>353</v>
@@ -4683,7 +4629,7 @@
     </row>
     <row r="178">
       <c r="A178" s="6">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="B178" t="s" s="7">
         <v>355</v>
@@ -4694,7 +4640,7 @@
     </row>
     <row r="179">
       <c r="A179" s="6">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="B179" t="s" s="7">
         <v>357</v>
@@ -4705,7 +4651,7 @@
     </row>
     <row r="180">
       <c r="A180" s="6">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="B180" t="s" s="7">
         <v>359</v>
@@ -4716,7 +4662,7 @@
     </row>
     <row r="181">
       <c r="A181" s="6">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="B181" t="s" s="7">
         <v>361</v>
@@ -4727,7 +4673,7 @@
     </row>
     <row r="182">
       <c r="A182" s="6">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="B182" t="s" s="7">
         <v>363</v>
@@ -4738,7 +4684,7 @@
     </row>
     <row r="183">
       <c r="A183" s="6">
-        <v>2644</v>
+        <v>2646</v>
       </c>
       <c r="B183" t="s" s="7">
         <v>365</v>
@@ -4749,7 +4695,7 @@
     </row>
     <row r="184">
       <c r="A184" s="6">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="B184" t="s" s="7">
         <v>367</v>
@@ -4760,7 +4706,7 @@
     </row>
     <row r="185">
       <c r="A185" s="6">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="B185" t="s" s="7">
         <v>369</v>
@@ -4771,7 +4717,7 @@
     </row>
     <row r="186">
       <c r="A186" s="6">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="B186" t="s" s="7">
         <v>371</v>
@@ -4782,7 +4728,7 @@
     </row>
     <row r="187">
       <c r="A187" s="6">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="B187" t="s" s="7">
         <v>373</v>
@@ -4793,7 +4739,7 @@
     </row>
     <row r="188">
       <c r="A188" s="6">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="B188" t="s" s="7">
         <v>375</v>
@@ -4804,7 +4750,7 @@
     </row>
     <row r="189">
       <c r="A189" s="6">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="B189" t="s" s="7">
         <v>377</v>
@@ -4815,7 +4761,7 @@
     </row>
     <row r="190">
       <c r="A190" s="6">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="B190" t="s" s="7">
         <v>379</v>
@@ -4826,7 +4772,7 @@
     </row>
     <row r="191">
       <c r="A191" s="6">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="B191" t="s" s="7">
         <v>381</v>
@@ -4837,7 +4783,7 @@
     </row>
     <row r="192">
       <c r="A192" s="6">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="B192" t="s" s="7">
         <v>383</v>
@@ -4848,7 +4794,7 @@
     </row>
     <row r="193">
       <c r="A193" s="6">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="B193" t="s" s="7">
         <v>385</v>
@@ -4859,7 +4805,7 @@
     </row>
     <row r="194">
       <c r="A194" s="6">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="B194" t="s" s="7">
         <v>387</v>
@@ -4870,7 +4816,7 @@
     </row>
     <row r="195">
       <c r="A195" s="6">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="B195" t="s" s="7">
         <v>389</v>
@@ -4881,7 +4827,7 @@
     </row>
     <row r="196">
       <c r="A196" s="6">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="B196" t="s" s="7">
         <v>391</v>
@@ -4892,7 +4838,7 @@
     </row>
     <row r="197">
       <c r="A197" s="6">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="B197" t="s" s="7">
         <v>393</v>
@@ -4903,7 +4849,7 @@
     </row>
     <row r="198">
       <c r="A198" s="6">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="B198" t="s" s="7">
         <v>395</v>
@@ -4914,7 +4860,7 @@
     </row>
     <row r="199">
       <c r="A199" s="6">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="B199" t="s" s="7">
         <v>397</v>
@@ -4925,7 +4871,7 @@
     </row>
     <row r="200">
       <c r="A200" s="6">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="B200" t="s" s="7">
         <v>399</v>
@@ -4936,7 +4882,7 @@
     </row>
     <row r="201">
       <c r="A201" s="6">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="B201" t="s" s="7">
         <v>401</v>
@@ -4947,7 +4893,7 @@
     </row>
     <row r="202">
       <c r="A202" s="6">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="B202" t="s" s="7">
         <v>403</v>
@@ -4958,7 +4904,7 @@
     </row>
     <row r="203">
       <c r="A203" s="6">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="B203" t="s" s="7">
         <v>405</v>
@@ -4969,7 +4915,7 @@
     </row>
     <row r="204">
       <c r="A204" s="6">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="B204" t="s" s="7">
         <v>407</v>
@@ -4980,7 +4926,7 @@
     </row>
     <row r="205">
       <c r="A205" s="6">
-        <v>2667</v>
+        <v>2668</v>
       </c>
       <c r="B205" t="s" s="7">
         <v>409</v>
@@ -4991,7 +4937,7 @@
     </row>
     <row r="206">
       <c r="A206" s="6">
-        <v>2668</v>
+        <v>2669</v>
       </c>
       <c r="B206" t="s" s="7">
         <v>411</v>
@@ -5002,7 +4948,7 @@
     </row>
     <row r="207">
       <c r="A207" s="6">
-        <v>2669</v>
+        <v>2670</v>
       </c>
       <c r="B207" t="s" s="7">
         <v>413</v>
@@ -5013,7 +4959,7 @@
     </row>
     <row r="208">
       <c r="A208" s="6">
-        <v>2670</v>
+        <v>2671</v>
       </c>
       <c r="B208" t="s" s="7">
         <v>415</v>
@@ -5024,7 +4970,7 @@
     </row>
     <row r="209">
       <c r="A209" s="6">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="B209" t="s" s="7">
         <v>417</v>
@@ -5035,7 +4981,7 @@
     </row>
     <row r="210">
       <c r="A210" s="6">
-        <v>2672</v>
+        <v>2673</v>
       </c>
       <c r="B210" t="s" s="7">
         <v>419</v>
@@ -5046,7 +4992,7 @@
     </row>
     <row r="211">
       <c r="A211" s="6">
-        <v>2673</v>
+        <v>2674</v>
       </c>
       <c r="B211" t="s" s="7">
         <v>421</v>
@@ -5057,7 +5003,7 @@
     </row>
     <row r="212">
       <c r="A212" s="6">
-        <v>2674</v>
+        <v>2675</v>
       </c>
       <c r="B212" t="s" s="7">
         <v>423</v>
@@ -5068,7 +5014,7 @@
     </row>
     <row r="213">
       <c r="A213" s="6">
-        <v>2675</v>
+        <v>2676</v>
       </c>
       <c r="B213" t="s" s="7">
         <v>425</v>
@@ -5079,7 +5025,7 @@
     </row>
     <row r="214">
       <c r="A214" s="6">
-        <v>2676</v>
+        <v>2677</v>
       </c>
       <c r="B214" t="s" s="7">
         <v>427</v>
@@ -5090,7 +5036,7 @@
     </row>
     <row r="215">
       <c r="A215" s="6">
-        <v>2677</v>
+        <v>2678</v>
       </c>
       <c r="B215" t="s" s="7">
         <v>429</v>
@@ -5101,7 +5047,7 @@
     </row>
     <row r="216">
       <c r="A216" s="6">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="B216" t="s" s="7">
         <v>431</v>
@@ -5112,7 +5058,7 @@
     </row>
     <row r="217">
       <c r="A217" s="6">
-        <v>2679</v>
+        <v>2680</v>
       </c>
       <c r="B217" t="s" s="7">
         <v>433</v>
@@ -5123,7 +5069,7 @@
     </row>
     <row r="218">
       <c r="A218" s="6">
-        <v>2680</v>
+        <v>2681</v>
       </c>
       <c r="B218" t="s" s="7">
         <v>435</v>
@@ -5134,7 +5080,7 @@
     </row>
     <row r="219">
       <c r="A219" s="6">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="B219" t="s" s="7">
         <v>437</v>
@@ -5145,7 +5091,7 @@
     </row>
     <row r="220">
       <c r="A220" s="6">
-        <v>2682</v>
+        <v>2683</v>
       </c>
       <c r="B220" t="s" s="7">
         <v>439</v>
@@ -5156,7 +5102,7 @@
     </row>
     <row r="221">
       <c r="A221" s="6">
-        <v>2683</v>
+        <v>2684</v>
       </c>
       <c r="B221" t="s" s="7">
         <v>441</v>
@@ -5167,7 +5113,7 @@
     </row>
     <row r="222">
       <c r="A222" s="6">
-        <v>2684</v>
+        <v>2685</v>
       </c>
       <c r="B222" t="s" s="7">
         <v>443</v>
@@ -5178,7 +5124,7 @@
     </row>
     <row r="223">
       <c r="A223" s="6">
-        <v>2685</v>
+        <v>2686</v>
       </c>
       <c r="B223" t="s" s="7">
         <v>445</v>
@@ -5189,7 +5135,7 @@
     </row>
     <row r="224">
       <c r="A224" s="6">
-        <v>2686</v>
+        <v>2687</v>
       </c>
       <c r="B224" t="s" s="7">
         <v>447</v>
@@ -5200,7 +5146,7 @@
     </row>
     <row r="225">
       <c r="A225" s="6">
-        <v>2687</v>
+        <v>2688</v>
       </c>
       <c r="B225" t="s" s="7">
         <v>449</v>
@@ -5211,7 +5157,7 @@
     </row>
     <row r="226">
       <c r="A226" s="6">
-        <v>2688</v>
+        <v>2689</v>
       </c>
       <c r="B226" t="s" s="7">
         <v>451</v>
@@ -5222,7 +5168,7 @@
     </row>
     <row r="227">
       <c r="A227" s="6">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="B227" t="s" s="7">
         <v>453</v>
@@ -5233,7 +5179,7 @@
     </row>
     <row r="228">
       <c r="A228" s="6">
-        <v>2690</v>
+        <v>2691</v>
       </c>
       <c r="B228" t="s" s="7">
         <v>455</v>
@@ -5244,7 +5190,7 @@
     </row>
     <row r="229">
       <c r="A229" s="6">
-        <v>2691</v>
+        <v>2692</v>
       </c>
       <c r="B229" t="s" s="7">
         <v>457</v>
@@ -5255,7 +5201,7 @@
     </row>
     <row r="230">
       <c r="A230" s="6">
-        <v>2692</v>
+        <v>2693</v>
       </c>
       <c r="B230" t="s" s="7">
         <v>459</v>
@@ -5266,7 +5212,7 @@
     </row>
     <row r="231">
       <c r="A231" s="6">
-        <v>2693</v>
+        <v>2694</v>
       </c>
       <c r="B231" t="s" s="7">
         <v>461</v>
@@ -5277,7 +5223,7 @@
     </row>
     <row r="232">
       <c r="A232" s="6">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="B232" t="s" s="7">
         <v>463</v>
@@ -5288,7 +5234,7 @@
     </row>
     <row r="233">
       <c r="A233" s="6">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="B233" t="s" s="7">
         <v>465</v>
@@ -5299,7 +5245,7 @@
     </row>
     <row r="234">
       <c r="A234" s="6">
-        <v>2696</v>
+        <v>2697</v>
       </c>
       <c r="B234" t="s" s="7">
         <v>467</v>
@@ -5310,7 +5256,7 @@
     </row>
     <row r="235">
       <c r="A235" s="6">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="B235" t="s" s="7">
         <v>469</v>
@@ -5321,7 +5267,7 @@
     </row>
     <row r="236">
       <c r="A236" s="6">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="B236" t="s" s="7">
         <v>471</v>
@@ -5332,7 +5278,7 @@
     </row>
     <row r="237">
       <c r="A237" s="6">
-        <v>2699</v>
+        <v>2700</v>
       </c>
       <c r="B237" t="s" s="7">
         <v>473</v>
@@ -5343,7 +5289,7 @@
     </row>
     <row r="238">
       <c r="A238" s="6">
-        <v>2700</v>
+        <v>2701</v>
       </c>
       <c r="B238" t="s" s="7">
         <v>475</v>
@@ -5354,7 +5300,7 @@
     </row>
     <row r="239">
       <c r="A239" s="6">
-        <v>2701</v>
+        <v>2704</v>
       </c>
       <c r="B239" t="s" s="7">
         <v>477</v>
@@ -5365,7 +5311,7 @@
     </row>
     <row r="240">
       <c r="A240" s="6">
-        <v>2702</v>
+        <v>2705</v>
       </c>
       <c r="B240" t="s" s="7">
         <v>479</v>
@@ -5376,7 +5322,7 @@
     </row>
     <row r="241">
       <c r="A241" s="6">
-        <v>2703</v>
+        <v>2706</v>
       </c>
       <c r="B241" t="s" s="7">
         <v>481</v>
@@ -5387,7 +5333,7 @@
     </row>
     <row r="242">
       <c r="A242" s="6">
-        <v>2704</v>
+        <v>2708</v>
       </c>
       <c r="B242" t="s" s="7">
         <v>483</v>
@@ -5398,7 +5344,7 @@
     </row>
     <row r="243">
       <c r="A243" s="6">
-        <v>2705</v>
+        <v>2709</v>
       </c>
       <c r="B243" t="s" s="7">
         <v>485</v>
@@ -5409,7 +5355,7 @@
     </row>
     <row r="244">
       <c r="A244" s="6">
-        <v>2706</v>
+        <v>2710</v>
       </c>
       <c r="B244" t="s" s="7">
         <v>487</v>
@@ -5420,7 +5366,7 @@
     </row>
     <row r="245">
       <c r="A245" s="6">
-        <v>2708</v>
+        <v>2711</v>
       </c>
       <c r="B245" t="s" s="7">
         <v>489</v>
@@ -5431,7 +5377,7 @@
     </row>
     <row r="246">
       <c r="A246" s="6">
-        <v>2709</v>
+        <v>2712</v>
       </c>
       <c r="B246" t="s" s="7">
         <v>491</v>
@@ -5442,7 +5388,7 @@
     </row>
     <row r="247">
       <c r="A247" s="6">
-        <v>2710</v>
+        <v>2713</v>
       </c>
       <c r="B247" t="s" s="7">
         <v>493</v>
@@ -5453,7 +5399,7 @@
     </row>
     <row r="248">
       <c r="A248" s="6">
-        <v>2711</v>
+        <v>2714</v>
       </c>
       <c r="B248" t="s" s="7">
         <v>495</v>
@@ -5464,7 +5410,7 @@
     </row>
     <row r="249">
       <c r="A249" s="6">
-        <v>2712</v>
+        <v>2715</v>
       </c>
       <c r="B249" t="s" s="7">
         <v>497</v>
@@ -5475,7 +5421,7 @@
     </row>
     <row r="250">
       <c r="A250" s="6">
-        <v>2713</v>
+        <v>2716</v>
       </c>
       <c r="B250" t="s" s="7">
         <v>499</v>
@@ -5486,7 +5432,7 @@
     </row>
     <row r="251">
       <c r="A251" s="6">
-        <v>2714</v>
+        <v>2717</v>
       </c>
       <c r="B251" t="s" s="7">
         <v>501</v>
@@ -5497,7 +5443,7 @@
     </row>
     <row r="252">
       <c r="A252" s="6">
-        <v>2715</v>
+        <v>2719</v>
       </c>
       <c r="B252" t="s" s="7">
         <v>503</v>
@@ -5508,7 +5454,7 @@
     </row>
     <row r="253">
       <c r="A253" s="6">
-        <v>2716</v>
+        <v>2720</v>
       </c>
       <c r="B253" t="s" s="7">
         <v>505</v>
@@ -5519,7 +5465,7 @@
     </row>
     <row r="254">
       <c r="A254" s="6">
-        <v>2717</v>
+        <v>2721</v>
       </c>
       <c r="B254" t="s" s="7">
         <v>507</v>
@@ -5530,7 +5476,7 @@
     </row>
     <row r="255">
       <c r="A255" s="6">
-        <v>2718</v>
+        <v>2722</v>
       </c>
       <c r="B255" t="s" s="7">
         <v>509</v>
@@ -5541,7 +5487,7 @@
     </row>
     <row r="256">
       <c r="A256" s="6">
-        <v>2719</v>
+        <v>2723</v>
       </c>
       <c r="B256" t="s" s="7">
         <v>511</v>
@@ -5552,7 +5498,7 @@
     </row>
     <row r="257">
       <c r="A257" s="6">
-        <v>2720</v>
+        <v>2724</v>
       </c>
       <c r="B257" t="s" s="7">
         <v>513</v>
@@ -5563,7 +5509,7 @@
     </row>
     <row r="258">
       <c r="A258" s="6">
-        <v>2721</v>
+        <v>2725</v>
       </c>
       <c r="B258" t="s" s="7">
         <v>515</v>
@@ -5574,7 +5520,7 @@
     </row>
     <row r="259">
       <c r="A259" s="6">
-        <v>2722</v>
+        <v>2726</v>
       </c>
       <c r="B259" t="s" s="7">
         <v>517</v>
@@ -5585,7 +5531,7 @@
     </row>
     <row r="260">
       <c r="A260" s="6">
-        <v>2723</v>
+        <v>2727</v>
       </c>
       <c r="B260" t="s" s="7">
         <v>519</v>
@@ -5596,7 +5542,7 @@
     </row>
     <row r="261">
       <c r="A261" s="6">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="B261" t="s" s="7">
         <v>521</v>
@@ -5607,7 +5553,7 @@
     </row>
     <row r="262">
       <c r="A262" s="6">
-        <v>2725</v>
+        <v>2729</v>
       </c>
       <c r="B262" t="s" s="7">
         <v>523</v>
@@ -5618,7 +5564,7 @@
     </row>
     <row r="263">
       <c r="A263" s="6">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="B263" t="s" s="7">
         <v>525</v>
@@ -5629,7 +5575,7 @@
     </row>
     <row r="264">
       <c r="A264" s="6">
-        <v>2727</v>
+        <v>2731</v>
       </c>
       <c r="B264" t="s" s="7">
         <v>527</v>
@@ -5640,7 +5586,7 @@
     </row>
     <row r="265">
       <c r="A265" s="6">
-        <v>2728</v>
+        <v>2733</v>
       </c>
       <c r="B265" t="s" s="7">
         <v>529</v>
@@ -5651,7 +5597,7 @@
     </row>
     <row r="266">
       <c r="A266" s="6">
-        <v>2729</v>
+        <v>2734</v>
       </c>
       <c r="B266" t="s" s="7">
         <v>531</v>
@@ -5662,7 +5608,7 @@
     </row>
     <row r="267">
       <c r="A267" s="6">
-        <v>2730</v>
+        <v>2735</v>
       </c>
       <c r="B267" t="s" s="7">
         <v>533</v>
@@ -5673,7 +5619,7 @@
     </row>
     <row r="268">
       <c r="A268" s="6">
-        <v>2731</v>
+        <v>2736</v>
       </c>
       <c r="B268" t="s" s="7">
         <v>535</v>
@@ -5684,7 +5630,7 @@
     </row>
     <row r="269">
       <c r="A269" s="6">
-        <v>2732</v>
+        <v>2737</v>
       </c>
       <c r="B269" t="s" s="7">
         <v>537</v>
@@ -5695,7 +5641,7 @@
     </row>
     <row r="270">
       <c r="A270" s="6">
-        <v>2733</v>
+        <v>2738</v>
       </c>
       <c r="B270" t="s" s="7">
         <v>539</v>
@@ -5706,7 +5652,7 @@
     </row>
     <row r="271">
       <c r="A271" s="6">
-        <v>2734</v>
+        <v>2739</v>
       </c>
       <c r="B271" t="s" s="7">
         <v>541</v>
@@ -5717,7 +5663,7 @@
     </row>
     <row r="272">
       <c r="A272" s="6">
-        <v>2735</v>
+        <v>2740</v>
       </c>
       <c r="B272" t="s" s="7">
         <v>543</v>
@@ -5728,7 +5674,7 @@
     </row>
     <row r="273">
       <c r="A273" s="6">
-        <v>2736</v>
+        <v>2741</v>
       </c>
       <c r="B273" t="s" s="7">
         <v>545</v>
@@ -5739,7 +5685,7 @@
     </row>
     <row r="274">
       <c r="A274" s="6">
-        <v>2737</v>
+        <v>2742</v>
       </c>
       <c r="B274" t="s" s="7">
         <v>547</v>
@@ -5750,7 +5696,7 @@
     </row>
     <row r="275">
       <c r="A275" s="6">
-        <v>2738</v>
+        <v>2743</v>
       </c>
       <c r="B275" t="s" s="7">
         <v>549</v>
@@ -5761,7 +5707,7 @@
     </row>
     <row r="276">
       <c r="A276" s="6">
-        <v>2739</v>
+        <v>2744</v>
       </c>
       <c r="B276" t="s" s="7">
         <v>551</v>
@@ -5772,7 +5718,7 @@
     </row>
     <row r="277">
       <c r="A277" s="6">
-        <v>2740</v>
+        <v>2745</v>
       </c>
       <c r="B277" t="s" s="7">
         <v>553</v>
@@ -5783,7 +5729,7 @@
     </row>
     <row r="278">
       <c r="A278" s="6">
-        <v>2741</v>
+        <v>2746</v>
       </c>
       <c r="B278" t="s" s="7">
         <v>555</v>
@@ -5794,7 +5740,7 @@
     </row>
     <row r="279">
       <c r="A279" s="6">
-        <v>2742</v>
+        <v>2747</v>
       </c>
       <c r="B279" t="s" s="7">
         <v>557</v>
@@ -5805,7 +5751,7 @@
     </row>
     <row r="280">
       <c r="A280" s="6">
-        <v>2743</v>
+        <v>2748</v>
       </c>
       <c r="B280" t="s" s="7">
         <v>559</v>
@@ -5816,7 +5762,7 @@
     </row>
     <row r="281">
       <c r="A281" s="6">
-        <v>2744</v>
+        <v>2749</v>
       </c>
       <c r="B281" t="s" s="7">
         <v>561</v>
@@ -5827,7 +5773,7 @@
     </row>
     <row r="282">
       <c r="A282" s="6">
-        <v>2745</v>
+        <v>2750</v>
       </c>
       <c r="B282" t="s" s="7">
         <v>563</v>
@@ -5838,7 +5784,7 @@
     </row>
     <row r="283">
       <c r="A283" s="6">
-        <v>2746</v>
+        <v>2751</v>
       </c>
       <c r="B283" t="s" s="7">
         <v>565</v>
@@ -5849,7 +5795,7 @@
     </row>
     <row r="284">
       <c r="A284" s="6">
-        <v>2747</v>
+        <v>2752</v>
       </c>
       <c r="B284" t="s" s="7">
         <v>567</v>
@@ -5860,7 +5806,7 @@
     </row>
     <row r="285">
       <c r="A285" s="6">
-        <v>2748</v>
+        <v>2753</v>
       </c>
       <c r="B285" t="s" s="7">
         <v>569</v>
@@ -5871,7 +5817,7 @@
     </row>
     <row r="286">
       <c r="A286" s="6">
-        <v>2749</v>
+        <v>2754</v>
       </c>
       <c r="B286" t="s" s="7">
         <v>571</v>
@@ -5882,7 +5828,7 @@
     </row>
     <row r="287">
       <c r="A287" s="6">
-        <v>2750</v>
+        <v>2755</v>
       </c>
       <c r="B287" t="s" s="7">
         <v>573</v>
@@ -5893,7 +5839,7 @@
     </row>
     <row r="288">
       <c r="A288" s="6">
-        <v>2751</v>
+        <v>2756</v>
       </c>
       <c r="B288" t="s" s="7">
         <v>575</v>
@@ -5904,7 +5850,7 @@
     </row>
     <row r="289">
       <c r="A289" s="6">
-        <v>2752</v>
+        <v>2757</v>
       </c>
       <c r="B289" t="s" s="7">
         <v>577</v>
@@ -5915,7 +5861,7 @@
     </row>
     <row r="290">
       <c r="A290" s="6">
-        <v>2753</v>
+        <v>2758</v>
       </c>
       <c r="B290" t="s" s="7">
         <v>579</v>
@@ -5926,7 +5872,7 @@
     </row>
     <row r="291">
       <c r="A291" s="6">
-        <v>2754</v>
+        <v>2759</v>
       </c>
       <c r="B291" t="s" s="7">
         <v>581</v>
@@ -5937,7 +5883,7 @@
     </row>
     <row r="292">
       <c r="A292" s="6">
-        <v>2755</v>
+        <v>2760</v>
       </c>
       <c r="B292" t="s" s="7">
         <v>583</v>
@@ -5948,7 +5894,7 @@
     </row>
     <row r="293">
       <c r="A293" s="6">
-        <v>2756</v>
+        <v>2761</v>
       </c>
       <c r="B293" t="s" s="7">
         <v>585</v>
@@ -5959,7 +5905,7 @@
     </row>
     <row r="294">
       <c r="A294" s="6">
-        <v>2757</v>
+        <v>2762</v>
       </c>
       <c r="B294" t="s" s="7">
         <v>587</v>
@@ -5970,7 +5916,7 @@
     </row>
     <row r="295">
       <c r="A295" s="6">
-        <v>2758</v>
+        <v>2763</v>
       </c>
       <c r="B295" t="s" s="7">
         <v>589</v>
@@ -5981,7 +5927,7 @@
     </row>
     <row r="296">
       <c r="A296" s="6">
-        <v>2759</v>
+        <v>2764</v>
       </c>
       <c r="B296" t="s" s="7">
         <v>591</v>
@@ -5992,7 +5938,7 @@
     </row>
     <row r="297">
       <c r="A297" s="6">
-        <v>2760</v>
+        <v>2765</v>
       </c>
       <c r="B297" t="s" s="7">
         <v>593</v>
@@ -6003,7 +5949,7 @@
     </row>
     <row r="298">
       <c r="A298" s="6">
-        <v>2761</v>
+        <v>2766</v>
       </c>
       <c r="B298" t="s" s="7">
         <v>595</v>
@@ -6014,7 +5960,7 @@
     </row>
     <row r="299">
       <c r="A299" s="6">
-        <v>2762</v>
+        <v>2767</v>
       </c>
       <c r="B299" t="s" s="7">
         <v>597</v>
@@ -6025,7 +5971,7 @@
     </row>
     <row r="300">
       <c r="A300" s="6">
-        <v>2763</v>
+        <v>2768</v>
       </c>
       <c r="B300" t="s" s="7">
         <v>599</v>
@@ -6036,7 +5982,7 @@
     </row>
     <row r="301">
       <c r="A301" s="6">
-        <v>2764</v>
+        <v>2769</v>
       </c>
       <c r="B301" t="s" s="7">
         <v>601</v>
@@ -6047,7 +5993,7 @@
     </row>
     <row r="302">
       <c r="A302" s="6">
-        <v>2765</v>
+        <v>2770</v>
       </c>
       <c r="B302" t="s" s="7">
         <v>603</v>
@@ -6058,7 +6004,7 @@
     </row>
     <row r="303">
       <c r="A303" s="6">
-        <v>2766</v>
+        <v>2771</v>
       </c>
       <c r="B303" t="s" s="7">
         <v>605</v>
@@ -6069,7 +6015,7 @@
     </row>
     <row r="304">
       <c r="A304" s="6">
-        <v>2767</v>
+        <v>2772</v>
       </c>
       <c r="B304" t="s" s="7">
         <v>607</v>
@@ -6080,7 +6026,7 @@
     </row>
     <row r="305">
       <c r="A305" s="6">
-        <v>2768</v>
+        <v>2773</v>
       </c>
       <c r="B305" t="s" s="7">
         <v>609</v>
@@ -6091,7 +6037,7 @@
     </row>
     <row r="306">
       <c r="A306" s="6">
-        <v>2769</v>
+        <v>2774</v>
       </c>
       <c r="B306" t="s" s="7">
         <v>611</v>
@@ -6102,7 +6048,7 @@
     </row>
     <row r="307">
       <c r="A307" s="6">
-        <v>2770</v>
+        <v>2776</v>
       </c>
       <c r="B307" t="s" s="7">
         <v>613</v>
@@ -6113,7 +6059,7 @@
     </row>
     <row r="308">
       <c r="A308" s="6">
-        <v>2771</v>
+        <v>2777</v>
       </c>
       <c r="B308" t="s" s="7">
         <v>615</v>
@@ -6124,7 +6070,7 @@
     </row>
     <row r="309">
       <c r="A309" s="6">
-        <v>2772</v>
+        <v>2778</v>
       </c>
       <c r="B309" t="s" s="7">
         <v>617</v>
@@ -6135,7 +6081,7 @@
     </row>
     <row r="310">
       <c r="A310" s="6">
-        <v>2773</v>
+        <v>2779</v>
       </c>
       <c r="B310" t="s" s="7">
         <v>619</v>
@@ -6146,7 +6092,7 @@
     </row>
     <row r="311">
       <c r="A311" s="6">
-        <v>2774</v>
+        <v>2780</v>
       </c>
       <c r="B311" t="s" s="7">
         <v>621</v>
@@ -6157,7 +6103,7 @@
     </row>
     <row r="312">
       <c r="A312" s="6">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="B312" t="s" s="7">
         <v>623</v>
@@ -6168,7 +6114,7 @@
     </row>
     <row r="313">
       <c r="A313" s="6">
-        <v>2776</v>
+        <v>2782</v>
       </c>
       <c r="B313" t="s" s="7">
         <v>625</v>
@@ -6179,7 +6125,7 @@
     </row>
     <row r="314">
       <c r="A314" s="6">
-        <v>2777</v>
+        <v>2783</v>
       </c>
       <c r="B314" t="s" s="7">
         <v>627</v>
@@ -6190,7 +6136,7 @@
     </row>
     <row r="315">
       <c r="A315" s="6">
-        <v>2778</v>
+        <v>2784</v>
       </c>
       <c r="B315" t="s" s="7">
         <v>629</v>
@@ -6201,7 +6147,7 @@
     </row>
     <row r="316">
       <c r="A316" s="6">
-        <v>2779</v>
+        <v>2785</v>
       </c>
       <c r="B316" t="s" s="7">
         <v>631</v>
@@ -6212,7 +6158,7 @@
     </row>
     <row r="317">
       <c r="A317" s="6">
-        <v>2780</v>
+        <v>2786</v>
       </c>
       <c r="B317" t="s" s="7">
         <v>633</v>
@@ -6223,7 +6169,7 @@
     </row>
     <row r="318">
       <c r="A318" s="6">
-        <v>2781</v>
+        <v>2787</v>
       </c>
       <c r="B318" t="s" s="7">
         <v>635</v>
@@ -6234,7 +6180,7 @@
     </row>
     <row r="319">
       <c r="A319" s="6">
-        <v>2782</v>
+        <v>2788</v>
       </c>
       <c r="B319" t="s" s="7">
         <v>637</v>
@@ -6245,7 +6191,7 @@
     </row>
     <row r="320">
       <c r="A320" s="6">
-        <v>2783</v>
+        <v>2789</v>
       </c>
       <c r="B320" t="s" s="7">
         <v>639</v>
@@ -6256,7 +6202,7 @@
     </row>
     <row r="321">
       <c r="A321" s="6">
-        <v>2784</v>
+        <v>2790</v>
       </c>
       <c r="B321" t="s" s="7">
         <v>641</v>
@@ -6267,7 +6213,7 @@
     </row>
     <row r="322">
       <c r="A322" s="6">
-        <v>2785</v>
+        <v>2791</v>
       </c>
       <c r="B322" t="s" s="7">
         <v>643</v>
@@ -6278,7 +6224,7 @@
     </row>
     <row r="323">
       <c r="A323" s="6">
-        <v>2786</v>
+        <v>2792</v>
       </c>
       <c r="B323" t="s" s="7">
         <v>645</v>
@@ -6289,7 +6235,7 @@
     </row>
     <row r="324">
       <c r="A324" s="6">
-        <v>2787</v>
+        <v>2793</v>
       </c>
       <c r="B324" t="s" s="7">
         <v>647</v>
@@ -6300,7 +6246,7 @@
     </row>
     <row r="325">
       <c r="A325" s="6">
-        <v>2788</v>
+        <v>2794</v>
       </c>
       <c r="B325" t="s" s="7">
         <v>649</v>
@@ -6311,7 +6257,7 @@
     </row>
     <row r="326">
       <c r="A326" s="6">
-        <v>2789</v>
+        <v>2795</v>
       </c>
       <c r="B326" t="s" s="7">
         <v>651</v>
@@ -6322,84 +6268,84 @@
     </row>
     <row r="327">
       <c r="A327" s="6">
-        <v>2790</v>
+        <v>2796</v>
       </c>
       <c r="B327" t="s" s="7">
         <v>653</v>
       </c>
       <c r="C327" t="s" s="8">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="6">
-        <v>2791</v>
+        <v>2797</v>
       </c>
       <c r="B328" t="s" s="7">
+        <v>654</v>
+      </c>
+      <c r="C328" t="s" s="8">
         <v>655</v>
-      </c>
-      <c r="C328" t="s" s="8">
-        <v>656</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="6">
-        <v>2792</v>
+        <v>2798</v>
       </c>
       <c r="B329" t="s" s="7">
+        <v>656</v>
+      </c>
+      <c r="C329" t="s" s="8">
         <v>657</v>
-      </c>
-      <c r="C329" t="s" s="8">
-        <v>658</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="6">
-        <v>2793</v>
+        <v>2799</v>
       </c>
       <c r="B330" t="s" s="7">
+        <v>658</v>
+      </c>
+      <c r="C330" t="s" s="8">
         <v>659</v>
-      </c>
-      <c r="C330" t="s" s="8">
-        <v>660</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="6">
-        <v>2794</v>
+        <v>2800</v>
       </c>
       <c r="B331" t="s" s="7">
+        <v>660</v>
+      </c>
+      <c r="C331" t="s" s="8">
         <v>661</v>
-      </c>
-      <c r="C331" t="s" s="8">
-        <v>662</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="6">
-        <v>2795</v>
+        <v>2801</v>
       </c>
       <c r="B332" t="s" s="7">
+        <v>662</v>
+      </c>
+      <c r="C332" t="s" s="8">
         <v>663</v>
-      </c>
-      <c r="C332" t="s" s="8">
-        <v>664</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="6">
-        <v>2796</v>
+        <v>2802</v>
       </c>
       <c r="B333" t="s" s="7">
+        <v>664</v>
+      </c>
+      <c r="C333" t="s" s="8">
         <v>665</v>
-      </c>
-      <c r="C333" t="s" s="8">
-        <v>664</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="6">
-        <v>2797</v>
+        <v>2803</v>
       </c>
       <c r="B334" t="s" s="7">
         <v>666</v>
@@ -6410,7 +6356,7 @@
     </row>
     <row r="335">
       <c r="A335" s="6">
-        <v>2798</v>
+        <v>2804</v>
       </c>
       <c r="B335" t="s" s="7">
         <v>668</v>
@@ -6421,7 +6367,7 @@
     </row>
     <row r="336">
       <c r="A336" s="6">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="B336" t="s" s="7">
         <v>670</v>
@@ -6432,7 +6378,7 @@
     </row>
     <row r="337">
       <c r="A337" s="6">
-        <v>2800</v>
+        <v>2806</v>
       </c>
       <c r="B337" t="s" s="7">
         <v>672</v>
@@ -6443,7 +6389,7 @@
     </row>
     <row r="338">
       <c r="A338" s="6">
-        <v>2801</v>
+        <v>2807</v>
       </c>
       <c r="B338" t="s" s="7">
         <v>674</v>
@@ -6454,7 +6400,7 @@
     </row>
     <row r="339">
       <c r="A339" s="6">
-        <v>2802</v>
+        <v>2808</v>
       </c>
       <c r="B339" t="s" s="7">
         <v>676</v>
@@ -6465,7 +6411,7 @@
     </row>
     <row r="340">
       <c r="A340" s="6">
-        <v>2803</v>
+        <v>2809</v>
       </c>
       <c r="B340" t="s" s="7">
         <v>678</v>
@@ -6476,7 +6422,7 @@
     </row>
     <row r="341">
       <c r="A341" s="6">
-        <v>2804</v>
+        <v>2810</v>
       </c>
       <c r="B341" t="s" s="7">
         <v>680</v>
@@ -6487,7 +6433,7 @@
     </row>
     <row r="342">
       <c r="A342" s="6">
-        <v>2805</v>
+        <v>2811</v>
       </c>
       <c r="B342" t="s" s="7">
         <v>682</v>
@@ -6498,7 +6444,7 @@
     </row>
     <row r="343">
       <c r="A343" s="6">
-        <v>2806</v>
+        <v>2812</v>
       </c>
       <c r="B343" t="s" s="7">
         <v>684</v>
@@ -6509,7 +6455,7 @@
     </row>
     <row r="344">
       <c r="A344" s="6">
-        <v>2807</v>
+        <v>2813</v>
       </c>
       <c r="B344" t="s" s="7">
         <v>686</v>
@@ -6520,7 +6466,7 @@
     </row>
     <row r="345">
       <c r="A345" s="6">
-        <v>2808</v>
+        <v>2814</v>
       </c>
       <c r="B345" t="s" s="7">
         <v>688</v>
@@ -6531,7 +6477,7 @@
     </row>
     <row r="346">
       <c r="A346" s="6">
-        <v>2809</v>
+        <v>2815</v>
       </c>
       <c r="B346" t="s" s="7">
         <v>690</v>
@@ -6542,7 +6488,7 @@
     </row>
     <row r="347">
       <c r="A347" s="6">
-        <v>2810</v>
+        <v>2816</v>
       </c>
       <c r="B347" t="s" s="7">
         <v>692</v>
@@ -6553,7 +6499,7 @@
     </row>
     <row r="348">
       <c r="A348" s="6">
-        <v>2811</v>
+        <v>2817</v>
       </c>
       <c r="B348" t="s" s="7">
         <v>694</v>
@@ -6564,7 +6510,7 @@
     </row>
     <row r="349">
       <c r="A349" s="6">
-        <v>2812</v>
+        <v>2818</v>
       </c>
       <c r="B349" t="s" s="7">
         <v>696</v>
@@ -6575,7 +6521,7 @@
     </row>
     <row r="350">
       <c r="A350" s="6">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="B350" t="s" s="7">
         <v>698</v>
@@ -6586,7 +6532,7 @@
     </row>
     <row r="351">
       <c r="A351" s="6">
-        <v>2814</v>
+        <v>2820</v>
       </c>
       <c r="B351" t="s" s="7">
         <v>700</v>
@@ -6597,7 +6543,7 @@
     </row>
     <row r="352">
       <c r="A352" s="6">
-        <v>2815</v>
+        <v>2821</v>
       </c>
       <c r="B352" t="s" s="7">
         <v>702</v>
@@ -6608,7 +6554,7 @@
     </row>
     <row r="353">
       <c r="A353" s="6">
-        <v>2816</v>
+        <v>2822</v>
       </c>
       <c r="B353" t="s" s="7">
         <v>704</v>
@@ -6619,7 +6565,7 @@
     </row>
     <row r="354">
       <c r="A354" s="6">
-        <v>2817</v>
+        <v>2823</v>
       </c>
       <c r="B354" t="s" s="7">
         <v>706</v>
@@ -6630,7 +6576,7 @@
     </row>
     <row r="355">
       <c r="A355" s="6">
-        <v>2818</v>
+        <v>2824</v>
       </c>
       <c r="B355" t="s" s="7">
         <v>708</v>
@@ -6641,7 +6587,7 @@
     </row>
     <row r="356">
       <c r="A356" s="6">
-        <v>2819</v>
+        <v>2825</v>
       </c>
       <c r="B356" t="s" s="7">
         <v>710</v>
@@ -6652,7 +6598,7 @@
     </row>
     <row r="357">
       <c r="A357" s="6">
-        <v>2820</v>
+        <v>2826</v>
       </c>
       <c r="B357" t="s" s="7">
         <v>712</v>
@@ -6663,7 +6609,7 @@
     </row>
     <row r="358">
       <c r="A358" s="6">
-        <v>2821</v>
+        <v>2827</v>
       </c>
       <c r="B358" t="s" s="7">
         <v>714</v>
@@ -6674,7 +6620,7 @@
     </row>
     <row r="359">
       <c r="A359" s="6">
-        <v>2822</v>
+        <v>2828</v>
       </c>
       <c r="B359" t="s" s="7">
         <v>716</v>
@@ -6685,7 +6631,7 @@
     </row>
     <row r="360">
       <c r="A360" s="6">
-        <v>2823</v>
+        <v>2829</v>
       </c>
       <c r="B360" t="s" s="7">
         <v>718</v>
@@ -6696,7 +6642,7 @@
     </row>
     <row r="361">
       <c r="A361" s="6">
-        <v>2824</v>
+        <v>2830</v>
       </c>
       <c r="B361" t="s" s="7">
         <v>720</v>
@@ -6707,7 +6653,7 @@
     </row>
     <row r="362">
       <c r="A362" s="6">
-        <v>2825</v>
+        <v>2831</v>
       </c>
       <c r="B362" t="s" s="7">
         <v>722</v>
@@ -6718,7 +6664,7 @@
     </row>
     <row r="363">
       <c r="A363" s="6">
-        <v>2826</v>
+        <v>2832</v>
       </c>
       <c r="B363" t="s" s="7">
         <v>724</v>
@@ -6729,7 +6675,7 @@
     </row>
     <row r="364">
       <c r="A364" s="6">
-        <v>2827</v>
+        <v>2833</v>
       </c>
       <c r="B364" t="s" s="7">
         <v>726</v>
@@ -6740,7 +6686,7 @@
     </row>
     <row r="365">
       <c r="A365" s="6">
-        <v>2828</v>
+        <v>2834</v>
       </c>
       <c r="B365" t="s" s="7">
         <v>728</v>
@@ -6751,7 +6697,7 @@
     </row>
     <row r="366">
       <c r="A366" s="6">
-        <v>2829</v>
+        <v>2835</v>
       </c>
       <c r="B366" t="s" s="7">
         <v>730</v>
@@ -6762,7 +6708,7 @@
     </row>
     <row r="367">
       <c r="A367" s="6">
-        <v>2830</v>
+        <v>2836</v>
       </c>
       <c r="B367" t="s" s="7">
         <v>732</v>
@@ -6773,7 +6719,7 @@
     </row>
     <row r="368">
       <c r="A368" s="6">
-        <v>2831</v>
+        <v>2837</v>
       </c>
       <c r="B368" t="s" s="7">
         <v>734</v>
@@ -6784,7 +6730,7 @@
     </row>
     <row r="369">
       <c r="A369" s="6">
-        <v>2832</v>
+        <v>2838</v>
       </c>
       <c r="B369" t="s" s="7">
         <v>736</v>
@@ -6795,7 +6741,7 @@
     </row>
     <row r="370">
       <c r="A370" s="6">
-        <v>2833</v>
+        <v>2839</v>
       </c>
       <c r="B370" t="s" s="7">
         <v>738</v>
@@ -6806,7 +6752,7 @@
     </row>
     <row r="371">
       <c r="A371" s="6">
-        <v>2834</v>
+        <v>2840</v>
       </c>
       <c r="B371" t="s" s="7">
         <v>740</v>
@@ -6817,7 +6763,7 @@
     </row>
     <row r="372">
       <c r="A372" s="6">
-        <v>2835</v>
+        <v>2841</v>
       </c>
       <c r="B372" t="s" s="7">
         <v>742</v>
@@ -6828,7 +6774,7 @@
     </row>
     <row r="373">
       <c r="A373" s="6">
-        <v>2836</v>
+        <v>2842</v>
       </c>
       <c r="B373" t="s" s="7">
         <v>744</v>
@@ -6839,7 +6785,7 @@
     </row>
     <row r="374">
       <c r="A374" s="6">
-        <v>2837</v>
+        <v>2843</v>
       </c>
       <c r="B374" t="s" s="7">
         <v>746</v>
@@ -6850,7 +6796,7 @@
     </row>
     <row r="375">
       <c r="A375" s="6">
-        <v>2838</v>
+        <v>2844</v>
       </c>
       <c r="B375" t="s" s="7">
         <v>748</v>
@@ -6861,7 +6807,7 @@
     </row>
     <row r="376">
       <c r="A376" s="6">
-        <v>2839</v>
+        <v>2845</v>
       </c>
       <c r="B376" t="s" s="7">
         <v>750</v>
@@ -6872,7 +6818,7 @@
     </row>
     <row r="377">
       <c r="A377" s="6">
-        <v>2840</v>
+        <v>2846</v>
       </c>
       <c r="B377" t="s" s="7">
         <v>752</v>
@@ -6883,7 +6829,7 @@
     </row>
     <row r="378">
       <c r="A378" s="6">
-        <v>2841</v>
+        <v>2847</v>
       </c>
       <c r="B378" t="s" s="7">
         <v>754</v>
@@ -6894,7 +6840,7 @@
     </row>
     <row r="379">
       <c r="A379" s="6">
-        <v>2842</v>
+        <v>2848</v>
       </c>
       <c r="B379" t="s" s="7">
         <v>756</v>
@@ -6905,7 +6851,7 @@
     </row>
     <row r="380">
       <c r="A380" s="6">
-        <v>2843</v>
+        <v>2849</v>
       </c>
       <c r="B380" t="s" s="7">
         <v>758</v>
@@ -6916,7 +6862,7 @@
     </row>
     <row r="381">
       <c r="A381" s="6">
-        <v>2844</v>
+        <v>2850</v>
       </c>
       <c r="B381" t="s" s="7">
         <v>760</v>
@@ -6927,7 +6873,7 @@
     </row>
     <row r="382">
       <c r="A382" s="6">
-        <v>2845</v>
+        <v>2851</v>
       </c>
       <c r="B382" t="s" s="7">
         <v>762</v>
@@ -6938,7 +6884,7 @@
     </row>
     <row r="383">
       <c r="A383" s="6">
-        <v>2846</v>
+        <v>2852</v>
       </c>
       <c r="B383" t="s" s="7">
         <v>764</v>
@@ -6949,7 +6895,7 @@
     </row>
     <row r="384">
       <c r="A384" s="6">
-        <v>2847</v>
+        <v>2853</v>
       </c>
       <c r="B384" t="s" s="7">
         <v>766</v>
@@ -6960,7 +6906,7 @@
     </row>
     <row r="385">
       <c r="A385" s="6">
-        <v>2848</v>
+        <v>2854</v>
       </c>
       <c r="B385" t="s" s="7">
         <v>768</v>
@@ -6971,7 +6917,7 @@
     </row>
     <row r="386">
       <c r="A386" s="6">
-        <v>2849</v>
+        <v>2855</v>
       </c>
       <c r="B386" t="s" s="7">
         <v>770</v>
@@ -6982,7 +6928,7 @@
     </row>
     <row r="387">
       <c r="A387" s="6">
-        <v>2850</v>
+        <v>2856</v>
       </c>
       <c r="B387" t="s" s="7">
         <v>772</v>
@@ -6993,7 +6939,7 @@
     </row>
     <row r="388">
       <c r="A388" s="6">
-        <v>2851</v>
+        <v>2857</v>
       </c>
       <c r="B388" t="s" s="7">
         <v>774</v>
@@ -7004,7 +6950,7 @@
     </row>
     <row r="389">
       <c r="A389" s="6">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="B389" t="s" s="7">
         <v>776</v>
@@ -7015,7 +6961,7 @@
     </row>
     <row r="390">
       <c r="A390" s="6">
-        <v>2853</v>
+        <v>2859</v>
       </c>
       <c r="B390" t="s" s="7">
         <v>778</v>
@@ -7026,7 +6972,7 @@
     </row>
     <row r="391">
       <c r="A391" s="6">
-        <v>2854</v>
+        <v>2860</v>
       </c>
       <c r="B391" t="s" s="7">
         <v>780</v>
@@ -7037,7 +6983,7 @@
     </row>
     <row r="392">
       <c r="A392" s="6">
-        <v>2855</v>
+        <v>2861</v>
       </c>
       <c r="B392" t="s" s="7">
         <v>782</v>
@@ -7048,7 +6994,7 @@
     </row>
     <row r="393">
       <c r="A393" s="6">
-        <v>2856</v>
+        <v>2862</v>
       </c>
       <c r="B393" t="s" s="7">
         <v>784</v>
@@ -7059,7 +7005,7 @@
     </row>
     <row r="394">
       <c r="A394" s="6">
-        <v>2857</v>
+        <v>2863</v>
       </c>
       <c r="B394" t="s" s="7">
         <v>786</v>
@@ -7070,7 +7016,7 @@
     </row>
     <row r="395">
       <c r="A395" s="6">
-        <v>2858</v>
+        <v>2864</v>
       </c>
       <c r="B395" t="s" s="7">
         <v>788</v>
@@ -7081,7 +7027,7 @@
     </row>
     <row r="396">
       <c r="A396" s="6">
-        <v>2859</v>
+        <v>2865</v>
       </c>
       <c r="B396" t="s" s="7">
         <v>790</v>
@@ -7092,7 +7038,7 @@
     </row>
     <row r="397">
       <c r="A397" s="6">
-        <v>2860</v>
+        <v>2866</v>
       </c>
       <c r="B397" t="s" s="7">
         <v>792</v>
@@ -7103,7 +7049,7 @@
     </row>
     <row r="398">
       <c r="A398" s="6">
-        <v>2861</v>
+        <v>2867</v>
       </c>
       <c r="B398" t="s" s="7">
         <v>794</v>
@@ -7114,7 +7060,7 @@
     </row>
     <row r="399">
       <c r="A399" s="6">
-        <v>2862</v>
+        <v>2868</v>
       </c>
       <c r="B399" t="s" s="7">
         <v>796</v>
@@ -7125,7 +7071,7 @@
     </row>
     <row r="400">
       <c r="A400" s="6">
-        <v>2863</v>
+        <v>2869</v>
       </c>
       <c r="B400" t="s" s="7">
         <v>798</v>
@@ -7136,7 +7082,7 @@
     </row>
     <row r="401">
       <c r="A401" s="6">
-        <v>2864</v>
+        <v>2870</v>
       </c>
       <c r="B401" t="s" s="7">
         <v>800</v>
@@ -7147,7 +7093,7 @@
     </row>
     <row r="402">
       <c r="A402" s="6">
-        <v>2865</v>
+        <v>2871</v>
       </c>
       <c r="B402" t="s" s="7">
         <v>802</v>
@@ -7158,7 +7104,7 @@
     </row>
     <row r="403">
       <c r="A403" s="6">
-        <v>2866</v>
+        <v>2872</v>
       </c>
       <c r="B403" t="s" s="7">
         <v>804</v>
@@ -7169,7 +7115,7 @@
     </row>
     <row r="404">
       <c r="A404" s="6">
-        <v>2867</v>
+        <v>2873</v>
       </c>
       <c r="B404" t="s" s="7">
         <v>806</v>
@@ -7180,7 +7126,7 @@
     </row>
     <row r="405">
       <c r="A405" s="6">
-        <v>2868</v>
+        <v>2875</v>
       </c>
       <c r="B405" t="s" s="7">
         <v>808</v>
@@ -7191,7 +7137,7 @@
     </row>
     <row r="406">
       <c r="A406" s="6">
-        <v>2869</v>
+        <v>2876</v>
       </c>
       <c r="B406" t="s" s="7">
         <v>810</v>
@@ -7202,7 +7148,7 @@
     </row>
     <row r="407">
       <c r="A407" s="6">
-        <v>2870</v>
+        <v>2877</v>
       </c>
       <c r="B407" t="s" s="7">
         <v>812</v>
@@ -7213,7 +7159,7 @@
     </row>
     <row r="408">
       <c r="A408" s="6">
-        <v>2871</v>
+        <v>2879</v>
       </c>
       <c r="B408" t="s" s="7">
         <v>814</v>
@@ -7224,7 +7170,7 @@
     </row>
     <row r="409">
       <c r="A409" s="6">
-        <v>2872</v>
+        <v>2880</v>
       </c>
       <c r="B409" t="s" s="7">
         <v>816</v>
@@ -7235,7 +7181,7 @@
     </row>
     <row r="410">
       <c r="A410" s="6">
-        <v>2873</v>
+        <v>2881</v>
       </c>
       <c r="B410" t="s" s="7">
         <v>818</v>
@@ -7246,7 +7192,7 @@
     </row>
     <row r="411">
       <c r="A411" s="6">
-        <v>2874</v>
+        <v>2882</v>
       </c>
       <c r="B411" t="s" s="7">
         <v>820</v>
@@ -7257,7 +7203,7 @@
     </row>
     <row r="412">
       <c r="A412" s="6">
-        <v>2875</v>
+        <v>2883</v>
       </c>
       <c r="B412" t="s" s="7">
         <v>822</v>
@@ -7268,7 +7214,7 @@
     </row>
     <row r="413">
       <c r="A413" s="6">
-        <v>2876</v>
+        <v>2884</v>
       </c>
       <c r="B413" t="s" s="7">
         <v>824</v>
@@ -7279,7 +7225,7 @@
     </row>
     <row r="414">
       <c r="A414" s="6">
-        <v>2877</v>
+        <v>2885</v>
       </c>
       <c r="B414" t="s" s="7">
         <v>826</v>
@@ -7290,7 +7236,7 @@
     </row>
     <row r="415">
       <c r="A415" s="6">
-        <v>2878</v>
+        <v>2886</v>
       </c>
       <c r="B415" t="s" s="7">
         <v>828</v>
@@ -7301,7 +7247,7 @@
     </row>
     <row r="416">
       <c r="A416" s="6">
-        <v>2879</v>
+        <v>2888</v>
       </c>
       <c r="B416" t="s" s="7">
         <v>830</v>
@@ -7312,7 +7258,7 @@
     </row>
     <row r="417">
       <c r="A417" s="6">
-        <v>2880</v>
+        <v>2889</v>
       </c>
       <c r="B417" t="s" s="7">
         <v>832</v>
@@ -7323,7 +7269,7 @@
     </row>
     <row r="418">
       <c r="A418" s="6">
-        <v>2881</v>
+        <v>2890</v>
       </c>
       <c r="B418" t="s" s="7">
         <v>834</v>
@@ -7334,7 +7280,7 @@
     </row>
     <row r="419">
       <c r="A419" s="6">
-        <v>2882</v>
+        <v>2891</v>
       </c>
       <c r="B419" t="s" s="7">
         <v>836</v>
@@ -7345,7 +7291,7 @@
     </row>
     <row r="420">
       <c r="A420" s="6">
-        <v>2883</v>
+        <v>2892</v>
       </c>
       <c r="B420" t="s" s="7">
         <v>838</v>
@@ -7356,7 +7302,7 @@
     </row>
     <row r="421">
       <c r="A421" s="6">
-        <v>2884</v>
+        <v>2893</v>
       </c>
       <c r="B421" t="s" s="7">
         <v>840</v>
@@ -7367,7 +7313,7 @@
     </row>
     <row r="422">
       <c r="A422" s="6">
-        <v>2885</v>
+        <v>2894</v>
       </c>
       <c r="B422" t="s" s="7">
         <v>842</v>
@@ -7378,7 +7324,7 @@
     </row>
     <row r="423">
       <c r="A423" s="6">
-        <v>2886</v>
+        <v>2895</v>
       </c>
       <c r="B423" t="s" s="7">
         <v>844</v>
@@ -7389,7 +7335,7 @@
     </row>
     <row r="424">
       <c r="A424" s="6">
-        <v>2887</v>
+        <v>2896</v>
       </c>
       <c r="B424" t="s" s="7">
         <v>846</v>
@@ -7400,7 +7346,7 @@
     </row>
     <row r="425">
       <c r="A425" s="6">
-        <v>2888</v>
+        <v>2897</v>
       </c>
       <c r="B425" t="s" s="7">
         <v>848</v>
@@ -7411,7 +7357,7 @@
     </row>
     <row r="426">
       <c r="A426" s="6">
-        <v>2889</v>
+        <v>2898</v>
       </c>
       <c r="B426" t="s" s="7">
         <v>850</v>
@@ -7422,7 +7368,7 @@
     </row>
     <row r="427">
       <c r="A427" s="6">
-        <v>2890</v>
+        <v>2900</v>
       </c>
       <c r="B427" t="s" s="7">
         <v>852</v>
@@ -7433,7 +7379,7 @@
     </row>
     <row r="428">
       <c r="A428" s="6">
-        <v>2891</v>
+        <v>2901</v>
       </c>
       <c r="B428" t="s" s="7">
         <v>854</v>
@@ -7444,7 +7390,7 @@
     </row>
     <row r="429">
       <c r="A429" s="6">
-        <v>2892</v>
+        <v>2902</v>
       </c>
       <c r="B429" t="s" s="7">
         <v>856</v>
@@ -7455,7 +7401,7 @@
     </row>
     <row r="430">
       <c r="A430" s="6">
-        <v>2893</v>
+        <v>2904</v>
       </c>
       <c r="B430" t="s" s="7">
         <v>858</v>
@@ -7466,7 +7412,7 @@
     </row>
     <row r="431">
       <c r="A431" s="6">
-        <v>2894</v>
+        <v>5388536538</v>
       </c>
       <c r="B431" t="s" s="7">
         <v>860</v>
@@ -7477,112 +7423,13 @@
     </row>
     <row r="432">
       <c r="A432" s="6">
-        <v>2895</v>
+        <v>16152612577</v>
       </c>
       <c r="B432" t="s" s="7">
         <v>862</v>
       </c>
       <c r="C432" t="s" s="8">
         <v>863</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="6">
-        <v>2896</v>
-      </c>
-      <c r="B433" t="s" s="7">
-        <v>864</v>
-      </c>
-      <c r="C433" t="s" s="8">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="6">
-        <v>2897</v>
-      </c>
-      <c r="B434" t="s" s="7">
-        <v>866</v>
-      </c>
-      <c r="C434" t="s" s="8">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="6">
-        <v>2898</v>
-      </c>
-      <c r="B435" t="s" s="7">
-        <v>868</v>
-      </c>
-      <c r="C435" t="s" s="8">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="6">
-        <v>2900</v>
-      </c>
-      <c r="B436" t="s" s="7">
-        <v>870</v>
-      </c>
-      <c r="C436" t="s" s="8">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="6">
-        <v>2901</v>
-      </c>
-      <c r="B437" t="s" s="7">
-        <v>872</v>
-      </c>
-      <c r="C437" t="s" s="8">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="6">
-        <v>2902</v>
-      </c>
-      <c r="B438" t="s" s="7">
-        <v>874</v>
-      </c>
-      <c r="C438" t="s" s="8">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="6">
-        <v>2904</v>
-      </c>
-      <c r="B439" t="s" s="7">
-        <v>876</v>
-      </c>
-      <c r="C439" t="s" s="8">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="6">
-        <v>5388536538</v>
-      </c>
-      <c r="B440" t="s" s="7">
-        <v>878</v>
-      </c>
-      <c r="C440" t="s" s="8">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="6">
-        <v>16152612577</v>
-      </c>
-      <c r="B441" t="s" s="7">
-        <v>880</v>
-      </c>
-      <c r="C441" t="s" s="8">
-        <v>881</v>
       </c>
     </row>
   </sheetData>

--- a/raw/Languages.xlsx
+++ b/raw/Languages.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="852">
   <si>
     <t>Language_ID</t>
   </si>
@@ -212,6 +212,12 @@
     <t>indo1317</t>
   </si>
   <si>
+    <t>Balinese</t>
+  </si>
+  <si>
+    <t>bali1278</t>
+  </si>
+  <si>
     <t>Basque</t>
   </si>
   <si>
@@ -536,6 +542,12 @@
     <t>imba1240</t>
   </si>
   <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>russ1263</t>
+  </si>
+  <si>
     <t>Saliba (in PNG)</t>
   </si>
   <si>
@@ -920,12 +932,6 @@
     <t>baka1272</t>
   </si>
   <si>
-    <t>Banoni</t>
-  </si>
-  <si>
-    <t>bann1247</t>
-  </si>
-  <si>
     <t>Barasano</t>
   </si>
   <si>
@@ -1052,12 +1058,6 @@
     <t>cher1273</t>
   </si>
   <si>
-    <t>Chinantec (Lealao)</t>
-  </si>
-  <si>
-    <t>leal1235</t>
-  </si>
-  <si>
     <t>Choctaw</t>
   </si>
   <si>
@@ -1802,12 +1802,6 @@
     <t>miya1266</t>
   </si>
   <si>
-    <t>Mocoví</t>
-  </si>
-  <si>
-    <t>moco1246</t>
-  </si>
-  <si>
     <t>Mono (in United States)</t>
   </si>
   <si>
@@ -1838,12 +1832,6 @@
     <t>mund1325</t>
   </si>
   <si>
-    <t>Mundari</t>
-  </si>
-  <si>
-    <t>mund1320</t>
-  </si>
-  <si>
     <t>Mupun</t>
   </si>
   <si>
@@ -1886,12 +1874,6 @@
     <t>sout2994</t>
   </si>
   <si>
-    <t>Navajo</t>
-  </si>
-  <si>
-    <t>nava1243</t>
-  </si>
-  <si>
     <t>Ndebele (in South Africa)</t>
   </si>
   <si>
@@ -2003,12 +1985,6 @@
     <t>orya1242</t>
   </si>
   <si>
-    <t>Otomí (Mezquital)</t>
-  </si>
-  <si>
-    <t>mezq1235</t>
-  </si>
-  <si>
     <t>Paamese</t>
   </si>
   <si>
@@ -2261,24 +2237,12 @@
     <t>east2347</t>
   </si>
   <si>
-    <t>Tarao</t>
-  </si>
-  <si>
-    <t>tara1313</t>
-  </si>
-  <si>
     <t>Tauya</t>
   </si>
   <si>
     <t>tauy1241</t>
   </si>
   <si>
-    <t>Tepehuan (Northern)</t>
-  </si>
-  <si>
-    <t>nort2959</t>
-  </si>
-  <si>
     <t>Tepehuan (Southeastern)</t>
   </si>
   <si>
@@ -2501,12 +2465,6 @@
     <t>yany1243</t>
   </si>
   <si>
-    <t>Yawuru</t>
-  </si>
-  <si>
-    <t>yawu1244</t>
-  </si>
-  <si>
     <t>Yidiny</t>
   </si>
   <si>
@@ -2601,6 +2559,12 @@
   </si>
   <si>
     <t>sril1245</t>
+  </si>
+  <si>
+    <t>Nen</t>
+  </si>
+  <si>
+    <t>nenn1238</t>
   </si>
 </sst>
 </file>
@@ -3045,7 +3009,7 @@
     </row>
     <row r="34">
       <c r="A34" s="6">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s" s="7">
         <v>67</v>
@@ -3056,7 +3020,7 @@
     </row>
     <row r="35">
       <c r="A35" s="6">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s" s="7">
         <v>69</v>
@@ -3067,7 +3031,7 @@
     </row>
     <row r="36">
       <c r="A36" s="6">
-        <v>422</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="7">
         <v>71</v>
@@ -3078,7 +3042,7 @@
     </row>
     <row r="37">
       <c r="A37" s="6">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B37" t="s" s="7">
         <v>73</v>
@@ -3089,7 +3053,7 @@
     </row>
     <row r="38">
       <c r="A38" s="6">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="B38" t="s" s="7">
         <v>75</v>
@@ -3100,7 +3064,7 @@
     </row>
     <row r="39">
       <c r="A39" s="6">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="B39" t="s" s="7">
         <v>77</v>
@@ -3111,7 +3075,7 @@
     </row>
     <row r="40">
       <c r="A40" s="6">
-        <v>537</v>
+        <v>483</v>
       </c>
       <c r="B40" t="s" s="7">
         <v>79</v>
@@ -3122,7 +3086,7 @@
     </row>
     <row r="41">
       <c r="A41" s="6">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="B41" t="s" s="7">
         <v>81</v>
@@ -3133,7 +3097,7 @@
     </row>
     <row r="42">
       <c r="A42" s="6">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B42" t="s" s="7">
         <v>83</v>
@@ -3144,7 +3108,7 @@
     </row>
     <row r="43">
       <c r="A43" s="6">
-        <v>632</v>
+        <v>604</v>
       </c>
       <c r="B43" t="s" s="7">
         <v>85</v>
@@ -3155,7 +3119,7 @@
     </row>
     <row r="44">
       <c r="A44" s="6">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="B44" t="s" s="7">
         <v>87</v>
@@ -3166,7 +3130,7 @@
     </row>
     <row r="45">
       <c r="A45" s="6">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="B45" t="s" s="7">
         <v>89</v>
@@ -3177,7 +3141,7 @@
     </row>
     <row r="46">
       <c r="A46" s="6">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="B46" t="s" s="7">
         <v>91</v>
@@ -3188,7 +3152,7 @@
     </row>
     <row r="47">
       <c r="A47" s="6">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B47" t="s" s="7">
         <v>93</v>
@@ -3199,7 +3163,7 @@
     </row>
     <row r="48">
       <c r="A48" s="6">
-        <v>714</v>
+        <v>676</v>
       </c>
       <c r="B48" t="s" s="7">
         <v>95</v>
@@ -3210,7 +3174,7 @@
     </row>
     <row r="49">
       <c r="A49" s="6">
-        <v>815</v>
+        <v>714</v>
       </c>
       <c r="B49" t="s" s="7">
         <v>97</v>
@@ -3221,7 +3185,7 @@
     </row>
     <row r="50">
       <c r="A50" s="6">
-        <v>844</v>
+        <v>815</v>
       </c>
       <c r="B50" t="s" s="7">
         <v>99</v>
@@ -3232,7 +3196,7 @@
     </row>
     <row r="51">
       <c r="A51" s="6">
-        <v>866</v>
+        <v>844</v>
       </c>
       <c r="B51" t="s" s="7">
         <v>101</v>
@@ -3243,7 +3207,7 @@
     </row>
     <row r="52">
       <c r="A52" s="6">
-        <v>889</v>
+        <v>866</v>
       </c>
       <c r="B52" t="s" s="7">
         <v>103</v>
@@ -3254,7 +3218,7 @@
     </row>
     <row r="53">
       <c r="A53" s="6">
-        <v>921</v>
+        <v>889</v>
       </c>
       <c r="B53" t="s" s="7">
         <v>105</v>
@@ -3265,7 +3229,7 @@
     </row>
     <row r="54">
       <c r="A54" s="6">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="B54" t="s" s="7">
         <v>107</v>
@@ -3276,7 +3240,7 @@
     </row>
     <row r="55">
       <c r="A55" s="6">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B55" t="s" s="7">
         <v>109</v>
@@ -3287,7 +3251,7 @@
     </row>
     <row r="56">
       <c r="A56" s="6">
-        <v>943</v>
+        <v>929</v>
       </c>
       <c r="B56" t="s" s="7">
         <v>111</v>
@@ -3298,7 +3262,7 @@
     </row>
     <row r="57">
       <c r="A57" s="6">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B57" t="s" s="7">
         <v>113</v>
@@ -3309,7 +3273,7 @@
     </row>
     <row r="58">
       <c r="A58" s="6">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B58" t="s" s="7">
         <v>115</v>
@@ -3320,7 +3284,7 @@
     </row>
     <row r="59">
       <c r="A59" s="6">
-        <v>1052</v>
+        <v>950</v>
       </c>
       <c r="B59" t="s" s="7">
         <v>117</v>
@@ -3331,7 +3295,7 @@
     </row>
     <row r="60">
       <c r="A60" s="6">
-        <v>1071</v>
+        <v>1052</v>
       </c>
       <c r="B60" t="s" s="7">
         <v>119</v>
@@ -3342,7 +3306,7 @@
     </row>
     <row r="61">
       <c r="A61" s="6">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="B61" t="s" s="7">
         <v>121</v>
@@ -3353,7 +3317,7 @@
     </row>
     <row r="62">
       <c r="A62" s="6">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="B62" t="s" s="7">
         <v>123</v>
@@ -3364,7 +3328,7 @@
     </row>
     <row r="63">
       <c r="A63" s="6">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="B63" t="s" s="7">
         <v>125</v>
@@ -3375,7 +3339,7 @@
     </row>
     <row r="64">
       <c r="A64" s="6">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B64" t="s" s="7">
         <v>127</v>
@@ -3386,7 +3350,7 @@
     </row>
     <row r="65">
       <c r="A65" s="6">
-        <v>1133</v>
+        <v>1106</v>
       </c>
       <c r="B65" t="s" s="7">
         <v>129</v>
@@ -3397,7 +3361,7 @@
     </row>
     <row r="66">
       <c r="A66" s="6">
-        <v>1166</v>
+        <v>1133</v>
       </c>
       <c r="B66" t="s" s="7">
         <v>131</v>
@@ -3408,7 +3372,7 @@
     </row>
     <row r="67">
       <c r="A67" s="6">
-        <v>1179</v>
+        <v>1166</v>
       </c>
       <c r="B67" t="s" s="7">
         <v>133</v>
@@ -3419,7 +3383,7 @@
     </row>
     <row r="68">
       <c r="A68" s="6">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B68" t="s" s="7">
         <v>135</v>
@@ -3430,7 +3394,7 @@
     </row>
     <row r="69">
       <c r="A69" s="6">
-        <v>1241</v>
+        <v>1180</v>
       </c>
       <c r="B69" t="s" s="7">
         <v>137</v>
@@ -3441,7 +3405,7 @@
     </row>
     <row r="70">
       <c r="A70" s="6">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="B70" t="s" s="7">
         <v>139</v>
@@ -3452,7 +3416,7 @@
     </row>
     <row r="71">
       <c r="A71" s="6">
-        <v>1263</v>
+        <v>1253</v>
       </c>
       <c r="B71" t="s" s="7">
         <v>141</v>
@@ -3463,7 +3427,7 @@
     </row>
     <row r="72">
       <c r="A72" s="6">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B72" t="s" s="7">
         <v>143</v>
@@ -3474,7 +3438,7 @@
     </row>
     <row r="73">
       <c r="A73" s="6">
-        <v>1371</v>
+        <v>1264</v>
       </c>
       <c r="B73" t="s" s="7">
         <v>145</v>
@@ -3485,7 +3449,7 @@
     </row>
     <row r="74">
       <c r="A74" s="6">
-        <v>1387</v>
+        <v>1371</v>
       </c>
       <c r="B74" t="s" s="7">
         <v>147</v>
@@ -3496,7 +3460,7 @@
     </row>
     <row r="75">
       <c r="A75" s="6">
-        <v>1407</v>
+        <v>1387</v>
       </c>
       <c r="B75" t="s" s="7">
         <v>149</v>
@@ -3507,7 +3471,7 @@
     </row>
     <row r="76">
       <c r="A76" s="6">
-        <v>1426</v>
+        <v>1407</v>
       </c>
       <c r="B76" t="s" s="7">
         <v>151</v>
@@ -3518,7 +3482,7 @@
     </row>
     <row r="77">
       <c r="A77" s="6">
-        <v>1439</v>
+        <v>1426</v>
       </c>
       <c r="B77" t="s" s="7">
         <v>153</v>
@@ -3529,7 +3493,7 @@
     </row>
     <row r="78">
       <c r="A78" s="6">
-        <v>1556</v>
+        <v>1439</v>
       </c>
       <c r="B78" t="s" s="7">
         <v>155</v>
@@ -3540,7 +3504,7 @@
     </row>
     <row r="79">
       <c r="A79" s="6">
-        <v>1657</v>
+        <v>1556</v>
       </c>
       <c r="B79" t="s" s="7">
         <v>157</v>
@@ -3551,7 +3515,7 @@
     </row>
     <row r="80">
       <c r="A80" s="6">
-        <v>1755</v>
+        <v>1657</v>
       </c>
       <c r="B80" t="s" s="7">
         <v>159</v>
@@ -3562,7 +3526,7 @@
     </row>
     <row r="81">
       <c r="A81" s="6">
-        <v>1763</v>
+        <v>1755</v>
       </c>
       <c r="B81" t="s" s="7">
         <v>161</v>
@@ -3573,7 +3537,7 @@
     </row>
     <row r="82">
       <c r="A82" s="6">
-        <v>1776</v>
+        <v>1763</v>
       </c>
       <c r="B82" t="s" s="7">
         <v>163</v>
@@ -3584,7 +3548,7 @@
     </row>
     <row r="83">
       <c r="A83" s="6">
-        <v>1817</v>
+        <v>1776</v>
       </c>
       <c r="B83" t="s" s="7">
         <v>165</v>
@@ -3595,7 +3559,7 @@
     </row>
     <row r="84">
       <c r="A84" s="6">
-        <v>1839</v>
+        <v>1817</v>
       </c>
       <c r="B84" t="s" s="7">
         <v>167</v>
@@ -3606,7 +3570,7 @@
     </row>
     <row r="85">
       <c r="A85" s="6">
-        <v>1871</v>
+        <v>1839</v>
       </c>
       <c r="B85" t="s" s="7">
         <v>169</v>
@@ -3617,7 +3581,7 @@
     </row>
     <row r="86">
       <c r="A86" s="6">
-        <v>1893</v>
+        <v>1871</v>
       </c>
       <c r="B86" t="s" s="7">
         <v>171</v>
@@ -3628,7 +3592,7 @@
     </row>
     <row r="87">
       <c r="A87" s="6">
-        <v>1903</v>
+        <v>1893</v>
       </c>
       <c r="B87" t="s" s="7">
         <v>173</v>
@@ -3639,7 +3603,7 @@
     </row>
     <row r="88">
       <c r="A88" s="6">
-        <v>1972</v>
+        <v>1903</v>
       </c>
       <c r="B88" t="s" s="7">
         <v>175</v>
@@ -3650,7 +3614,7 @@
     </row>
     <row r="89">
       <c r="A89" s="6">
-        <v>2012</v>
+        <v>1955</v>
       </c>
       <c r="B89" t="s" s="7">
         <v>177</v>
@@ -3661,7 +3625,7 @@
     </row>
     <row r="90">
       <c r="A90" s="6">
-        <v>2020</v>
+        <v>1972</v>
       </c>
       <c r="B90" t="s" s="7">
         <v>179</v>
@@ -3672,7 +3636,7 @@
     </row>
     <row r="91">
       <c r="A91" s="6">
-        <v>2110</v>
+        <v>2012</v>
       </c>
       <c r="B91" t="s" s="7">
         <v>181</v>
@@ -3683,7 +3647,7 @@
     </row>
     <row r="92">
       <c r="A92" s="6">
-        <v>2115</v>
+        <v>2020</v>
       </c>
       <c r="B92" t="s" s="7">
         <v>183</v>
@@ -3694,7 +3658,7 @@
     </row>
     <row r="93">
       <c r="A93" s="6">
-        <v>2116</v>
+        <v>2110</v>
       </c>
       <c r="B93" t="s" s="7">
         <v>185</v>
@@ -3705,7 +3669,7 @@
     </row>
     <row r="94">
       <c r="A94" s="6">
-        <v>2181</v>
+        <v>2115</v>
       </c>
       <c r="B94" t="s" s="7">
         <v>187</v>
@@ -3716,7 +3680,7 @@
     </row>
     <row r="95">
       <c r="A95" s="6">
-        <v>2191</v>
+        <v>2116</v>
       </c>
       <c r="B95" t="s" s="7">
         <v>189</v>
@@ -3727,7 +3691,7 @@
     </row>
     <row r="96">
       <c r="A96" s="6">
-        <v>2225</v>
+        <v>2181</v>
       </c>
       <c r="B96" t="s" s="7">
         <v>191</v>
@@ -3738,7 +3702,7 @@
     </row>
     <row r="97">
       <c r="A97" s="6">
-        <v>2234</v>
+        <v>2191</v>
       </c>
       <c r="B97" t="s" s="7">
         <v>193</v>
@@ -3749,7 +3713,7 @@
     </row>
     <row r="98">
       <c r="A98" s="6">
-        <v>2239</v>
+        <v>2225</v>
       </c>
       <c r="B98" t="s" s="7">
         <v>195</v>
@@ -3760,7 +3724,7 @@
     </row>
     <row r="99">
       <c r="A99" s="6">
-        <v>2241</v>
+        <v>2234</v>
       </c>
       <c r="B99" t="s" s="7">
         <v>197</v>
@@ -3771,7 +3735,7 @@
     </row>
     <row r="100">
       <c r="A100" s="6">
-        <v>2264</v>
+        <v>2239</v>
       </c>
       <c r="B100" t="s" s="7">
         <v>199</v>
@@ -3782,7 +3746,7 @@
     </row>
     <row r="101">
       <c r="A101" s="6">
-        <v>2293</v>
+        <v>2241</v>
       </c>
       <c r="B101" t="s" s="7">
         <v>201</v>
@@ -3793,7 +3757,7 @@
     </row>
     <row r="102">
       <c r="A102" s="6">
-        <v>2298</v>
+        <v>2264</v>
       </c>
       <c r="B102" t="s" s="7">
         <v>203</v>
@@ -3804,7 +3768,7 @@
     </row>
     <row r="103">
       <c r="A103" s="6">
-        <v>2323</v>
+        <v>2293</v>
       </c>
       <c r="B103" t="s" s="7">
         <v>205</v>
@@ -3815,7 +3779,7 @@
     </row>
     <row r="104">
       <c r="A104" s="6">
-        <v>2359</v>
+        <v>2298</v>
       </c>
       <c r="B104" t="s" s="7">
         <v>207</v>
@@ -3826,7 +3790,7 @@
     </row>
     <row r="105">
       <c r="A105" s="6">
-        <v>2384</v>
+        <v>2323</v>
       </c>
       <c r="B105" t="s" s="7">
         <v>209</v>
@@ -3837,7 +3801,7 @@
     </row>
     <row r="106">
       <c r="A106" s="6">
-        <v>2433</v>
+        <v>2359</v>
       </c>
       <c r="B106" t="s" s="7">
         <v>211</v>
@@ -3848,7 +3812,7 @@
     </row>
     <row r="107">
       <c r="A107" s="6">
-        <v>2447</v>
+        <v>2384</v>
       </c>
       <c r="B107" t="s" s="7">
         <v>213</v>
@@ -3859,7 +3823,7 @@
     </row>
     <row r="108">
       <c r="A108" s="6">
-        <v>2471</v>
+        <v>2433</v>
       </c>
       <c r="B108" t="s" s="7">
         <v>215</v>
@@ -3870,7 +3834,7 @@
     </row>
     <row r="109">
       <c r="A109" s="6">
-        <v>2502</v>
+        <v>2447</v>
       </c>
       <c r="B109" t="s" s="7">
         <v>217</v>
@@ -3881,7 +3845,7 @@
     </row>
     <row r="110">
       <c r="A110" s="6">
-        <v>2507</v>
+        <v>2471</v>
       </c>
       <c r="B110" t="s" s="7">
         <v>219</v>
@@ -3892,7 +3856,7 @@
     </row>
     <row r="111">
       <c r="A111" s="6">
-        <v>2521</v>
+        <v>2502</v>
       </c>
       <c r="B111" t="s" s="7">
         <v>221</v>
@@ -3903,7 +3867,7 @@
     </row>
     <row r="112">
       <c r="A112" s="6">
-        <v>2539</v>
+        <v>2507</v>
       </c>
       <c r="B112" t="s" s="7">
         <v>223</v>
@@ -3914,7 +3878,7 @@
     </row>
     <row r="113">
       <c r="A113" s="6">
-        <v>2552</v>
+        <v>2521</v>
       </c>
       <c r="B113" t="s" s="7">
         <v>225</v>
@@ -3925,7 +3889,7 @@
     </row>
     <row r="114">
       <c r="A114" s="6">
-        <v>2556</v>
+        <v>2539</v>
       </c>
       <c r="B114" t="s" s="7">
         <v>227</v>
@@ -3936,7 +3900,7 @@
     </row>
     <row r="115">
       <c r="A115" s="6">
-        <v>2558</v>
+        <v>2552</v>
       </c>
       <c r="B115" t="s" s="7">
         <v>229</v>
@@ -3947,7 +3911,7 @@
     </row>
     <row r="116">
       <c r="A116" s="6">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="B116" t="s" s="7">
         <v>231</v>
@@ -3958,7 +3922,7 @@
     </row>
     <row r="117">
       <c r="A117" s="6">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="B117" t="s" s="7">
         <v>233</v>
@@ -3969,7 +3933,7 @@
     </row>
     <row r="118">
       <c r="A118" s="6">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="B118" t="s" s="7">
         <v>235</v>
@@ -3980,7 +3944,7 @@
     </row>
     <row r="119">
       <c r="A119" s="6">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="B119" t="s" s="7">
         <v>237</v>
@@ -3991,7 +3955,7 @@
     </row>
     <row r="120">
       <c r="A120" s="6">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="B120" t="s" s="7">
         <v>239</v>
@@ -4002,7 +3966,7 @@
     </row>
     <row r="121">
       <c r="A121" s="6">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="B121" t="s" s="7">
         <v>241</v>
@@ -4013,7 +3977,7 @@
     </row>
     <row r="122">
       <c r="A122" s="6">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="B122" t="s" s="7">
         <v>243</v>
@@ -4024,7 +3988,7 @@
     </row>
     <row r="123">
       <c r="A123" s="6">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="B123" t="s" s="7">
         <v>245</v>
@@ -4035,7 +3999,7 @@
     </row>
     <row r="124">
       <c r="A124" s="6">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="B124" t="s" s="7">
         <v>247</v>
@@ -4046,7 +4010,7 @@
     </row>
     <row r="125">
       <c r="A125" s="6">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="B125" t="s" s="7">
         <v>249</v>
@@ -4057,7 +4021,7 @@
     </row>
     <row r="126">
       <c r="A126" s="6">
-        <v>2573</v>
+        <v>2567</v>
       </c>
       <c r="B126" t="s" s="7">
         <v>251</v>
@@ -4068,7 +4032,7 @@
     </row>
     <row r="127">
       <c r="A127" s="6">
-        <v>2574</v>
+        <v>2568</v>
       </c>
       <c r="B127" t="s" s="7">
         <v>253</v>
@@ -4079,7 +4043,7 @@
     </row>
     <row r="128">
       <c r="A128" s="6">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="B128" t="s" s="7">
         <v>255</v>
@@ -4090,7 +4054,7 @@
     </row>
     <row r="129">
       <c r="A129" s="6">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="B129" t="s" s="7">
         <v>257</v>
@@ -4101,7 +4065,7 @@
     </row>
     <row r="130">
       <c r="A130" s="6">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="B130" t="s" s="7">
         <v>259</v>
@@ -4112,7 +4076,7 @@
     </row>
     <row r="131">
       <c r="A131" s="6">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="B131" t="s" s="7">
         <v>261</v>
@@ -4123,7 +4087,7 @@
     </row>
     <row r="132">
       <c r="A132" s="6">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="B132" t="s" s="7">
         <v>263</v>
@@ -4134,7 +4098,7 @@
     </row>
     <row r="133">
       <c r="A133" s="6">
-        <v>2582</v>
+        <v>2578</v>
       </c>
       <c r="B133" t="s" s="7">
         <v>265</v>
@@ -4145,7 +4109,7 @@
     </row>
     <row r="134">
       <c r="A134" s="6">
-        <v>2587</v>
+        <v>2579</v>
       </c>
       <c r="B134" t="s" s="7">
         <v>267</v>
@@ -4156,7 +4120,7 @@
     </row>
     <row r="135">
       <c r="A135" s="6">
-        <v>2590</v>
+        <v>2582</v>
       </c>
       <c r="B135" t="s" s="7">
         <v>269</v>
@@ -4167,7 +4131,7 @@
     </row>
     <row r="136">
       <c r="A136" s="6">
-        <v>2592</v>
+        <v>2587</v>
       </c>
       <c r="B136" t="s" s="7">
         <v>271</v>
@@ -4178,7 +4142,7 @@
     </row>
     <row r="137">
       <c r="A137" s="6">
-        <v>2593</v>
+        <v>2590</v>
       </c>
       <c r="B137" t="s" s="7">
         <v>273</v>
@@ -4189,7 +4153,7 @@
     </row>
     <row r="138">
       <c r="A138" s="6">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="B138" t="s" s="7">
         <v>275</v>
@@ -4200,7 +4164,7 @@
     </row>
     <row r="139">
       <c r="A139" s="6">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="B139" t="s" s="7">
         <v>277</v>
@@ -4211,7 +4175,7 @@
     </row>
     <row r="140">
       <c r="A140" s="6">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="B140" t="s" s="7">
         <v>279</v>
@@ -4222,7 +4186,7 @@
     </row>
     <row r="141">
       <c r="A141" s="6">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B141" t="s" s="7">
         <v>281</v>
@@ -4233,7 +4197,7 @@
     </row>
     <row r="142">
       <c r="A142" s="6">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="B142" t="s" s="7">
         <v>283</v>
@@ -4244,7 +4208,7 @@
     </row>
     <row r="143">
       <c r="A143" s="6">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="B143" t="s" s="7">
         <v>285</v>
@@ -4255,7 +4219,7 @@
     </row>
     <row r="144">
       <c r="A144" s="6">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="B144" t="s" s="7">
         <v>287</v>
@@ -4266,7 +4230,7 @@
     </row>
     <row r="145">
       <c r="A145" s="6">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="B145" t="s" s="7">
         <v>289</v>
@@ -4277,7 +4241,7 @@
     </row>
     <row r="146">
       <c r="A146" s="6">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="B146" t="s" s="7">
         <v>291</v>
@@ -4288,7 +4252,7 @@
     </row>
     <row r="147">
       <c r="A147" s="6">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="B147" t="s" s="7">
         <v>293</v>
@@ -4299,7 +4263,7 @@
     </row>
     <row r="148">
       <c r="A148" s="6">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="B148" t="s" s="7">
         <v>295</v>
@@ -4310,7 +4274,7 @@
     </row>
     <row r="149">
       <c r="A149" s="6">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="B149" t="s" s="7">
         <v>297</v>
@@ -4321,7 +4285,7 @@
     </row>
     <row r="150">
       <c r="A150" s="6">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="B150" t="s" s="7">
         <v>299</v>
@@ -4332,7 +4296,7 @@
     </row>
     <row r="151">
       <c r="A151" s="6">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="B151" t="s" s="7">
         <v>301</v>
@@ -4343,7 +4307,7 @@
     </row>
     <row r="152">
       <c r="A152" s="6">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="B152" t="s" s="7">
         <v>303</v>
@@ -4354,7 +4318,7 @@
     </row>
     <row r="153">
       <c r="A153" s="6">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="B153" t="s" s="7">
         <v>305</v>
@@ -4365,7 +4329,7 @@
     </row>
     <row r="154">
       <c r="A154" s="6">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="B154" t="s" s="7">
         <v>307</v>
@@ -4376,7 +4340,7 @@
     </row>
     <row r="155">
       <c r="A155" s="6">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="B155" t="s" s="7">
         <v>309</v>
@@ -4387,7 +4351,7 @@
     </row>
     <row r="156">
       <c r="A156" s="6">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="B156" t="s" s="7">
         <v>311</v>
@@ -4398,7 +4362,7 @@
     </row>
     <row r="157">
       <c r="A157" s="6">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="B157" t="s" s="7">
         <v>313</v>
@@ -4409,7 +4373,7 @@
     </row>
     <row r="158">
       <c r="A158" s="6">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="B158" t="s" s="7">
         <v>315</v>
@@ -4420,7 +4384,7 @@
     </row>
     <row r="159">
       <c r="A159" s="6">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="B159" t="s" s="7">
         <v>317</v>
@@ -4431,7 +4395,7 @@
     </row>
     <row r="160">
       <c r="A160" s="6">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="B160" t="s" s="7">
         <v>319</v>
@@ -4442,7 +4406,7 @@
     </row>
     <row r="161">
       <c r="A161" s="6">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="B161" t="s" s="7">
         <v>321</v>
@@ -4453,7 +4417,7 @@
     </row>
     <row r="162">
       <c r="A162" s="6">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="B162" t="s" s="7">
         <v>323</v>
@@ -4464,7 +4428,7 @@
     </row>
     <row r="163">
       <c r="A163" s="6">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="B163" t="s" s="7">
         <v>325</v>
@@ -4475,7 +4439,7 @@
     </row>
     <row r="164">
       <c r="A164" s="6">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="B164" t="s" s="7">
         <v>327</v>
@@ -4486,7 +4450,7 @@
     </row>
     <row r="165">
       <c r="A165" s="6">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="B165" t="s" s="7">
         <v>329</v>
@@ -4497,7 +4461,7 @@
     </row>
     <row r="166">
       <c r="A166" s="6">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="B166" t="s" s="7">
         <v>331</v>
@@ -4508,7 +4472,7 @@
     </row>
     <row r="167">
       <c r="A167" s="6">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="B167" t="s" s="7">
         <v>333</v>
@@ -4519,7 +4483,7 @@
     </row>
     <row r="168">
       <c r="A168" s="6">
-        <v>2629</v>
+        <v>2626</v>
       </c>
       <c r="B168" t="s" s="7">
         <v>335</v>
@@ -4530,7 +4494,7 @@
     </row>
     <row r="169">
       <c r="A169" s="6">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="B169" t="s" s="7">
         <v>337</v>
@@ -4541,7 +4505,7 @@
     </row>
     <row r="170">
       <c r="A170" s="6">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="B170" t="s" s="7">
         <v>339</v>
@@ -4552,7 +4516,7 @@
     </row>
     <row r="171">
       <c r="A171" s="6">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="B171" t="s" s="7">
         <v>341</v>
@@ -4563,7 +4527,7 @@
     </row>
     <row r="172">
       <c r="A172" s="6">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="B172" t="s" s="7">
         <v>343</v>
@@ -4574,7 +4538,7 @@
     </row>
     <row r="173">
       <c r="A173" s="6">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="B173" t="s" s="7">
         <v>345</v>
@@ -4585,7 +4549,7 @@
     </row>
     <row r="174">
       <c r="A174" s="6">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="B174" t="s" s="7">
         <v>347</v>
@@ -5960,7 +5924,7 @@
     </row>
     <row r="299">
       <c r="A299" s="6">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="B299" t="s" s="7">
         <v>597</v>
@@ -5971,7 +5935,7 @@
     </row>
     <row r="300">
       <c r="A300" s="6">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="B300" t="s" s="7">
         <v>599</v>
@@ -5982,7 +5946,7 @@
     </row>
     <row r="301">
       <c r="A301" s="6">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="B301" t="s" s="7">
         <v>601</v>
@@ -5993,7 +5957,7 @@
     </row>
     <row r="302">
       <c r="A302" s="6">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="B302" t="s" s="7">
         <v>603</v>
@@ -6004,7 +5968,7 @@
     </row>
     <row r="303">
       <c r="A303" s="6">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="B303" t="s" s="7">
         <v>605</v>
@@ -6015,7 +5979,7 @@
     </row>
     <row r="304">
       <c r="A304" s="6">
-        <v>2772</v>
+        <v>2774</v>
       </c>
       <c r="B304" t="s" s="7">
         <v>607</v>
@@ -6026,7 +5990,7 @@
     </row>
     <row r="305">
       <c r="A305" s="6">
-        <v>2773</v>
+        <v>2776</v>
       </c>
       <c r="B305" t="s" s="7">
         <v>609</v>
@@ -6037,7 +6001,7 @@
     </row>
     <row r="306">
       <c r="A306" s="6">
-        <v>2774</v>
+        <v>2777</v>
       </c>
       <c r="B306" t="s" s="7">
         <v>611</v>
@@ -6048,7 +6012,7 @@
     </row>
     <row r="307">
       <c r="A307" s="6">
-        <v>2776</v>
+        <v>2778</v>
       </c>
       <c r="B307" t="s" s="7">
         <v>613</v>
@@ -6059,7 +6023,7 @@
     </row>
     <row r="308">
       <c r="A308" s="6">
-        <v>2777</v>
+        <v>2779</v>
       </c>
       <c r="B308" t="s" s="7">
         <v>615</v>
@@ -6070,7 +6034,7 @@
     </row>
     <row r="309">
       <c r="A309" s="6">
-        <v>2778</v>
+        <v>2780</v>
       </c>
       <c r="B309" t="s" s="7">
         <v>617</v>
@@ -6081,7 +6045,7 @@
     </row>
     <row r="310">
       <c r="A310" s="6">
-        <v>2779</v>
+        <v>2781</v>
       </c>
       <c r="B310" t="s" s="7">
         <v>619</v>
@@ -6092,7 +6056,7 @@
     </row>
     <row r="311">
       <c r="A311" s="6">
-        <v>2780</v>
+        <v>2783</v>
       </c>
       <c r="B311" t="s" s="7">
         <v>621</v>
@@ -6103,7 +6067,7 @@
     </row>
     <row r="312">
       <c r="A312" s="6">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="B312" t="s" s="7">
         <v>623</v>
@@ -6114,7 +6078,7 @@
     </row>
     <row r="313">
       <c r="A313" s="6">
-        <v>2782</v>
+        <v>2785</v>
       </c>
       <c r="B313" t="s" s="7">
         <v>625</v>
@@ -6125,7 +6089,7 @@
     </row>
     <row r="314">
       <c r="A314" s="6">
-        <v>2783</v>
+        <v>2786</v>
       </c>
       <c r="B314" t="s" s="7">
         <v>627</v>
@@ -6136,7 +6100,7 @@
     </row>
     <row r="315">
       <c r="A315" s="6">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="B315" t="s" s="7">
         <v>629</v>
@@ -6147,7 +6111,7 @@
     </row>
     <row r="316">
       <c r="A316" s="6">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="B316" t="s" s="7">
         <v>631</v>
@@ -6158,7 +6122,7 @@
     </row>
     <row r="317">
       <c r="A317" s="6">
-        <v>2786</v>
+        <v>2789</v>
       </c>
       <c r="B317" t="s" s="7">
         <v>633</v>
@@ -6169,7 +6133,7 @@
     </row>
     <row r="318">
       <c r="A318" s="6">
-        <v>2787</v>
+        <v>2790</v>
       </c>
       <c r="B318" t="s" s="7">
         <v>635</v>
@@ -6180,7 +6144,7 @@
     </row>
     <row r="319">
       <c r="A319" s="6">
-        <v>2788</v>
+        <v>2791</v>
       </c>
       <c r="B319" t="s" s="7">
         <v>637</v>
@@ -6191,7 +6155,7 @@
     </row>
     <row r="320">
       <c r="A320" s="6">
-        <v>2789</v>
+        <v>2792</v>
       </c>
       <c r="B320" t="s" s="7">
         <v>639</v>
@@ -6202,7 +6166,7 @@
     </row>
     <row r="321">
       <c r="A321" s="6">
-        <v>2790</v>
+        <v>2793</v>
       </c>
       <c r="B321" t="s" s="7">
         <v>641</v>
@@ -6213,7 +6177,7 @@
     </row>
     <row r="322">
       <c r="A322" s="6">
-        <v>2791</v>
+        <v>2794</v>
       </c>
       <c r="B322" t="s" s="7">
         <v>643</v>
@@ -6224,7 +6188,7 @@
     </row>
     <row r="323">
       <c r="A323" s="6">
-        <v>2792</v>
+        <v>2795</v>
       </c>
       <c r="B323" t="s" s="7">
         <v>645</v>
@@ -6235,51 +6199,51 @@
     </row>
     <row r="324">
       <c r="A324" s="6">
-        <v>2793</v>
+        <v>2796</v>
       </c>
       <c r="B324" t="s" s="7">
         <v>647</v>
       </c>
       <c r="C324" t="s" s="8">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="6">
-        <v>2794</v>
+        <v>2797</v>
       </c>
       <c r="B325" t="s" s="7">
+        <v>648</v>
+      </c>
+      <c r="C325" t="s" s="8">
         <v>649</v>
-      </c>
-      <c r="C325" t="s" s="8">
-        <v>650</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="6">
-        <v>2795</v>
+        <v>2798</v>
       </c>
       <c r="B326" t="s" s="7">
+        <v>650</v>
+      </c>
+      <c r="C326" t="s" s="8">
         <v>651</v>
-      </c>
-      <c r="C326" t="s" s="8">
-        <v>652</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="6">
-        <v>2796</v>
+        <v>2799</v>
       </c>
       <c r="B327" t="s" s="7">
+        <v>652</v>
+      </c>
+      <c r="C327" t="s" s="8">
         <v>653</v>
-      </c>
-      <c r="C327" t="s" s="8">
-        <v>652</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="6">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="B328" t="s" s="7">
         <v>654</v>
@@ -6290,7 +6254,7 @@
     </row>
     <row r="329">
       <c r="A329" s="6">
-        <v>2798</v>
+        <v>2801</v>
       </c>
       <c r="B329" t="s" s="7">
         <v>656</v>
@@ -6301,7 +6265,7 @@
     </row>
     <row r="330">
       <c r="A330" s="6">
-        <v>2799</v>
+        <v>2803</v>
       </c>
       <c r="B330" t="s" s="7">
         <v>658</v>
@@ -6312,7 +6276,7 @@
     </row>
     <row r="331">
       <c r="A331" s="6">
-        <v>2800</v>
+        <v>2804</v>
       </c>
       <c r="B331" t="s" s="7">
         <v>660</v>
@@ -6323,7 +6287,7 @@
     </row>
     <row r="332">
       <c r="A332" s="6">
-        <v>2801</v>
+        <v>2805</v>
       </c>
       <c r="B332" t="s" s="7">
         <v>662</v>
@@ -6334,7 +6298,7 @@
     </row>
     <row r="333">
       <c r="A333" s="6">
-        <v>2802</v>
+        <v>2806</v>
       </c>
       <c r="B333" t="s" s="7">
         <v>664</v>
@@ -6345,7 +6309,7 @@
     </row>
     <row r="334">
       <c r="A334" s="6">
-        <v>2803</v>
+        <v>2807</v>
       </c>
       <c r="B334" t="s" s="7">
         <v>666</v>
@@ -6356,7 +6320,7 @@
     </row>
     <row r="335">
       <c r="A335" s="6">
-        <v>2804</v>
+        <v>2808</v>
       </c>
       <c r="B335" t="s" s="7">
         <v>668</v>
@@ -6367,7 +6331,7 @@
     </row>
     <row r="336">
       <c r="A336" s="6">
-        <v>2805</v>
+        <v>2809</v>
       </c>
       <c r="B336" t="s" s="7">
         <v>670</v>
@@ -6378,7 +6342,7 @@
     </row>
     <row r="337">
       <c r="A337" s="6">
-        <v>2806</v>
+        <v>2810</v>
       </c>
       <c r="B337" t="s" s="7">
         <v>672</v>
@@ -6389,7 +6353,7 @@
     </row>
     <row r="338">
       <c r="A338" s="6">
-        <v>2807</v>
+        <v>2811</v>
       </c>
       <c r="B338" t="s" s="7">
         <v>674</v>
@@ -6400,7 +6364,7 @@
     </row>
     <row r="339">
       <c r="A339" s="6">
-        <v>2808</v>
+        <v>2812</v>
       </c>
       <c r="B339" t="s" s="7">
         <v>676</v>
@@ -6411,7 +6375,7 @@
     </row>
     <row r="340">
       <c r="A340" s="6">
-        <v>2809</v>
+        <v>2813</v>
       </c>
       <c r="B340" t="s" s="7">
         <v>678</v>
@@ -6422,7 +6386,7 @@
     </row>
     <row r="341">
       <c r="A341" s="6">
-        <v>2810</v>
+        <v>2814</v>
       </c>
       <c r="B341" t="s" s="7">
         <v>680</v>
@@ -6433,7 +6397,7 @@
     </row>
     <row r="342">
       <c r="A342" s="6">
-        <v>2811</v>
+        <v>2815</v>
       </c>
       <c r="B342" t="s" s="7">
         <v>682</v>
@@ -6444,7 +6408,7 @@
     </row>
     <row r="343">
       <c r="A343" s="6">
-        <v>2812</v>
+        <v>2816</v>
       </c>
       <c r="B343" t="s" s="7">
         <v>684</v>
@@ -6455,7 +6419,7 @@
     </row>
     <row r="344">
       <c r="A344" s="6">
-        <v>2813</v>
+        <v>2817</v>
       </c>
       <c r="B344" t="s" s="7">
         <v>686</v>
@@ -6466,7 +6430,7 @@
     </row>
     <row r="345">
       <c r="A345" s="6">
-        <v>2814</v>
+        <v>2818</v>
       </c>
       <c r="B345" t="s" s="7">
         <v>688</v>
@@ -6477,7 +6441,7 @@
     </row>
     <row r="346">
       <c r="A346" s="6">
-        <v>2815</v>
+        <v>2819</v>
       </c>
       <c r="B346" t="s" s="7">
         <v>690</v>
@@ -6488,7 +6452,7 @@
     </row>
     <row r="347">
       <c r="A347" s="6">
-        <v>2816</v>
+        <v>2820</v>
       </c>
       <c r="B347" t="s" s="7">
         <v>692</v>
@@ -6499,7 +6463,7 @@
     </row>
     <row r="348">
       <c r="A348" s="6">
-        <v>2817</v>
+        <v>2821</v>
       </c>
       <c r="B348" t="s" s="7">
         <v>694</v>
@@ -6510,7 +6474,7 @@
     </row>
     <row r="349">
       <c r="A349" s="6">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="B349" t="s" s="7">
         <v>696</v>
@@ -6521,7 +6485,7 @@
     </row>
     <row r="350">
       <c r="A350" s="6">
-        <v>2819</v>
+        <v>2823</v>
       </c>
       <c r="B350" t="s" s="7">
         <v>698</v>
@@ -6532,7 +6496,7 @@
     </row>
     <row r="351">
       <c r="A351" s="6">
-        <v>2820</v>
+        <v>2824</v>
       </c>
       <c r="B351" t="s" s="7">
         <v>700</v>
@@ -6543,7 +6507,7 @@
     </row>
     <row r="352">
       <c r="A352" s="6">
-        <v>2821</v>
+        <v>2825</v>
       </c>
       <c r="B352" t="s" s="7">
         <v>702</v>
@@ -6554,7 +6518,7 @@
     </row>
     <row r="353">
       <c r="A353" s="6">
-        <v>2822</v>
+        <v>2826</v>
       </c>
       <c r="B353" t="s" s="7">
         <v>704</v>
@@ -6565,7 +6529,7 @@
     </row>
     <row r="354">
       <c r="A354" s="6">
-        <v>2823</v>
+        <v>2827</v>
       </c>
       <c r="B354" t="s" s="7">
         <v>706</v>
@@ -6576,7 +6540,7 @@
     </row>
     <row r="355">
       <c r="A355" s="6">
-        <v>2824</v>
+        <v>2828</v>
       </c>
       <c r="B355" t="s" s="7">
         <v>708</v>
@@ -6587,7 +6551,7 @@
     </row>
     <row r="356">
       <c r="A356" s="6">
-        <v>2825</v>
+        <v>2829</v>
       </c>
       <c r="B356" t="s" s="7">
         <v>710</v>
@@ -6598,7 +6562,7 @@
     </row>
     <row r="357">
       <c r="A357" s="6">
-        <v>2826</v>
+        <v>2830</v>
       </c>
       <c r="B357" t="s" s="7">
         <v>712</v>
@@ -6609,7 +6573,7 @@
     </row>
     <row r="358">
       <c r="A358" s="6">
-        <v>2827</v>
+        <v>2831</v>
       </c>
       <c r="B358" t="s" s="7">
         <v>714</v>
@@ -6620,7 +6584,7 @@
     </row>
     <row r="359">
       <c r="A359" s="6">
-        <v>2828</v>
+        <v>2832</v>
       </c>
       <c r="B359" t="s" s="7">
         <v>716</v>
@@ -6631,7 +6595,7 @@
     </row>
     <row r="360">
       <c r="A360" s="6">
-        <v>2829</v>
+        <v>2833</v>
       </c>
       <c r="B360" t="s" s="7">
         <v>718</v>
@@ -6642,7 +6606,7 @@
     </row>
     <row r="361">
       <c r="A361" s="6">
-        <v>2830</v>
+        <v>2834</v>
       </c>
       <c r="B361" t="s" s="7">
         <v>720</v>
@@ -6653,7 +6617,7 @@
     </row>
     <row r="362">
       <c r="A362" s="6">
-        <v>2831</v>
+        <v>2835</v>
       </c>
       <c r="B362" t="s" s="7">
         <v>722</v>
@@ -6664,7 +6628,7 @@
     </row>
     <row r="363">
       <c r="A363" s="6">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="B363" t="s" s="7">
         <v>724</v>
@@ -6675,7 +6639,7 @@
     </row>
     <row r="364">
       <c r="A364" s="6">
-        <v>2833</v>
+        <v>2837</v>
       </c>
       <c r="B364" t="s" s="7">
         <v>726</v>
@@ -6686,7 +6650,7 @@
     </row>
     <row r="365">
       <c r="A365" s="6">
-        <v>2834</v>
+        <v>2838</v>
       </c>
       <c r="B365" t="s" s="7">
         <v>728</v>
@@ -6697,7 +6661,7 @@
     </row>
     <row r="366">
       <c r="A366" s="6">
-        <v>2835</v>
+        <v>2839</v>
       </c>
       <c r="B366" t="s" s="7">
         <v>730</v>
@@ -6708,7 +6672,7 @@
     </row>
     <row r="367">
       <c r="A367" s="6">
-        <v>2836</v>
+        <v>2840</v>
       </c>
       <c r="B367" t="s" s="7">
         <v>732</v>
@@ -6719,7 +6683,7 @@
     </row>
     <row r="368">
       <c r="A368" s="6">
-        <v>2837</v>
+        <v>2841</v>
       </c>
       <c r="B368" t="s" s="7">
         <v>734</v>
@@ -6730,7 +6694,7 @@
     </row>
     <row r="369">
       <c r="A369" s="6">
-        <v>2838</v>
+        <v>2842</v>
       </c>
       <c r="B369" t="s" s="7">
         <v>736</v>
@@ -6741,7 +6705,7 @@
     </row>
     <row r="370">
       <c r="A370" s="6">
-        <v>2839</v>
+        <v>2843</v>
       </c>
       <c r="B370" t="s" s="7">
         <v>738</v>
@@ -6752,7 +6716,7 @@
     </row>
     <row r="371">
       <c r="A371" s="6">
-        <v>2840</v>
+        <v>2844</v>
       </c>
       <c r="B371" t="s" s="7">
         <v>740</v>
@@ -6763,7 +6727,7 @@
     </row>
     <row r="372">
       <c r="A372" s="6">
-        <v>2841</v>
+        <v>2846</v>
       </c>
       <c r="B372" t="s" s="7">
         <v>742</v>
@@ -6774,7 +6738,7 @@
     </row>
     <row r="373">
       <c r="A373" s="6">
-        <v>2842</v>
+        <v>2848</v>
       </c>
       <c r="B373" t="s" s="7">
         <v>744</v>
@@ -6785,7 +6749,7 @@
     </row>
     <row r="374">
       <c r="A374" s="6">
-        <v>2843</v>
+        <v>2849</v>
       </c>
       <c r="B374" t="s" s="7">
         <v>746</v>
@@ -6796,7 +6760,7 @@
     </row>
     <row r="375">
       <c r="A375" s="6">
-        <v>2844</v>
+        <v>2850</v>
       </c>
       <c r="B375" t="s" s="7">
         <v>748</v>
@@ -6807,7 +6771,7 @@
     </row>
     <row r="376">
       <c r="A376" s="6">
-        <v>2845</v>
+        <v>2851</v>
       </c>
       <c r="B376" t="s" s="7">
         <v>750</v>
@@ -6818,7 +6782,7 @@
     </row>
     <row r="377">
       <c r="A377" s="6">
-        <v>2846</v>
+        <v>2852</v>
       </c>
       <c r="B377" t="s" s="7">
         <v>752</v>
@@ -6829,7 +6793,7 @@
     </row>
     <row r="378">
       <c r="A378" s="6">
-        <v>2847</v>
+        <v>2853</v>
       </c>
       <c r="B378" t="s" s="7">
         <v>754</v>
@@ -6840,7 +6804,7 @@
     </row>
     <row r="379">
       <c r="A379" s="6">
-        <v>2848</v>
+        <v>2854</v>
       </c>
       <c r="B379" t="s" s="7">
         <v>756</v>
@@ -6851,7 +6815,7 @@
     </row>
     <row r="380">
       <c r="A380" s="6">
-        <v>2849</v>
+        <v>2855</v>
       </c>
       <c r="B380" t="s" s="7">
         <v>758</v>
@@ -6862,7 +6826,7 @@
     </row>
     <row r="381">
       <c r="A381" s="6">
-        <v>2850</v>
+        <v>2856</v>
       </c>
       <c r="B381" t="s" s="7">
         <v>760</v>
@@ -6873,7 +6837,7 @@
     </row>
     <row r="382">
       <c r="A382" s="6">
-        <v>2851</v>
+        <v>2857</v>
       </c>
       <c r="B382" t="s" s="7">
         <v>762</v>
@@ -6884,7 +6848,7 @@
     </row>
     <row r="383">
       <c r="A383" s="6">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="B383" t="s" s="7">
         <v>764</v>
@@ -6895,7 +6859,7 @@
     </row>
     <row r="384">
       <c r="A384" s="6">
-        <v>2853</v>
+        <v>2859</v>
       </c>
       <c r="B384" t="s" s="7">
         <v>766</v>
@@ -6906,7 +6870,7 @@
     </row>
     <row r="385">
       <c r="A385" s="6">
-        <v>2854</v>
+        <v>2860</v>
       </c>
       <c r="B385" t="s" s="7">
         <v>768</v>
@@ -6917,7 +6881,7 @@
     </row>
     <row r="386">
       <c r="A386" s="6">
-        <v>2855</v>
+        <v>2861</v>
       </c>
       <c r="B386" t="s" s="7">
         <v>770</v>
@@ -6928,7 +6892,7 @@
     </row>
     <row r="387">
       <c r="A387" s="6">
-        <v>2856</v>
+        <v>2862</v>
       </c>
       <c r="B387" t="s" s="7">
         <v>772</v>
@@ -6939,7 +6903,7 @@
     </row>
     <row r="388">
       <c r="A388" s="6">
-        <v>2857</v>
+        <v>2863</v>
       </c>
       <c r="B388" t="s" s="7">
         <v>774</v>
@@ -6950,7 +6914,7 @@
     </row>
     <row r="389">
       <c r="A389" s="6">
-        <v>2858</v>
+        <v>2864</v>
       </c>
       <c r="B389" t="s" s="7">
         <v>776</v>
@@ -6961,7 +6925,7 @@
     </row>
     <row r="390">
       <c r="A390" s="6">
-        <v>2859</v>
+        <v>2865</v>
       </c>
       <c r="B390" t="s" s="7">
         <v>778</v>
@@ -6972,7 +6936,7 @@
     </row>
     <row r="391">
       <c r="A391" s="6">
-        <v>2860</v>
+        <v>2866</v>
       </c>
       <c r="B391" t="s" s="7">
         <v>780</v>
@@ -6983,7 +6947,7 @@
     </row>
     <row r="392">
       <c r="A392" s="6">
-        <v>2861</v>
+        <v>2867</v>
       </c>
       <c r="B392" t="s" s="7">
         <v>782</v>
@@ -6994,7 +6958,7 @@
     </row>
     <row r="393">
       <c r="A393" s="6">
-        <v>2862</v>
+        <v>2868</v>
       </c>
       <c r="B393" t="s" s="7">
         <v>784</v>
@@ -7005,7 +6969,7 @@
     </row>
     <row r="394">
       <c r="A394" s="6">
-        <v>2863</v>
+        <v>2869</v>
       </c>
       <c r="B394" t="s" s="7">
         <v>786</v>
@@ -7016,7 +6980,7 @@
     </row>
     <row r="395">
       <c r="A395" s="6">
-        <v>2864</v>
+        <v>2870</v>
       </c>
       <c r="B395" t="s" s="7">
         <v>788</v>
@@ -7027,7 +6991,7 @@
     </row>
     <row r="396">
       <c r="A396" s="6">
-        <v>2865</v>
+        <v>2871</v>
       </c>
       <c r="B396" t="s" s="7">
         <v>790</v>
@@ -7038,7 +7002,7 @@
     </row>
     <row r="397">
       <c r="A397" s="6">
-        <v>2866</v>
+        <v>2872</v>
       </c>
       <c r="B397" t="s" s="7">
         <v>792</v>
@@ -7049,7 +7013,7 @@
     </row>
     <row r="398">
       <c r="A398" s="6">
-        <v>2867</v>
+        <v>2873</v>
       </c>
       <c r="B398" t="s" s="7">
         <v>794</v>
@@ -7060,7 +7024,7 @@
     </row>
     <row r="399">
       <c r="A399" s="6">
-        <v>2868</v>
+        <v>2875</v>
       </c>
       <c r="B399" t="s" s="7">
         <v>796</v>
@@ -7071,7 +7035,7 @@
     </row>
     <row r="400">
       <c r="A400" s="6">
-        <v>2869</v>
+        <v>2876</v>
       </c>
       <c r="B400" t="s" s="7">
         <v>798</v>
@@ -7082,7 +7046,7 @@
     </row>
     <row r="401">
       <c r="A401" s="6">
-        <v>2870</v>
+        <v>2877</v>
       </c>
       <c r="B401" t="s" s="7">
         <v>800</v>
@@ -7093,7 +7057,7 @@
     </row>
     <row r="402">
       <c r="A402" s="6">
-        <v>2871</v>
+        <v>2879</v>
       </c>
       <c r="B402" t="s" s="7">
         <v>802</v>
@@ -7104,7 +7068,7 @@
     </row>
     <row r="403">
       <c r="A403" s="6">
-        <v>2872</v>
+        <v>2880</v>
       </c>
       <c r="B403" t="s" s="7">
         <v>804</v>
@@ -7115,7 +7079,7 @@
     </row>
     <row r="404">
       <c r="A404" s="6">
-        <v>2873</v>
+        <v>2881</v>
       </c>
       <c r="B404" t="s" s="7">
         <v>806</v>
@@ -7126,7 +7090,7 @@
     </row>
     <row r="405">
       <c r="A405" s="6">
-        <v>2875</v>
+        <v>2882</v>
       </c>
       <c r="B405" t="s" s="7">
         <v>808</v>
@@ -7137,7 +7101,7 @@
     </row>
     <row r="406">
       <c r="A406" s="6">
-        <v>2876</v>
+        <v>2883</v>
       </c>
       <c r="B406" t="s" s="7">
         <v>810</v>
@@ -7148,7 +7112,7 @@
     </row>
     <row r="407">
       <c r="A407" s="6">
-        <v>2877</v>
+        <v>2884</v>
       </c>
       <c r="B407" t="s" s="7">
         <v>812</v>
@@ -7159,7 +7123,7 @@
     </row>
     <row r="408">
       <c r="A408" s="6">
-        <v>2879</v>
+        <v>2885</v>
       </c>
       <c r="B408" t="s" s="7">
         <v>814</v>
@@ -7170,7 +7134,7 @@
     </row>
     <row r="409">
       <c r="A409" s="6">
-        <v>2880</v>
+        <v>2886</v>
       </c>
       <c r="B409" t="s" s="7">
         <v>816</v>
@@ -7181,7 +7145,7 @@
     </row>
     <row r="410">
       <c r="A410" s="6">
-        <v>2881</v>
+        <v>2889</v>
       </c>
       <c r="B410" t="s" s="7">
         <v>818</v>
@@ -7192,7 +7156,7 @@
     </row>
     <row r="411">
       <c r="A411" s="6">
-        <v>2882</v>
+        <v>2890</v>
       </c>
       <c r="B411" t="s" s="7">
         <v>820</v>
@@ -7203,7 +7167,7 @@
     </row>
     <row r="412">
       <c r="A412" s="6">
-        <v>2883</v>
+        <v>2891</v>
       </c>
       <c r="B412" t="s" s="7">
         <v>822</v>
@@ -7214,7 +7178,7 @@
     </row>
     <row r="413">
       <c r="A413" s="6">
-        <v>2884</v>
+        <v>2892</v>
       </c>
       <c r="B413" t="s" s="7">
         <v>824</v>
@@ -7225,7 +7189,7 @@
     </row>
     <row r="414">
       <c r="A414" s="6">
-        <v>2885</v>
+        <v>2893</v>
       </c>
       <c r="B414" t="s" s="7">
         <v>826</v>
@@ -7236,7 +7200,7 @@
     </row>
     <row r="415">
       <c r="A415" s="6">
-        <v>2886</v>
+        <v>2894</v>
       </c>
       <c r="B415" t="s" s="7">
         <v>828</v>
@@ -7247,7 +7211,7 @@
     </row>
     <row r="416">
       <c r="A416" s="6">
-        <v>2888</v>
+        <v>2895</v>
       </c>
       <c r="B416" t="s" s="7">
         <v>830</v>
@@ -7258,7 +7222,7 @@
     </row>
     <row r="417">
       <c r="A417" s="6">
-        <v>2889</v>
+        <v>2896</v>
       </c>
       <c r="B417" t="s" s="7">
         <v>832</v>
@@ -7269,7 +7233,7 @@
     </row>
     <row r="418">
       <c r="A418" s="6">
-        <v>2890</v>
+        <v>2897</v>
       </c>
       <c r="B418" t="s" s="7">
         <v>834</v>
@@ -7280,7 +7244,7 @@
     </row>
     <row r="419">
       <c r="A419" s="6">
-        <v>2891</v>
+        <v>2898</v>
       </c>
       <c r="B419" t="s" s="7">
         <v>836</v>
@@ -7291,7 +7255,7 @@
     </row>
     <row r="420">
       <c r="A420" s="6">
-        <v>2892</v>
+        <v>2900</v>
       </c>
       <c r="B420" t="s" s="7">
         <v>838</v>
@@ -7302,7 +7266,7 @@
     </row>
     <row r="421">
       <c r="A421" s="6">
-        <v>2893</v>
+        <v>2901</v>
       </c>
       <c r="B421" t="s" s="7">
         <v>840</v>
@@ -7313,7 +7277,7 @@
     </row>
     <row r="422">
       <c r="A422" s="6">
-        <v>2894</v>
+        <v>2902</v>
       </c>
       <c r="B422" t="s" s="7">
         <v>842</v>
@@ -7324,7 +7288,7 @@
     </row>
     <row r="423">
       <c r="A423" s="6">
-        <v>2895</v>
+        <v>2904</v>
       </c>
       <c r="B423" t="s" s="7">
         <v>844</v>
@@ -7335,7 +7299,7 @@
     </row>
     <row r="424">
       <c r="A424" s="6">
-        <v>2896</v>
+        <v>5388536538</v>
       </c>
       <c r="B424" t="s" s="7">
         <v>846</v>
@@ -7346,7 +7310,7 @@
     </row>
     <row r="425">
       <c r="A425" s="6">
-        <v>2897</v>
+        <v>16152612577</v>
       </c>
       <c r="B425" t="s" s="7">
         <v>848</v>
@@ -7357,79 +7321,13 @@
     </row>
     <row r="426">
       <c r="A426" s="6">
-        <v>2898</v>
+        <v>46065193430</v>
       </c>
       <c r="B426" t="s" s="7">
         <v>850</v>
       </c>
       <c r="C426" t="s" s="8">
         <v>851</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="6">
-        <v>2900</v>
-      </c>
-      <c r="B427" t="s" s="7">
-        <v>852</v>
-      </c>
-      <c r="C427" t="s" s="8">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="6">
-        <v>2901</v>
-      </c>
-      <c r="B428" t="s" s="7">
-        <v>854</v>
-      </c>
-      <c r="C428" t="s" s="8">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="6">
-        <v>2902</v>
-      </c>
-      <c r="B429" t="s" s="7">
-        <v>856</v>
-      </c>
-      <c r="C429" t="s" s="8">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="6">
-        <v>2904</v>
-      </c>
-      <c r="B430" t="s" s="7">
-        <v>858</v>
-      </c>
-      <c r="C430" t="s" s="8">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="6">
-        <v>5388536538</v>
-      </c>
-      <c r="B431" t="s" s="7">
-        <v>860</v>
-      </c>
-      <c r="C431" t="s" s="8">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="6">
-        <v>16152612577</v>
-      </c>
-      <c r="B432" t="s" s="7">
-        <v>862</v>
-      </c>
-      <c r="C432" t="s" s="8">
-        <v>863</v>
       </c>
     </row>
   </sheetData>
